--- a/Data/Morgan_Stanley_bank.xlsx
+++ b/Data/Morgan_Stanley_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18577\Desktop\IDMP\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53D39C8-7E86-443A-86F8-5DB500FE96BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506F950-2378-4B8C-8C4C-3703101CD57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="916" firstSheet="5" activeTab="12" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="538">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -1659,6 +1659,9 @@
   </si>
   <si>
     <t>PG 2</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1694,11 +1697,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2015,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7E63F-C1EC-479A-887D-3134EA9C8E58}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2025,57 +2052,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1">
+      <c r="A1" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1">
+      <c r="C1" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1">
+      <c r="F1" s="4">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1">
+      <c r="I1" s="4">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="4">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1">
+      <c r="L1" s="4">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="4">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1">
+      <c r="O1" s="4">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="4">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1">
+      <c r="R1" s="4">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="4">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1">
+      <c r="U1" s="4">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="4">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1">
+      <c r="X1" s="4">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1">
+      <c r="AA1" s="4">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="1"/>
+      <c r="AD1" s="4">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>43281</v>
+      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -6211,41 +6280,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E6DE0-FAE2-492B-B084-4271321BB965}">
   <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:AE71"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
+      <c r="A1" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="11">
         <v>44926</v>
       </c>
-      <c r="F1" s="1">
+      <c r="C1" s="11">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="11">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="11">
         <v>44742</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="11">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="11">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="11">
         <v>44561</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="11">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="11">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="11">
         <v>44377</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="11">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="11">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="11">
         <v>44196</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="11">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="11">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="11">
         <v>44012</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="11">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="11">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="11">
         <v>43830</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="11">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="11">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="11">
         <v>43646</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="11">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="11">
         <v>43465</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="11">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="11">
         <v>43281</v>
       </c>
     </row>
@@ -9476,71 +9608,77 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80EA4FE-0F5B-4BB4-937A-D89E97326C9C}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
       <c r="C1" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D1" s="1">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E1" s="1">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F1" s="1">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G1" s="1">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H1" s="1">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I1" s="1">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J1" s="1">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L1" s="1">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>427</v>
       </c>
+      <c r="B4" s="3">
+        <v>12144000</v>
+      </c>
       <c r="C4" s="3">
         <v>12144000</v>
       </c>
       <c r="D4" s="3">
-        <v>12144000</v>
+        <v>5422000</v>
       </c>
       <c r="E4" s="3">
         <v>5422000</v>
       </c>
       <c r="F4" s="3">
-        <v>5422000</v>
+        <v>4622000</v>
       </c>
       <c r="G4" s="3">
         <v>4622000</v>
@@ -9557,84 +9695,84 @@
       <c r="K4" s="3">
         <v>4622000</v>
       </c>
-      <c r="L4" s="3">
-        <v>4622000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>428</v>
       </c>
+      <c r="B5" s="3">
+        <v>4876000</v>
+      </c>
       <c r="C5" s="3">
-        <v>4876000</v>
+        <v>4788000</v>
       </c>
       <c r="D5" s="3">
-        <v>4788000</v>
+        <v>4822000</v>
       </c>
       <c r="E5" s="3">
-        <v>4822000</v>
+        <v>4001000</v>
       </c>
       <c r="F5" s="3">
-        <v>4001000</v>
+        <v>3294000</v>
       </c>
       <c r="G5" s="3">
-        <v>3294000</v>
+        <v>3281000</v>
       </c>
       <c r="H5" s="3">
-        <v>3281000</v>
+        <v>3296000</v>
       </c>
       <c r="I5" s="3">
-        <v>3296000</v>
+        <v>3291000</v>
       </c>
       <c r="J5" s="3">
-        <v>3291000</v>
+        <v>2697000</v>
       </c>
       <c r="K5" s="3">
-        <v>2697000</v>
-      </c>
-      <c r="L5" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>429</v>
       </c>
+      <c r="B6" s="3">
+        <v>-1033000</v>
+      </c>
       <c r="C6" s="3">
-        <v>-1033000</v>
+        <v>-871000</v>
       </c>
       <c r="D6" s="3">
-        <v>-871000</v>
+        <v>48000</v>
       </c>
       <c r="E6" s="3">
-        <v>48000</v>
+        <v>204000</v>
       </c>
       <c r="F6" s="3">
-        <v>204000</v>
+        <v>294000</v>
       </c>
       <c r="G6" s="3">
-        <v>294000</v>
+        <v>329000</v>
       </c>
       <c r="H6" s="3">
-        <v>329000</v>
+        <v>44000</v>
       </c>
       <c r="I6" s="3">
-        <v>44000</v>
+        <v>32000</v>
       </c>
       <c r="J6" s="3">
-        <v>32000</v>
+        <v>-136000</v>
       </c>
       <c r="K6" s="3">
-        <v>-136000</v>
-      </c>
-      <c r="L6" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>430</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -9662,60 +9800,60 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>431</v>
       </c>
+      <c r="B8" s="3">
+        <v>15987000</v>
+      </c>
       <c r="C8" s="3">
-        <v>15987000</v>
+        <v>16061000</v>
       </c>
       <c r="D8" s="3">
-        <v>16061000</v>
+        <v>10292000</v>
       </c>
       <c r="E8" s="3">
-        <v>10292000</v>
+        <v>9627000</v>
       </c>
       <c r="F8" s="3">
-        <v>9627000</v>
+        <v>8210000</v>
       </c>
       <c r="G8" s="3">
-        <v>8210000</v>
+        <v>8232000</v>
       </c>
       <c r="H8" s="3">
-        <v>8232000</v>
+        <v>7962000</v>
       </c>
       <c r="I8" s="3">
-        <v>7962000</v>
+        <v>7945000</v>
       </c>
       <c r="J8" s="3">
-        <v>7945000</v>
+        <v>7183000</v>
       </c>
       <c r="K8" s="3">
-        <v>7183000</v>
-      </c>
-      <c r="L8" s="3">
         <v>6608000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>433</v>
       </c>
+      <c r="B11" s="3">
+        <v>409000</v>
+      </c>
       <c r="C11" s="3">
-        <v>409000</v>
-      </c>
-      <c r="D11" s="3">
         <v>408000</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -9737,20 +9875,20 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>434</v>
       </c>
+      <c r="B12" s="3">
+        <v>41000</v>
+      </c>
       <c r="C12" s="3">
-        <v>41000</v>
-      </c>
-      <c r="D12" s="3">
         <v>45000</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
@@ -9772,14 +9910,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>435</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -9807,14 +9945,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>436</v>
       </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -9842,14 +9980,14 @@
       <c r="K14" t="s">
         <v>30</v>
       </c>
-      <c r="L14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>437</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -9877,29 +10015,29 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>438</v>
       </c>
-      <c r="C16" s="3">
+      <c r="B16" s="3">
         <v>-9000</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1000</v>
       </c>
       <c r="E16" s="3">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="F16" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G16" s="3">
         <v>-3000</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -9912,14 +10050,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>439</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -9947,49 +10085,49 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>440</v>
       </c>
+      <c r="B18" s="3">
+        <v>15546000</v>
+      </c>
       <c r="C18" s="3">
-        <v>15546000</v>
+        <v>15608000</v>
       </c>
       <c r="D18" s="3">
-        <v>15608000</v>
+        <v>10293000</v>
       </c>
       <c r="E18" s="3">
-        <v>10293000</v>
+        <v>9629000</v>
       </c>
       <c r="F18" s="3">
-        <v>9629000</v>
+        <v>8213000</v>
       </c>
       <c r="G18" s="3">
-        <v>8213000</v>
+        <v>8232000</v>
       </c>
       <c r="H18" s="3">
-        <v>8232000</v>
+        <v>7962000</v>
       </c>
       <c r="I18" s="3">
-        <v>7962000</v>
+        <v>7945000</v>
       </c>
       <c r="J18" s="3">
-        <v>7945000</v>
+        <v>7183000</v>
       </c>
       <c r="K18" s="3">
-        <v>7183000</v>
-      </c>
-      <c r="L18" s="3">
         <v>6608000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>441</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -10017,14 +10155,14 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>442</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>0</v>
       </c>
@@ -10052,14 +10190,14 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>443</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>0</v>
       </c>
@@ -10087,14 +10225,14 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>444</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>0</v>
       </c>
@@ -10122,14 +10260,14 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>445</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>0</v>
       </c>
@@ -10157,54 +10295,54 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>446</v>
       </c>
+      <c r="B24" s="3">
+        <v>15546000</v>
+      </c>
       <c r="C24" s="3">
-        <v>15546000</v>
+        <v>15608000</v>
       </c>
       <c r="D24" s="3">
-        <v>15608000</v>
+        <v>10293000</v>
       </c>
       <c r="E24" s="3">
-        <v>10293000</v>
+        <v>9629000</v>
       </c>
       <c r="F24" s="3">
-        <v>9629000</v>
+        <v>8213000</v>
       </c>
       <c r="G24" s="3">
-        <v>8213000</v>
+        <v>8232000</v>
       </c>
       <c r="H24" s="3">
-        <v>8232000</v>
+        <v>7962000</v>
       </c>
       <c r="I24" s="3">
-        <v>7962000</v>
+        <v>7945000</v>
       </c>
       <c r="J24" s="3">
-        <v>7945000</v>
+        <v>7183000</v>
       </c>
       <c r="K24" s="3">
-        <v>7183000</v>
-      </c>
-      <c r="L24" s="3">
         <v>6608000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>448</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>0</v>
       </c>
@@ -10232,14 +10370,14 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>449</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>0</v>
       </c>
@@ -10267,14 +10405,14 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>450</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>0</v>
       </c>
@@ -10302,14 +10440,14 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>451</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>0</v>
       </c>
@@ -10337,14 +10475,14 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>452</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>0</v>
       </c>
@@ -10372,14 +10510,14 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>453</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>0</v>
       </c>
@@ -10407,54 +10545,54 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
+      <c r="B34" s="3">
+        <v>15546000</v>
+      </c>
       <c r="C34" s="3">
-        <v>15546000</v>
+        <v>15608000</v>
       </c>
       <c r="D34" s="3">
-        <v>15608000</v>
+        <v>10293000</v>
       </c>
       <c r="E34" s="3">
-        <v>10293000</v>
+        <v>9629000</v>
       </c>
       <c r="F34" s="3">
-        <v>9629000</v>
+        <v>8213000</v>
       </c>
       <c r="G34" s="3">
-        <v>8213000</v>
+        <v>8232000</v>
       </c>
       <c r="H34" s="3">
-        <v>8232000</v>
+        <v>7962000</v>
       </c>
       <c r="I34" s="3">
-        <v>7962000</v>
+        <v>7945000</v>
       </c>
       <c r="J34" s="3">
-        <v>7945000</v>
+        <v>7183000</v>
       </c>
       <c r="K34" s="3">
-        <v>7183000</v>
-      </c>
-      <c r="L34" s="3">
         <v>6608000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>455</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>0</v>
       </c>
@@ -10482,14 +10620,14 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>456</v>
       </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>0</v>
       </c>
@@ -10517,14 +10655,14 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>457</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>0</v>
       </c>
@@ -10552,84 +10690,84 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>458</v>
       </c>
+      <c r="B40" s="3">
+        <v>149000</v>
+      </c>
       <c r="C40" s="3">
-        <v>149000</v>
+        <v>116000</v>
       </c>
       <c r="D40" s="3">
-        <v>116000</v>
+        <v>75000</v>
       </c>
       <c r="E40" s="3">
-        <v>75000</v>
+        <v>73000</v>
       </c>
       <c r="F40" s="3">
-        <v>73000</v>
+        <v>74000</v>
       </c>
       <c r="G40" s="3">
-        <v>74000</v>
+        <v>85000</v>
       </c>
       <c r="H40" s="3">
-        <v>85000</v>
+        <v>54000</v>
       </c>
       <c r="I40" s="3">
-        <v>54000</v>
+        <v>47000</v>
       </c>
       <c r="J40" s="3">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="K40" s="3">
-        <v>46000</v>
-      </c>
-      <c r="L40" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>459</v>
       </c>
+      <c r="B41" s="3">
+        <v>71000</v>
+      </c>
       <c r="C41" s="3">
-        <v>71000</v>
+        <v>7000</v>
       </c>
       <c r="D41" s="3">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="E41" s="3">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="F41" s="3">
-        <v>41000</v>
+        <v>23000</v>
       </c>
       <c r="G41" s="3">
         <v>23000</v>
       </c>
       <c r="H41" s="3">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="I41" s="3">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="J41" s="3">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K41" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L41" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>460</v>
       </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -10657,84 +10795,84 @@
       <c r="K42" t="s">
         <v>30</v>
       </c>
-      <c r="L42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>461</v>
       </c>
+      <c r="B43" s="3">
+        <v>149000</v>
+      </c>
       <c r="C43" s="3">
-        <v>149000</v>
+        <v>116000</v>
       </c>
       <c r="D43" s="3">
-        <v>116000</v>
+        <v>75000</v>
       </c>
       <c r="E43" s="3">
-        <v>75000</v>
+        <v>73000</v>
       </c>
       <c r="F43" s="3">
-        <v>73000</v>
+        <v>74000</v>
       </c>
       <c r="G43" s="3">
-        <v>74000</v>
+        <v>85000</v>
       </c>
       <c r="H43" s="3">
-        <v>85000</v>
+        <v>54000</v>
       </c>
       <c r="I43" s="3">
-        <v>54000</v>
+        <v>47000</v>
       </c>
       <c r="J43" s="3">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="K43" s="3">
-        <v>46000</v>
-      </c>
-      <c r="L43" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>462</v>
       </c>
+      <c r="B44" s="3">
+        <v>71000</v>
+      </c>
       <c r="C44" s="3">
-        <v>71000</v>
+        <v>7000</v>
       </c>
       <c r="D44" s="3">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="E44" s="3">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="F44" s="3">
-        <v>41000</v>
+        <v>23000</v>
       </c>
       <c r="G44" s="3">
         <v>23000</v>
       </c>
       <c r="H44" s="3">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="I44" s="3">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="J44" s="3">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K44" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L44" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>463</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>0</v>
       </c>
@@ -10762,147 +10900,144 @@
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>464</v>
       </c>
+      <c r="B47" s="3">
+        <v>149000</v>
+      </c>
       <c r="C47" s="3">
-        <v>149000</v>
+        <v>116000</v>
       </c>
       <c r="D47" s="3">
-        <v>116000</v>
+        <v>75000</v>
       </c>
       <c r="E47" s="3">
-        <v>75000</v>
+        <v>73000</v>
       </c>
       <c r="F47" s="3">
-        <v>73000</v>
+        <v>74000</v>
       </c>
       <c r="G47" s="3">
-        <v>74000</v>
+        <v>85000</v>
       </c>
       <c r="H47" s="3">
-        <v>85000</v>
+        <v>54000</v>
       </c>
       <c r="I47" s="3">
-        <v>54000</v>
+        <v>47000</v>
       </c>
       <c r="J47" s="3">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="K47" s="3">
-        <v>46000</v>
-      </c>
-      <c r="L47" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>465</v>
       </c>
+      <c r="B48" s="3">
+        <v>71000</v>
+      </c>
       <c r="C48" s="3">
-        <v>71000</v>
+        <v>7000</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="E48" s="3">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="F48" s="3">
-        <v>41000</v>
+        <v>23000</v>
       </c>
       <c r="G48" s="3">
         <v>23000</v>
       </c>
       <c r="H48" s="3">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="I48" s="3">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="J48" s="3">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K48" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L48" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>466</v>
       </c>
+      <c r="B49" s="3">
+        <v>15695000</v>
+      </c>
       <c r="C49" s="3">
-        <v>15695000</v>
+        <v>15724000</v>
       </c>
       <c r="D49" s="3">
-        <v>15724000</v>
+        <v>10368000</v>
       </c>
       <c r="E49" s="3">
-        <v>10368000</v>
+        <v>9702000</v>
       </c>
       <c r="F49" s="3">
-        <v>9702000</v>
+        <v>8287000</v>
       </c>
       <c r="G49" s="3">
-        <v>8287000</v>
+        <v>8317000</v>
       </c>
       <c r="H49" s="3">
-        <v>8317000</v>
+        <v>8016000</v>
       </c>
       <c r="I49" s="3">
-        <v>8016000</v>
+        <v>7992000</v>
       </c>
       <c r="J49" s="3">
-        <v>7992000</v>
+        <v>7229000</v>
       </c>
       <c r="K49" s="3">
-        <v>7229000</v>
-      </c>
-      <c r="L49" s="3">
         <v>6649000</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>467</v>
       </c>
+      <c r="B50" s="3">
+        <v>15617000</v>
+      </c>
       <c r="C50" s="3">
-        <v>15617000</v>
+        <v>15615000</v>
       </c>
       <c r="D50" s="3">
-        <v>15615000</v>
+        <v>10323000</v>
       </c>
       <c r="E50" s="3">
-        <v>10323000</v>
+        <v>9670000</v>
       </c>
       <c r="F50" s="3">
-        <v>9670000</v>
+        <v>8236000</v>
       </c>
       <c r="G50" s="3">
-        <v>8236000</v>
+        <v>8255000</v>
       </c>
       <c r="H50" s="3">
-        <v>8255000</v>
+        <v>7979000</v>
       </c>
       <c r="I50" s="3">
-        <v>7979000</v>
+        <v>7955000</v>
       </c>
       <c r="J50" s="3">
-        <v>7955000</v>
+        <v>7197000</v>
       </c>
       <c r="K50" s="3">
-        <v>7197000</v>
-      </c>
-      <c r="L50" s="3">
         <v>6621000</v>
       </c>
     </row>
@@ -10913,60 +11048,66 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E7D5BC-F9C4-4579-8BF1-5BD5552C19F6}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
       <c r="C1" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D1" s="1">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E1" s="1">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F1" s="1">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G1" s="1">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H1" s="1">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I1" s="1">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J1" s="1">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L1" s="1">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>470</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -10994,14 +11135,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>471</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -11029,134 +11170,134 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>472</v>
       </c>
+      <c r="B6" s="3">
+        <v>5999000</v>
+      </c>
       <c r="C6" s="3">
-        <v>5999000</v>
+        <v>6304200</v>
       </c>
       <c r="D6" s="3">
-        <v>6304200</v>
+        <v>814000</v>
       </c>
       <c r="E6" s="3">
-        <v>814000</v>
+        <v>854400</v>
       </c>
       <c r="F6" s="3">
-        <v>854400</v>
+        <v>884000</v>
       </c>
       <c r="G6" s="3">
-        <v>884000</v>
+        <v>873000</v>
       </c>
       <c r="H6" s="3">
-        <v>873000</v>
+        <v>648400</v>
       </c>
       <c r="I6" s="3">
-        <v>648400</v>
+        <v>557200</v>
       </c>
       <c r="J6" s="3">
-        <v>557200</v>
+        <v>409000</v>
       </c>
       <c r="K6" s="3">
-        <v>409000</v>
-      </c>
-      <c r="L6" s="3">
         <v>415600</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>473</v>
       </c>
+      <c r="B7" s="3">
+        <v>27208000</v>
+      </c>
       <c r="C7" s="3">
-        <v>27208000</v>
+        <v>25193500</v>
       </c>
       <c r="D7" s="3">
-        <v>25193500</v>
+        <v>22074000</v>
       </c>
       <c r="E7" s="3">
-        <v>22074000</v>
+        <v>19409000</v>
       </c>
       <c r="F7" s="3">
-        <v>19409000</v>
+        <v>14452500</v>
       </c>
       <c r="G7" s="3">
-        <v>14452500</v>
+        <v>13266500</v>
       </c>
       <c r="H7" s="3">
-        <v>13266500</v>
+        <v>15078500</v>
       </c>
       <c r="I7" s="3">
-        <v>15078500</v>
+        <v>14296000</v>
       </c>
       <c r="J7" s="3">
-        <v>14296000</v>
+        <v>13744000</v>
       </c>
       <c r="K7" s="3">
-        <v>13744000</v>
-      </c>
-      <c r="L7" s="3">
         <v>13245000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>474</v>
       </c>
+      <c r="B8" s="3">
+        <v>17717000</v>
+      </c>
       <c r="C8" s="3">
-        <v>17717000</v>
+        <v>15882000</v>
       </c>
       <c r="D8" s="3">
-        <v>15882000</v>
+        <v>15147000</v>
       </c>
       <c r="E8" s="3">
-        <v>15147000</v>
+        <v>14149000</v>
       </c>
       <c r="F8" s="3">
-        <v>14149000</v>
+        <v>18677000</v>
       </c>
       <c r="G8" s="3">
-        <v>18677000</v>
+        <v>19410000</v>
       </c>
       <c r="H8" s="3">
-        <v>19410000</v>
+        <v>12946000</v>
       </c>
       <c r="I8" s="3">
-        <v>12946000</v>
+        <v>11111000</v>
       </c>
       <c r="J8" s="3">
-        <v>11111000</v>
+        <v>12002000</v>
       </c>
       <c r="K8" s="3">
-        <v>12002000</v>
-      </c>
-      <c r="L8" s="3">
         <v>10676000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>475</v>
       </c>
+      <c r="B9" s="3">
+        <v>69000</v>
+      </c>
       <c r="C9" s="3">
-        <v>69000</v>
+        <v>205500</v>
       </c>
       <c r="D9" s="3">
-        <v>205500</v>
+        <v>217500</v>
       </c>
       <c r="E9" s="3">
-        <v>217500</v>
+        <v>223500</v>
       </c>
       <c r="F9" s="3">
-        <v>223500</v>
-      </c>
-      <c r="G9" s="3">
         <v>258000</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -11169,14 +11310,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>476</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -11204,14 +11345,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>477</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -11239,14 +11380,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>478</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -11274,14 +11415,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>479</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -11309,14 +11450,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>480</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -11344,84 +11485,84 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>481</v>
       </c>
+      <c r="B15" s="3">
+        <v>1704000</v>
+      </c>
       <c r="C15" s="3">
-        <v>1704000</v>
+        <v>1896000</v>
       </c>
       <c r="D15" s="3">
-        <v>1896000</v>
+        <v>1258000</v>
       </c>
       <c r="E15" s="3">
-        <v>1258000</v>
+        <v>886000</v>
       </c>
       <c r="F15" s="3">
-        <v>886000</v>
+        <v>845000</v>
       </c>
       <c r="G15" s="3">
-        <v>845000</v>
+        <v>553000</v>
       </c>
       <c r="H15" s="3">
-        <v>553000</v>
+        <v>513000</v>
       </c>
       <c r="I15" s="3">
-        <v>513000</v>
+        <v>392000</v>
       </c>
       <c r="J15" s="3">
-        <v>392000</v>
+        <v>292000</v>
       </c>
       <c r="K15" s="3">
-        <v>292000</v>
-      </c>
-      <c r="L15" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>482</v>
       </c>
+      <c r="B16" s="3">
+        <v>101000</v>
+      </c>
       <c r="C16" s="3">
-        <v>101000</v>
+        <v>111000</v>
       </c>
       <c r="D16" s="3">
-        <v>111000</v>
+        <v>73000</v>
       </c>
       <c r="E16" s="3">
-        <v>73000</v>
+        <v>82000</v>
       </c>
       <c r="F16" s="3">
-        <v>82000</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="3">
-        <v>80000</v>
+        <v>81000</v>
       </c>
       <c r="H16" s="3">
-        <v>81000</v>
+        <v>89000</v>
       </c>
       <c r="I16" s="3">
-        <v>89000</v>
+        <v>133000</v>
       </c>
       <c r="J16" s="3">
-        <v>133000</v>
+        <v>142000</v>
       </c>
       <c r="K16" s="3">
-        <v>142000</v>
-      </c>
-      <c r="L16" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>483</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -11449,89 +11590,89 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>484</v>
       </c>
+      <c r="B18" s="3">
+        <v>52798000</v>
+      </c>
       <c r="C18" s="3">
-        <v>52798000</v>
+        <v>49592200</v>
       </c>
       <c r="D18" s="3">
-        <v>49592200</v>
+        <v>39583500</v>
       </c>
       <c r="E18" s="3">
-        <v>39583500</v>
+        <v>35603900</v>
       </c>
       <c r="F18" s="3">
-        <v>35603900</v>
+        <v>35196500</v>
       </c>
       <c r="G18" s="3">
-        <v>35196500</v>
+        <v>34183500</v>
       </c>
       <c r="H18" s="3">
-        <v>34183500</v>
+        <v>29274900</v>
       </c>
       <c r="I18" s="3">
-        <v>29274900</v>
+        <v>26489200</v>
       </c>
       <c r="J18" s="3">
-        <v>26489200</v>
+        <v>26589000</v>
       </c>
       <c r="K18" s="3">
-        <v>26589000</v>
-      </c>
-      <c r="L18" s="3">
         <v>24798600</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>485</v>
       </c>
+      <c r="B19" s="3">
+        <v>46673000</v>
+      </c>
       <c r="C19" s="3">
-        <v>46673000</v>
+        <v>39514000</v>
       </c>
       <c r="D19" s="3">
-        <v>39514000</v>
+        <v>39381000</v>
       </c>
       <c r="E19" s="3">
-        <v>39381000</v>
+        <v>28969000</v>
       </c>
       <c r="F19" s="3">
-        <v>28969000</v>
+        <v>23150000</v>
       </c>
       <c r="G19" s="3">
-        <v>23150000</v>
+        <v>22642000</v>
       </c>
       <c r="H19" s="3">
-        <v>22642000</v>
+        <v>15251000</v>
       </c>
       <c r="I19" s="3">
-        <v>15251000</v>
+        <v>14619000</v>
       </c>
       <c r="J19" s="3">
-        <v>14619000</v>
+        <v>17147000</v>
       </c>
       <c r="K19" s="3">
-        <v>17147000</v>
-      </c>
-      <c r="L19" s="3">
         <v>14765000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>470</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>0</v>
       </c>
@@ -11559,14 +11700,14 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>471</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>0</v>
       </c>
@@ -11594,14 +11735,14 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>487</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>0</v>
       </c>
@@ -11629,19 +11770,19 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>472</v>
       </c>
+      <c r="B25" s="3">
+        <v>1600</v>
+      </c>
       <c r="C25" s="3">
         <v>1600</v>
       </c>
-      <c r="D25" s="3">
-        <v>1600</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -11658,105 +11799,105 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
+      <c r="J25" s="3">
+        <v>12000</v>
       </c>
       <c r="K25" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L25" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>473</v>
       </c>
+      <c r="B26" s="3">
+        <v>57500</v>
+      </c>
       <c r="C26" s="3">
-        <v>57500</v>
+        <v>50500</v>
       </c>
       <c r="D26" s="3">
-        <v>50500</v>
+        <v>48000</v>
       </c>
       <c r="E26" s="3">
         <v>48000</v>
       </c>
       <c r="F26" s="3">
-        <v>48000</v>
+        <v>46500</v>
       </c>
       <c r="G26" s="3">
-        <v>46500</v>
+        <v>52000</v>
       </c>
       <c r="H26" s="3">
-        <v>52000</v>
+        <v>61500</v>
       </c>
       <c r="I26" s="3">
-        <v>61500</v>
+        <v>63750</v>
       </c>
       <c r="J26" s="3">
-        <v>63750</v>
+        <v>58000</v>
       </c>
       <c r="K26" s="3">
-        <v>58000</v>
-      </c>
-      <c r="L26" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>474</v>
       </c>
+      <c r="B27" s="3">
+        <v>3577000</v>
+      </c>
       <c r="C27" s="3">
-        <v>3577000</v>
+        <v>2971000</v>
       </c>
       <c r="D27" s="3">
-        <v>2971000</v>
+        <v>2681000</v>
       </c>
       <c r="E27" s="3">
-        <v>2681000</v>
+        <v>2741000</v>
       </c>
       <c r="F27" s="3">
-        <v>2741000</v>
+        <v>3229000</v>
       </c>
       <c r="G27" s="3">
-        <v>3229000</v>
+        <v>3308000</v>
       </c>
       <c r="H27" s="3">
-        <v>3308000</v>
+        <v>2710000</v>
       </c>
       <c r="I27" s="3">
-        <v>2710000</v>
+        <v>2399200</v>
       </c>
       <c r="J27" s="3">
-        <v>2399200</v>
+        <v>1838700</v>
       </c>
       <c r="K27" s="3">
-        <v>1838700</v>
-      </c>
-      <c r="L27" s="3">
         <v>1951300</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>475</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
         <v>3000</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="3">
         <v>13500</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -11769,14 +11910,14 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>488</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>0</v>
       </c>
@@ -11804,14 +11945,14 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>489</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>0</v>
       </c>
@@ -11839,14 +11980,14 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>480</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>0</v>
       </c>
@@ -11874,14 +12015,14 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>490</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>0</v>
       </c>
@@ -11909,49 +12050,49 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>491</v>
       </c>
+      <c r="B33" s="3">
+        <v>53000</v>
+      </c>
       <c r="C33" s="3">
-        <v>53000</v>
+        <v>65000</v>
       </c>
       <c r="D33" s="3">
-        <v>65000</v>
+        <v>66000</v>
       </c>
       <c r="E33" s="3">
-        <v>66000</v>
+        <v>39000</v>
       </c>
       <c r="F33" s="3">
-        <v>39000</v>
+        <v>51000</v>
       </c>
       <c r="G33" s="3">
-        <v>51000</v>
+        <v>2000</v>
       </c>
       <c r="H33" s="3">
         <v>2000</v>
       </c>
       <c r="I33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
-        <v>4000</v>
-      </c>
       <c r="K33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>482</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>0</v>
       </c>
@@ -11979,14 +12120,14 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>483</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>0</v>
       </c>
@@ -12014,54 +12155,54 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>492</v>
       </c>
+      <c r="B36" s="3">
+        <v>3689100</v>
+      </c>
       <c r="C36" s="3">
-        <v>3689100</v>
+        <v>3091100</v>
       </c>
       <c r="D36" s="3">
-        <v>3091100</v>
+        <v>2795000</v>
       </c>
       <c r="E36" s="3">
-        <v>2795000</v>
+        <v>2828000</v>
       </c>
       <c r="F36" s="3">
-        <v>2828000</v>
+        <v>3340000</v>
       </c>
       <c r="G36" s="3">
-        <v>3340000</v>
+        <v>3362000</v>
       </c>
       <c r="H36" s="3">
-        <v>3362000</v>
+        <v>2773500</v>
       </c>
       <c r="I36" s="3">
-        <v>2773500</v>
+        <v>2466950</v>
       </c>
       <c r="J36" s="3">
-        <v>2466950</v>
+        <v>1910700</v>
       </c>
       <c r="K36" s="3">
-        <v>1910700</v>
-      </c>
-      <c r="L36" s="3">
         <v>2021300</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>485</v>
       </c>
+      <c r="B37" s="3">
+        <v>364000</v>
+      </c>
       <c r="C37" s="3">
         <v>364000</v>
       </c>
       <c r="D37" s="3">
-        <v>364000</v>
+        <v>139000</v>
       </c>
       <c r="E37" s="3">
         <v>139000</v>
@@ -12084,14 +12225,14 @@
       <c r="K37" s="3">
         <v>139000</v>
       </c>
-      <c r="L37" s="3">
-        <v>139000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>493</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>0</v>
       </c>
@@ -12119,49 +12260,49 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>494</v>
       </c>
+      <c r="B41" s="3">
+        <v>56487100</v>
+      </c>
       <c r="C41" s="3">
-        <v>56487100</v>
+        <v>52683300</v>
       </c>
       <c r="D41" s="3">
-        <v>52683300</v>
+        <v>42378500</v>
       </c>
       <c r="E41" s="3">
-        <v>42378500</v>
+        <v>38431900</v>
       </c>
       <c r="F41" s="3">
-        <v>38431900</v>
+        <v>38536500</v>
       </c>
       <c r="G41" s="3">
-        <v>38536500</v>
+        <v>37545500</v>
       </c>
       <c r="H41" s="3">
-        <v>37545500</v>
+        <v>32048400</v>
       </c>
       <c r="I41" s="3">
-        <v>32048400</v>
+        <v>28956150</v>
       </c>
       <c r="J41" s="3">
-        <v>28956150</v>
+        <v>28499700</v>
       </c>
       <c r="K41" s="3">
-        <v>28499700</v>
-      </c>
-      <c r="L41" s="3">
         <v>26819900</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>495</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
@@ -12189,14 +12330,14 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>496</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>0</v>
       </c>
@@ -12224,67 +12365,67 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>497</v>
       </c>
+      <c r="B44" s="3">
+        <v>56487100</v>
+      </c>
       <c r="C44" s="3">
-        <v>56487100</v>
+        <v>52683300</v>
       </c>
       <c r="D44" s="3">
-        <v>52683300</v>
+        <v>42378500</v>
       </c>
       <c r="E44" s="3">
-        <v>42378500</v>
+        <v>38431900</v>
       </c>
       <c r="F44" s="3">
-        <v>38431900</v>
+        <v>38536500</v>
       </c>
       <c r="G44" s="3">
-        <v>38536500</v>
+        <v>37545500</v>
       </c>
       <c r="H44" s="3">
-        <v>37545500</v>
+        <v>32048400</v>
       </c>
       <c r="I44" s="3">
-        <v>32048400</v>
+        <v>28956150</v>
       </c>
       <c r="J44" s="3">
-        <v>28956150</v>
+        <v>28499700</v>
       </c>
       <c r="K44" s="3">
-        <v>28499700</v>
-      </c>
-      <c r="L44" s="3">
         <v>26819900</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>498</v>
       </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46">
-        <v>0</v>
+      <c r="D46" s="3">
+        <v>35000</v>
       </c>
       <c r="E46" s="3">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="F46" s="3">
-        <v>8000</v>
+        <v>61000</v>
       </c>
       <c r="G46" s="3">
-        <v>61000</v>
-      </c>
-      <c r="H46" s="3">
         <v>81000</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="I46">
         <v>0</v>
       </c>
@@ -12294,92 +12435,92 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>500</v>
       </c>
+      <c r="B49" s="3">
+        <v>47045000</v>
+      </c>
       <c r="C49" s="3">
-        <v>47045000</v>
+        <v>39054000</v>
       </c>
       <c r="D49" s="3">
-        <v>39054000</v>
+        <v>7333000</v>
       </c>
       <c r="E49" s="3">
-        <v>7333000</v>
+        <v>8410000</v>
       </c>
       <c r="F49" s="3">
-        <v>8410000</v>
+        <v>9634000</v>
       </c>
       <c r="G49" s="3">
-        <v>9634000</v>
+        <v>6089000</v>
       </c>
       <c r="H49" s="3">
-        <v>6089000</v>
+        <v>692000</v>
       </c>
       <c r="I49" s="3">
-        <v>692000</v>
+        <v>36000</v>
       </c>
       <c r="J49" s="3">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="K49" s="3">
-        <v>35000</v>
-      </c>
-      <c r="L49" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>501</v>
       </c>
+      <c r="B50" s="3">
+        <v>47042000</v>
+      </c>
       <c r="C50" s="3">
-        <v>47042000</v>
+        <v>39054000</v>
       </c>
       <c r="D50" s="3">
-        <v>39054000</v>
+        <v>7333000</v>
       </c>
       <c r="E50" s="3">
-        <v>7333000</v>
+        <v>8410000</v>
       </c>
       <c r="F50" s="3">
-        <v>8410000</v>
+        <v>9634000</v>
       </c>
       <c r="G50" s="3">
-        <v>9634000</v>
+        <v>6089000</v>
       </c>
       <c r="H50" s="3">
-        <v>6089000</v>
+        <v>692000</v>
       </c>
       <c r="I50" s="3">
-        <v>692000</v>
+        <v>36000</v>
       </c>
       <c r="J50" s="3">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="K50" s="3">
-        <v>35000</v>
-      </c>
-      <c r="L50" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>502</v>
       </c>
-      <c r="C51" s="3">
+      <c r="B51" s="3">
         <v>3000</v>
       </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
       <c r="D51">
         <v>0</v>
       </c>
@@ -12404,14 +12545,14 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>503</v>
       </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>0</v>
       </c>
@@ -12439,14 +12580,14 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>501</v>
       </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
       <c r="C53">
         <v>0</v>
       </c>
@@ -12474,14 +12615,14 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>502</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>0</v>
       </c>
@@ -12507,9 +12648,6 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
         <v>0</v>
       </c>
     </row>
@@ -12520,60 +12658,69 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D7596-E732-4320-8DA0-47DB1043AB89}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
       <c r="C1" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D1" s="1">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E1" s="1">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F1" s="1">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G1" s="1">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H1" s="1">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I1" s="1">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J1" s="1">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L1" s="1">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>505</v>
       </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12601,14 +12748,14 @@
       <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>506</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -12636,20 +12783,20 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>507</v>
       </c>
+      <c r="B6" s="3">
+        <v>450000</v>
+      </c>
       <c r="C6" s="3">
-        <v>450000</v>
-      </c>
-      <c r="D6" s="3">
         <v>453000</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -12671,14 +12818,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>508</v>
       </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -12706,54 +12853,54 @@
       <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>509</v>
       </c>
+      <c r="B8" s="3">
+        <v>15546000</v>
+      </c>
       <c r="C8" s="3">
-        <v>15546000</v>
+        <v>15608000</v>
       </c>
       <c r="D8" s="3">
-        <v>15608000</v>
+        <v>10293000</v>
       </c>
       <c r="E8" s="3">
-        <v>10293000</v>
+        <v>9629000</v>
       </c>
       <c r="F8" s="3">
-        <v>9629000</v>
+        <v>8213000</v>
       </c>
       <c r="G8" s="3">
-        <v>8213000</v>
+        <v>8232000</v>
       </c>
       <c r="H8" s="3">
-        <v>8232000</v>
+        <v>7962000</v>
       </c>
       <c r="I8" s="3">
-        <v>7962000</v>
+        <v>7945000</v>
       </c>
       <c r="J8" s="3">
-        <v>7945000</v>
+        <v>7183000</v>
       </c>
       <c r="K8" s="3">
-        <v>7183000</v>
-      </c>
-      <c r="L8" s="3">
         <v>6608000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>511</v>
       </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -12781,14 +12928,14 @@
       <c r="K11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>512</v>
       </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -12816,49 +12963,49 @@
       <c r="K12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>513</v>
       </c>
+      <c r="B13" s="3">
+        <v>149000</v>
+      </c>
       <c r="C13" s="3">
-        <v>149000</v>
+        <v>116000</v>
       </c>
       <c r="D13" s="3">
-        <v>116000</v>
+        <v>75000</v>
       </c>
       <c r="E13" s="3">
-        <v>75000</v>
+        <v>73000</v>
       </c>
       <c r="F13" s="3">
-        <v>73000</v>
+        <v>74000</v>
       </c>
       <c r="G13" s="3">
-        <v>74000</v>
+        <v>85000</v>
       </c>
       <c r="H13" s="3">
-        <v>85000</v>
+        <v>54000</v>
       </c>
       <c r="I13" s="3">
-        <v>54000</v>
+        <v>47000</v>
       </c>
       <c r="J13" s="3">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="K13" s="3">
-        <v>46000</v>
-      </c>
-      <c r="L13" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>514</v>
       </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -12886,14 +13033,14 @@
       <c r="K14" t="s">
         <v>30</v>
       </c>
-      <c r="L14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>515</v>
       </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -12921,89 +13068,89 @@
       <c r="K15" t="s">
         <v>30</v>
       </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>516</v>
       </c>
+      <c r="B16" s="3">
+        <v>149000</v>
+      </c>
       <c r="C16" s="3">
-        <v>149000</v>
+        <v>116000</v>
       </c>
       <c r="D16" s="3">
-        <v>116000</v>
+        <v>75000</v>
       </c>
       <c r="E16" s="3">
-        <v>75000</v>
+        <v>73000</v>
       </c>
       <c r="F16" s="3">
-        <v>73000</v>
+        <v>74000</v>
       </c>
       <c r="G16" s="3">
-        <v>74000</v>
+        <v>85000</v>
       </c>
       <c r="H16" s="3">
-        <v>85000</v>
+        <v>54000</v>
       </c>
       <c r="I16" s="3">
-        <v>54000</v>
+        <v>47000</v>
       </c>
       <c r="J16" s="3">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="K16" s="3">
-        <v>46000</v>
-      </c>
-      <c r="L16" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>518</v>
       </c>
+      <c r="B19" s="3">
+        <v>15695000</v>
+      </c>
       <c r="C19" s="3">
-        <v>15695000</v>
+        <v>15724000</v>
       </c>
       <c r="D19" s="3">
-        <v>15724000</v>
+        <v>10368000</v>
       </c>
       <c r="E19" s="3">
-        <v>10368000</v>
+        <v>9702000</v>
       </c>
       <c r="F19" s="3">
-        <v>9702000</v>
+        <v>8287000</v>
       </c>
       <c r="G19" s="3">
-        <v>8287000</v>
+        <v>8317000</v>
       </c>
       <c r="H19" s="3">
-        <v>8317000</v>
+        <v>8016000</v>
       </c>
       <c r="I19" s="3">
-        <v>8016000</v>
+        <v>7992000</v>
       </c>
       <c r="J19" s="3">
-        <v>7992000</v>
+        <v>7229000</v>
       </c>
       <c r="K19" s="3">
-        <v>7229000</v>
-      </c>
-      <c r="L19" s="3">
         <v>6649000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>519</v>
       </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -13031,14 +13178,14 @@
       <c r="K20" t="s">
         <v>30</v>
       </c>
-      <c r="L20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>520</v>
       </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -13066,244 +13213,244 @@
       <c r="K21" t="s">
         <v>30</v>
       </c>
-      <c r="L21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>521</v>
       </c>
+      <c r="B22" s="3">
+        <v>15695000</v>
+      </c>
       <c r="C22" s="3">
-        <v>15695000</v>
+        <v>15724000</v>
       </c>
       <c r="D22" s="3">
-        <v>15724000</v>
+        <v>10368000</v>
       </c>
       <c r="E22" s="3">
-        <v>10368000</v>
+        <v>9702000</v>
       </c>
       <c r="F22" s="3">
-        <v>9702000</v>
+        <v>8287000</v>
       </c>
       <c r="G22" s="3">
-        <v>8287000</v>
+        <v>8317000</v>
       </c>
       <c r="H22" s="3">
-        <v>8317000</v>
+        <v>8016000</v>
       </c>
       <c r="I22" s="3">
-        <v>8016000</v>
+        <v>7992000</v>
       </c>
       <c r="J22" s="3">
-        <v>7992000</v>
+        <v>7229000</v>
       </c>
       <c r="K22" s="3">
-        <v>7229000</v>
-      </c>
-      <c r="L22" s="3">
         <v>6649000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>524</v>
       </c>
+      <c r="B26" s="3">
+        <v>5999000</v>
+      </c>
       <c r="C26" s="3">
-        <v>5999000</v>
+        <v>6304200</v>
       </c>
       <c r="D26" s="3">
-        <v>6304200</v>
+        <v>814000</v>
       </c>
       <c r="E26" s="3">
-        <v>814000</v>
+        <v>854400</v>
       </c>
       <c r="F26" s="3">
-        <v>854400</v>
+        <v>884000</v>
       </c>
       <c r="G26" s="3">
-        <v>884000</v>
+        <v>873000</v>
       </c>
       <c r="H26" s="3">
-        <v>873000</v>
+        <v>648400</v>
       </c>
       <c r="I26" s="3">
-        <v>648400</v>
+        <v>557200</v>
       </c>
       <c r="J26" s="3">
-        <v>557200</v>
+        <v>409000</v>
       </c>
       <c r="K26" s="3">
-        <v>409000</v>
-      </c>
-      <c r="L26" s="3">
         <v>415600</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>525</v>
       </c>
+      <c r="B27" s="3">
+        <v>27208000</v>
+      </c>
       <c r="C27" s="3">
-        <v>27208000</v>
+        <v>25193500</v>
       </c>
       <c r="D27" s="3">
-        <v>25193500</v>
+        <v>22074000</v>
       </c>
       <c r="E27" s="3">
-        <v>22074000</v>
+        <v>19409000</v>
       </c>
       <c r="F27" s="3">
-        <v>19409000</v>
+        <v>14452500</v>
       </c>
       <c r="G27" s="3">
-        <v>14452500</v>
+        <v>13266500</v>
       </c>
       <c r="H27" s="3">
-        <v>13266500</v>
+        <v>15078500</v>
       </c>
       <c r="I27" s="3">
-        <v>15078500</v>
+        <v>14296000</v>
       </c>
       <c r="J27" s="3">
-        <v>14296000</v>
+        <v>13744000</v>
       </c>
       <c r="K27" s="3">
-        <v>13744000</v>
-      </c>
-      <c r="L27" s="3">
         <v>13245000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>526</v>
       </c>
+      <c r="B28" s="3">
+        <v>17717000</v>
+      </c>
       <c r="C28" s="3">
-        <v>17717000</v>
+        <v>15882000</v>
       </c>
       <c r="D28" s="3">
-        <v>15882000</v>
+        <v>15147000</v>
       </c>
       <c r="E28" s="3">
-        <v>15147000</v>
+        <v>14149000</v>
       </c>
       <c r="F28" s="3">
-        <v>14149000</v>
+        <v>18677000</v>
       </c>
       <c r="G28" s="3">
-        <v>18677000</v>
+        <v>19410000</v>
       </c>
       <c r="H28" s="3">
-        <v>19410000</v>
+        <v>12946000</v>
       </c>
       <c r="I28" s="3">
-        <v>12946000</v>
+        <v>11111000</v>
       </c>
       <c r="J28" s="3">
-        <v>11111000</v>
+        <v>12002000</v>
       </c>
       <c r="K28" s="3">
-        <v>12002000</v>
-      </c>
-      <c r="L28" s="3">
         <v>10676000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>527</v>
       </c>
+      <c r="B29" s="3">
+        <v>52798000</v>
+      </c>
       <c r="C29" s="3">
-        <v>52798000</v>
+        <v>49592200</v>
       </c>
       <c r="D29" s="3">
-        <v>49592200</v>
+        <v>39583500</v>
       </c>
       <c r="E29" s="3">
-        <v>39583500</v>
+        <v>35603900</v>
       </c>
       <c r="F29" s="3">
-        <v>35603900</v>
+        <v>35196500</v>
       </c>
       <c r="G29" s="3">
-        <v>35196500</v>
+        <v>34183500</v>
       </c>
       <c r="H29" s="3">
-        <v>34183500</v>
+        <v>29274900</v>
       </c>
       <c r="I29" s="3">
-        <v>29274900</v>
+        <v>26489200</v>
       </c>
       <c r="J29" s="3">
-        <v>26489200</v>
+        <v>26589000</v>
       </c>
       <c r="K29" s="3">
-        <v>26589000</v>
-      </c>
-      <c r="L29" s="3">
         <v>24798600</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>528</v>
       </c>
+      <c r="B30" s="3">
+        <v>46673000</v>
+      </c>
       <c r="C30" s="3">
-        <v>46673000</v>
+        <v>39514000</v>
       </c>
       <c r="D30" s="3">
-        <v>39514000</v>
+        <v>39381000</v>
       </c>
       <c r="E30" s="3">
-        <v>39381000</v>
+        <v>28969000</v>
       </c>
       <c r="F30" s="3">
-        <v>28969000</v>
+        <v>23150000</v>
       </c>
       <c r="G30" s="3">
-        <v>23150000</v>
+        <v>22642000</v>
       </c>
       <c r="H30" s="3">
-        <v>22642000</v>
+        <v>15251000</v>
       </c>
       <c r="I30" s="3">
-        <v>15251000</v>
+        <v>14619000</v>
       </c>
       <c r="J30" s="3">
-        <v>14619000</v>
+        <v>17147000</v>
       </c>
       <c r="K30" s="3">
-        <v>17147000</v>
-      </c>
-      <c r="L30" s="3">
         <v>14765000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>524</v>
       </c>
+      <c r="B33" s="3">
+        <v>1600</v>
+      </c>
       <c r="C33" s="3">
         <v>1600</v>
       </c>
-      <c r="D33" s="3">
-        <v>1600</v>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -13320,130 +13467,130 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
+      <c r="J33" s="3">
+        <v>12000</v>
       </c>
       <c r="K33" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L33" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>525</v>
       </c>
+      <c r="B34" s="3">
+        <v>57500</v>
+      </c>
       <c r="C34" s="3">
-        <v>57500</v>
+        <v>50500</v>
       </c>
       <c r="D34" s="3">
-        <v>50500</v>
+        <v>48000</v>
       </c>
       <c r="E34" s="3">
         <v>48000</v>
       </c>
       <c r="F34" s="3">
-        <v>48000</v>
+        <v>46500</v>
       </c>
       <c r="G34" s="3">
-        <v>46500</v>
+        <v>52000</v>
       </c>
       <c r="H34" s="3">
-        <v>52000</v>
+        <v>61500</v>
       </c>
       <c r="I34" s="3">
-        <v>61500</v>
+        <v>63750</v>
       </c>
       <c r="J34" s="3">
-        <v>63750</v>
+        <v>58000</v>
       </c>
       <c r="K34" s="3">
-        <v>58000</v>
-      </c>
-      <c r="L34" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>526</v>
       </c>
+      <c r="B35" s="3">
+        <v>3577000</v>
+      </c>
       <c r="C35" s="3">
-        <v>3577000</v>
+        <v>2971000</v>
       </c>
       <c r="D35" s="3">
-        <v>2971000</v>
+        <v>2681000</v>
       </c>
       <c r="E35" s="3">
-        <v>2681000</v>
+        <v>2741000</v>
       </c>
       <c r="F35" s="3">
-        <v>2741000</v>
+        <v>3229000</v>
       </c>
       <c r="G35" s="3">
-        <v>3229000</v>
+        <v>3308000</v>
       </c>
       <c r="H35" s="3">
-        <v>3308000</v>
+        <v>2710000</v>
       </c>
       <c r="I35" s="3">
-        <v>2710000</v>
+        <v>2399200</v>
       </c>
       <c r="J35" s="3">
-        <v>2399200</v>
+        <v>1838700</v>
       </c>
       <c r="K35" s="3">
-        <v>1838700</v>
-      </c>
-      <c r="L35" s="3">
         <v>1951300</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>530</v>
       </c>
+      <c r="B36" s="3">
+        <v>3689100</v>
+      </c>
       <c r="C36" s="3">
-        <v>3689100</v>
+        <v>3091100</v>
       </c>
       <c r="D36" s="3">
-        <v>3091100</v>
+        <v>2795000</v>
       </c>
       <c r="E36" s="3">
-        <v>2795000</v>
+        <v>2828000</v>
       </c>
       <c r="F36" s="3">
-        <v>2828000</v>
+        <v>3340000</v>
       </c>
       <c r="G36" s="3">
-        <v>3340000</v>
+        <v>3362000</v>
       </c>
       <c r="H36" s="3">
-        <v>3362000</v>
+        <v>2773500</v>
       </c>
       <c r="I36" s="3">
-        <v>2773500</v>
+        <v>2466950</v>
       </c>
       <c r="J36" s="3">
-        <v>2466950</v>
+        <v>1910700</v>
       </c>
       <c r="K36" s="3">
-        <v>1910700</v>
-      </c>
-      <c r="L36" s="3">
         <v>2021300</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>528</v>
       </c>
+      <c r="B37" s="3">
+        <v>364000</v>
+      </c>
       <c r="C37" s="3">
         <v>364000</v>
       </c>
       <c r="D37" s="3">
-        <v>364000</v>
+        <v>139000</v>
       </c>
       <c r="E37" s="3">
         <v>139000</v>
@@ -13466,54 +13613,54 @@
       <c r="K37" s="3">
         <v>139000</v>
       </c>
-      <c r="L37" s="3">
-        <v>139000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>494</v>
       </c>
+      <c r="B40" s="3">
+        <v>56487100</v>
+      </c>
       <c r="C40" s="3">
-        <v>56487100</v>
+        <v>52683300</v>
       </c>
       <c r="D40" s="3">
-        <v>52683300</v>
+        <v>42378500</v>
       </c>
       <c r="E40" s="3">
-        <v>42378500</v>
+        <v>38431900</v>
       </c>
       <c r="F40" s="3">
-        <v>38431900</v>
+        <v>38536500</v>
       </c>
       <c r="G40" s="3">
-        <v>38536500</v>
+        <v>37545500</v>
       </c>
       <c r="H40" s="3">
-        <v>37545500</v>
+        <v>32048400</v>
       </c>
       <c r="I40" s="3">
-        <v>32048400</v>
+        <v>28956150</v>
       </c>
       <c r="J40" s="3">
-        <v>28956150</v>
+        <v>28499700</v>
       </c>
       <c r="K40" s="3">
-        <v>28499700</v>
-      </c>
-      <c r="L40" s="3">
         <v>26819900</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>532</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>0</v>
       </c>
@@ -13541,14 +13688,14 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>533</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
@@ -13576,14 +13723,14 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>534</v>
       </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
       <c r="C43" t="s">
         <v>30</v>
       </c>
@@ -13611,42 +13758,39 @@
       <c r="K43" t="s">
         <v>30</v>
       </c>
-      <c r="L43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>535</v>
       </c>
+      <c r="B44" s="3">
+        <v>56487100</v>
+      </c>
       <c r="C44" s="3">
-        <v>56487100</v>
+        <v>52683300</v>
       </c>
       <c r="D44" s="3">
-        <v>52683300</v>
+        <v>42378500</v>
       </c>
       <c r="E44" s="3">
-        <v>42378500</v>
+        <v>38431900</v>
       </c>
       <c r="F44" s="3">
-        <v>38431900</v>
+        <v>38536500</v>
       </c>
       <c r="G44" s="3">
-        <v>38536500</v>
+        <v>37545500</v>
       </c>
       <c r="H44" s="3">
-        <v>37545500</v>
+        <v>32048400</v>
       </c>
       <c r="I44" s="3">
-        <v>32048400</v>
+        <v>28956150</v>
       </c>
       <c r="J44" s="3">
-        <v>28956150</v>
+        <v>28499700</v>
       </c>
       <c r="K44" s="3">
-        <v>28499700</v>
-      </c>
-      <c r="L44" s="3">
         <v>26819900</v>
       </c>
     </row>
@@ -13657,96 +13801,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CFBF2B-F5F1-414D-946A-B23EC78870CF}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44926</v>
+      </c>
       <c r="C2" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D2" s="1">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E2" s="1">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F2" s="1">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G2" s="1">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H2" s="1">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I2" s="1">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J2" s="1">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K2" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L2" s="1">
         <v>43281</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
+      <c r="B3" s="3">
+        <v>3710000</v>
+      </c>
       <c r="C3" s="3">
-        <v>3710000</v>
+        <v>1425000</v>
       </c>
       <c r="D3" s="3">
-        <v>1425000</v>
+        <v>2236000</v>
       </c>
       <c r="E3" s="3">
-        <v>2236000</v>
+        <v>1052000</v>
       </c>
       <c r="F3" s="3">
-        <v>1052000</v>
+        <v>1964000</v>
       </c>
       <c r="G3" s="3">
-        <v>1964000</v>
+        <v>1013000</v>
       </c>
       <c r="H3" s="3">
-        <v>1013000</v>
+        <v>2123000</v>
       </c>
       <c r="I3" s="3">
-        <v>2123000</v>
+        <v>1046000</v>
       </c>
       <c r="J3" s="3">
-        <v>1046000</v>
+        <v>1815000</v>
       </c>
       <c r="K3" s="3">
-        <v>1815000</v>
-      </c>
-      <c r="L3" s="3">
         <v>844000</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <v>-3.15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -13774,17 +13927,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -13812,17 +13965,17 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
@@ -13850,131 +14003,131 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
+      <c r="B7" s="3">
+        <v>3710000</v>
+      </c>
       <c r="C7" s="3">
-        <v>3710000</v>
+        <v>1425000</v>
       </c>
       <c r="D7" s="3">
-        <v>1425000</v>
+        <v>2236000</v>
       </c>
       <c r="E7" s="3">
-        <v>2236000</v>
+        <v>1052000</v>
       </c>
       <c r="F7" s="3">
-        <v>1052000</v>
+        <v>1964000</v>
       </c>
       <c r="G7" s="3">
-        <v>1964000</v>
+        <v>1013000</v>
       </c>
       <c r="H7" s="3">
-        <v>1013000</v>
+        <v>2123000</v>
       </c>
       <c r="I7" s="3">
-        <v>2123000</v>
+        <v>1046000</v>
       </c>
       <c r="J7" s="3">
-        <v>1046000</v>
+        <v>1815000</v>
       </c>
       <c r="K7" s="3">
-        <v>1815000</v>
-      </c>
-      <c r="L7" s="3">
         <v>844000</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <v>-3.15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
+      <c r="B9" s="3">
+        <v>226000</v>
+      </c>
       <c r="C9" s="3">
-        <v>226000</v>
+        <v>122000</v>
       </c>
       <c r="D9" s="3">
-        <v>122000</v>
+        <v>273000</v>
       </c>
       <c r="E9" s="3">
-        <v>273000</v>
+        <v>120000</v>
       </c>
       <c r="F9" s="3">
+        <v>244000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>125000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>238000</v>
+      </c>
+      <c r="I9" s="3">
         <v>120000</v>
       </c>
-      <c r="G9" s="3">
-        <v>244000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>125000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>238000</v>
-      </c>
       <c r="J9" s="3">
-        <v>120000</v>
+        <v>141000</v>
       </c>
       <c r="K9" s="3">
-        <v>141000</v>
-      </c>
-      <c r="L9" s="3">
         <v>65000</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <v>4.17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
+      <c r="B10" s="3">
+        <v>587000</v>
+      </c>
       <c r="C10" s="3">
-        <v>587000</v>
+        <v>336000</v>
       </c>
       <c r="D10" s="3">
-        <v>336000</v>
+        <v>61000</v>
       </c>
       <c r="E10" s="3">
-        <v>61000</v>
+        <v>32000</v>
       </c>
       <c r="F10" s="3">
-        <v>32000</v>
+        <v>59000</v>
       </c>
       <c r="G10" s="3">
-        <v>59000</v>
+        <v>29000</v>
       </c>
       <c r="H10" s="3">
-        <v>29000</v>
+        <v>56000</v>
       </c>
       <c r="I10" s="3">
-        <v>56000</v>
+        <v>25000</v>
       </c>
       <c r="J10" s="3">
-        <v>25000</v>
+        <v>39000</v>
       </c>
       <c r="K10" s="3">
-        <v>39000</v>
-      </c>
-      <c r="L10" s="3">
         <v>19000</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>60</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -14002,55 +14155,55 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
+      <c r="B12" s="3">
+        <v>16000</v>
+      </c>
       <c r="C12" s="3">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7000</v>
-      </c>
       <c r="H12" s="3">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="I12" s="3">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="J12" s="3">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="K12" s="3">
-        <v>23000</v>
-      </c>
-      <c r="L12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <v>-44.44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>65</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -14078,111 +14231,111 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
+      <c r="B14" s="3">
+        <v>829000</v>
+      </c>
       <c r="C14" s="3">
-        <v>829000</v>
+        <v>463000</v>
       </c>
       <c r="D14" s="3">
-        <v>463000</v>
+        <v>338000</v>
       </c>
       <c r="E14" s="3">
-        <v>338000</v>
+        <v>154000</v>
       </c>
       <c r="F14" s="3">
+        <v>310000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>159000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>311000</v>
+      </c>
+      <c r="I14" s="3">
         <v>154000</v>
       </c>
-      <c r="G14" s="3">
-        <v>310000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>159000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>311000</v>
-      </c>
       <c r="J14" s="3">
-        <v>154000</v>
+        <v>203000</v>
       </c>
       <c r="K14" s="3">
-        <v>203000</v>
-      </c>
-      <c r="L14" s="3">
         <v>96000</v>
       </c>
-      <c r="M14">
+      <c r="L14">
         <v>3.25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
+      <c r="B16" s="3">
+        <v>309000</v>
+      </c>
       <c r="C16" s="3">
-        <v>309000</v>
+        <v>46000</v>
       </c>
       <c r="D16" s="3">
-        <v>46000</v>
+        <v>11000</v>
       </c>
       <c r="E16" s="3">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="F16" s="3">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="G16" s="3">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="H16" s="3">
-        <v>14000</v>
+        <v>61000</v>
       </c>
       <c r="I16" s="3">
-        <v>61000</v>
+        <v>35000</v>
       </c>
       <c r="J16" s="3">
-        <v>35000</v>
+        <v>88000</v>
       </c>
       <c r="K16" s="3">
-        <v>88000</v>
-      </c>
-      <c r="L16" s="3">
         <v>31000</v>
       </c>
-      <c r="M16">
+      <c r="L16">
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>68</v>
       </c>
+      <c r="B17" s="3">
+        <v>2000</v>
+      </c>
       <c r="C17" s="3">
         <v>2000</v>
       </c>
       <c r="D17" s="3">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="E17" s="3">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F17" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G17" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H17" s="3">
         <v>1000</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -14192,17 +14345,17 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -14218,8 +14371,8 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>30</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
@@ -14233,90 +14386,90 @@
       <c r="L18" t="s">
         <v>30</v>
       </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
+      <c r="B19" s="3">
+        <v>26000</v>
+      </c>
       <c r="C19" s="3">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="D19" s="3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="E19" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F19" s="3">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G19" s="3">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="H19" s="3">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="I19" s="3">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="J19" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K19" s="3">
         <v>8000</v>
       </c>
-      <c r="K19" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L19" s="3">
-        <v>8000</v>
-      </c>
-      <c r="M19">
+      <c r="L19">
         <v>-50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
+      <c r="B21" s="3">
+        <v>4876000</v>
+      </c>
       <c r="C21" s="3">
-        <v>4876000</v>
+        <v>1945000</v>
       </c>
       <c r="D21" s="3">
-        <v>1945000</v>
+        <v>2599000</v>
       </c>
       <c r="E21" s="3">
-        <v>2599000</v>
+        <v>1219000</v>
       </c>
       <c r="F21" s="3">
-        <v>1219000</v>
+        <v>2305000</v>
       </c>
       <c r="G21" s="3">
-        <v>2305000</v>
+        <v>1191000</v>
       </c>
       <c r="H21" s="3">
-        <v>1191000</v>
+        <v>2510000</v>
       </c>
       <c r="I21" s="3">
-        <v>2510000</v>
+        <v>1243000</v>
       </c>
       <c r="J21" s="3">
-        <v>1243000</v>
+        <v>2118000</v>
       </c>
       <c r="K21" s="3">
-        <v>2118000</v>
-      </c>
-      <c r="L21" s="3">
         <v>979000</v>
       </c>
-      <c r="M21">
+      <c r="L21">
         <v>-4.18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>72</v>
       </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -14347,52 +14500,52 @@
       <c r="L23" t="s">
         <v>30</v>
       </c>
-      <c r="M23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>73</v>
       </c>
+      <c r="B24" s="3">
+        <v>888000</v>
+      </c>
       <c r="C24" s="3">
-        <v>888000</v>
+        <v>92000</v>
       </c>
       <c r="D24" s="3">
-        <v>92000</v>
+        <v>154000</v>
       </c>
       <c r="E24" s="3">
-        <v>154000</v>
+        <v>86000</v>
       </c>
       <c r="F24" s="3">
-        <v>86000</v>
+        <v>366000</v>
       </c>
       <c r="G24" s="3">
-        <v>366000</v>
+        <v>237000</v>
       </c>
       <c r="H24" s="3">
-        <v>237000</v>
+        <v>637000</v>
       </c>
       <c r="I24" s="3">
-        <v>637000</v>
+        <v>305000</v>
       </c>
       <c r="J24" s="3">
-        <v>305000</v>
+        <v>375000</v>
       </c>
       <c r="K24" s="3">
-        <v>375000</v>
-      </c>
-      <c r="L24" s="3">
         <v>148000</v>
       </c>
-      <c r="M24">
+      <c r="L24">
         <v>-22.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>0</v>
       </c>
@@ -14408,67 +14561,67 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" s="3">
+        <v>9000</v>
       </c>
       <c r="I25" s="3">
         <v>9000</v>
       </c>
       <c r="J25" s="3">
-        <v>9000</v>
+        <v>36000</v>
       </c>
       <c r="K25" s="3">
-        <v>36000</v>
-      </c>
-      <c r="L25" s="3">
         <v>18000</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
+      <c r="B26" s="3">
+        <v>17000</v>
+      </c>
       <c r="C26" s="3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="D26" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
-        <v>58000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>23000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>76</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>0</v>
       </c>
@@ -14496,17 +14649,17 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -14537,297 +14690,297 @@
       <c r="L28" t="s">
         <v>30</v>
       </c>
-      <c r="M28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>78</v>
       </c>
+      <c r="B30" s="3">
+        <v>905000</v>
+      </c>
       <c r="C30" s="3">
-        <v>905000</v>
+        <v>94000</v>
       </c>
       <c r="D30" s="3">
-        <v>94000</v>
+        <v>212000</v>
       </c>
       <c r="E30" s="3">
-        <v>212000</v>
+        <v>109000</v>
       </c>
       <c r="F30" s="3">
-        <v>109000</v>
+        <v>370000</v>
       </c>
       <c r="G30" s="3">
-        <v>370000</v>
+        <v>238000</v>
       </c>
       <c r="H30" s="3">
-        <v>238000</v>
+        <v>651000</v>
       </c>
       <c r="I30" s="3">
-        <v>651000</v>
+        <v>315000</v>
       </c>
       <c r="J30" s="3">
-        <v>315000</v>
+        <v>413000</v>
       </c>
       <c r="K30" s="3">
-        <v>413000</v>
-      </c>
-      <c r="L30" s="3">
         <v>167000</v>
       </c>
-      <c r="M30">
+      <c r="L30">
         <v>-24.44</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
+      <c r="B32" s="3">
+        <v>3971000</v>
+      </c>
       <c r="C32" s="3">
-        <v>3971000</v>
+        <v>1851000</v>
       </c>
       <c r="D32" s="3">
-        <v>1851000</v>
+        <v>2387000</v>
       </c>
       <c r="E32" s="3">
-        <v>2387000</v>
+        <v>1110000</v>
       </c>
       <c r="F32" s="3">
-        <v>1110000</v>
+        <v>1935000</v>
       </c>
       <c r="G32" s="3">
-        <v>1935000</v>
+        <v>953000</v>
       </c>
       <c r="H32" s="3">
-        <v>953000</v>
+        <v>1859000</v>
       </c>
       <c r="I32" s="3">
-        <v>1859000</v>
+        <v>928000</v>
       </c>
       <c r="J32" s="3">
-        <v>928000</v>
+        <v>1705000</v>
       </c>
       <c r="K32" s="3">
-        <v>1705000</v>
-      </c>
-      <c r="L32" s="3">
         <v>812000</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <v>2.69</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
+      <c r="B33" s="3">
+        <v>525000</v>
+      </c>
       <c r="C33" s="3">
-        <v>525000</v>
+        <v>234000</v>
       </c>
       <c r="D33" s="3">
-        <v>234000</v>
+        <v>278000</v>
       </c>
       <c r="E33" s="3">
-        <v>278000</v>
+        <v>124000</v>
       </c>
       <c r="F33" s="3">
-        <v>124000</v>
+        <v>310000</v>
       </c>
       <c r="G33" s="3">
-        <v>310000</v>
+        <v>118000</v>
       </c>
       <c r="H33" s="3">
-        <v>118000</v>
+        <v>179000</v>
       </c>
       <c r="I33" s="3">
-        <v>179000</v>
+        <v>77000</v>
       </c>
       <c r="J33" s="3">
-        <v>77000</v>
+        <v>117000</v>
       </c>
       <c r="K33" s="3">
-        <v>117000</v>
-      </c>
-      <c r="L33" s="3">
         <v>53000</v>
       </c>
-      <c r="M33">
+      <c r="L33">
         <v>53.25</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
+      <c r="B34" s="3">
+        <v>4496000</v>
+      </c>
       <c r="C34" s="3">
-        <v>4496000</v>
+        <v>2085000</v>
       </c>
       <c r="D34" s="3">
-        <v>2085000</v>
+        <v>2665000</v>
       </c>
       <c r="E34" s="3">
-        <v>2665000</v>
+        <v>1234000</v>
       </c>
       <c r="F34" s="3">
-        <v>1234000</v>
+        <v>2245000</v>
       </c>
       <c r="G34" s="3">
-        <v>2245000</v>
+        <v>1071000</v>
       </c>
       <c r="H34" s="3">
-        <v>1071000</v>
+        <v>2038000</v>
       </c>
       <c r="I34" s="3">
-        <v>2038000</v>
+        <v>1005000</v>
       </c>
       <c r="J34" s="3">
-        <v>1005000</v>
+        <v>1822000</v>
       </c>
       <c r="K34" s="3">
-        <v>1822000</v>
-      </c>
-      <c r="L34" s="3">
         <v>865000</v>
       </c>
-      <c r="M34">
+      <c r="L34">
         <v>6.57</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
+      <c r="B36" s="3">
+        <v>887000</v>
+      </c>
       <c r="C36" s="3">
-        <v>887000</v>
+        <v>420000</v>
       </c>
       <c r="D36" s="3">
-        <v>420000</v>
+        <v>668000</v>
       </c>
       <c r="E36" s="3">
-        <v>668000</v>
+        <v>304000</v>
       </c>
       <c r="F36" s="3">
-        <v>304000</v>
+        <v>667000</v>
       </c>
       <c r="G36" s="3">
-        <v>667000</v>
+        <v>281000</v>
       </c>
       <c r="H36" s="3">
-        <v>281000</v>
+        <v>492000</v>
       </c>
       <c r="I36" s="3">
-        <v>492000</v>
+        <v>241000</v>
       </c>
       <c r="J36" s="3">
+        <v>487000</v>
+      </c>
+      <c r="K36" s="3">
         <v>241000</v>
       </c>
-      <c r="K36" s="3">
-        <v>487000</v>
-      </c>
-      <c r="L36" s="3">
-        <v>241000</v>
-      </c>
-      <c r="M36">
+      <c r="L36">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>83</v>
       </c>
+      <c r="B37" s="3">
+        <v>3609000</v>
+      </c>
       <c r="C37" s="3">
-        <v>3609000</v>
+        <v>1665000</v>
       </c>
       <c r="D37" s="3">
-        <v>1665000</v>
+        <v>1997000</v>
       </c>
       <c r="E37" s="3">
-        <v>1997000</v>
+        <v>930000</v>
       </c>
       <c r="F37" s="3">
-        <v>930000</v>
+        <v>1578000</v>
       </c>
       <c r="G37" s="3">
-        <v>1578000</v>
+        <v>790000</v>
       </c>
       <c r="H37" s="3">
-        <v>790000</v>
+        <v>1546000</v>
       </c>
       <c r="I37" s="3">
-        <v>1546000</v>
+        <v>764000</v>
       </c>
       <c r="J37" s="3">
-        <v>764000</v>
+        <v>1335000</v>
       </c>
       <c r="K37" s="3">
-        <v>1335000</v>
-      </c>
-      <c r="L37" s="3">
         <v>624000</v>
       </c>
-      <c r="M37">
+      <c r="L37">
         <v>3.4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>84</v>
       </c>
+      <c r="B38" s="3">
+        <v>59000</v>
+      </c>
       <c r="C38" s="3">
-        <v>59000</v>
+        <v>34000</v>
       </c>
       <c r="D38" s="3">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="E38" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F38" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G38" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I38" s="3">
         <v>2000</v>
       </c>
-      <c r="F38" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G38" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H38" s="3">
-        <v>43000</v>
-      </c>
-      <c r="I38" s="3">
-        <v>10000</v>
-      </c>
       <c r="J38" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K38" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L38" s="3">
         <v>-3000</v>
       </c>
-      <c r="M38" s="2">
+      <c r="L38" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>85</v>
       </c>
+      <c r="B39" s="3">
+        <v>9000</v>
+      </c>
       <c r="C39" s="3">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="D39" s="3">
-        <v>2000</v>
+        <v>-1000</v>
       </c>
       <c r="E39" s="3">
         <v>-1000</v>
       </c>
-      <c r="F39" s="3">
-        <v>-1000</v>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>30</v>
       </c>
       <c r="I39" t="s">
         <v>30</v>
@@ -14841,52 +14994,52 @@
       <c r="L39" t="s">
         <v>30</v>
       </c>
-      <c r="M39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
+      <c r="B40" s="3">
+        <v>3541000</v>
+      </c>
       <c r="C40" s="3">
-        <v>3541000</v>
+        <v>1629000</v>
       </c>
       <c r="D40" s="3">
-        <v>1629000</v>
+        <v>1996000</v>
       </c>
       <c r="E40" s="3">
-        <v>1996000</v>
+        <v>932000</v>
       </c>
       <c r="F40" s="3">
-        <v>932000</v>
+        <v>1548000</v>
       </c>
       <c r="G40" s="3">
-        <v>1548000</v>
+        <v>747000</v>
       </c>
       <c r="H40" s="3">
-        <v>747000</v>
+        <v>1536000</v>
       </c>
       <c r="I40" s="3">
-        <v>1536000</v>
+        <v>762000</v>
       </c>
       <c r="J40" s="3">
-        <v>762000</v>
+        <v>1332000</v>
       </c>
       <c r="K40" s="3">
-        <v>1332000</v>
-      </c>
-      <c r="L40" s="3">
         <v>627000</v>
       </c>
-      <c r="M40">
+      <c r="L40">
         <v>-1.97</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>87</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
@@ -14914,55 +15067,55 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
+      <c r="B43" s="3">
+        <v>26000</v>
+      </c>
       <c r="C43" s="3">
         <v>26000</v>
       </c>
-      <c r="D43" s="3">
-        <v>26000</v>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F43" s="3">
         <v>16000</v>
       </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>23000</v>
       </c>
       <c r="I43" s="3">
         <v>23000</v>
       </c>
       <c r="J43" s="3">
-        <v>23000</v>
-      </c>
-      <c r="K43" s="3">
         <v>1000</v>
       </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
       <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>89</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>0</v>
       </c>
@@ -14990,93 +15143,93 @@
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>90</v>
       </c>
+      <c r="B45" s="3">
+        <v>3567000</v>
+      </c>
       <c r="C45" s="3">
-        <v>3567000</v>
+        <v>1655000</v>
       </c>
       <c r="D45" s="3">
-        <v>1655000</v>
+        <v>1996000</v>
       </c>
       <c r="E45" s="3">
-        <v>1996000</v>
+        <v>932000</v>
       </c>
       <c r="F45" s="3">
-        <v>932000</v>
+        <v>1564000</v>
       </c>
       <c r="G45" s="3">
-        <v>1564000</v>
+        <v>747000</v>
       </c>
       <c r="H45" s="3">
-        <v>747000</v>
+        <v>1559000</v>
       </c>
       <c r="I45" s="3">
-        <v>1559000</v>
+        <v>785000</v>
       </c>
       <c r="J45" s="3">
-        <v>785000</v>
+        <v>1333000</v>
       </c>
       <c r="K45" s="3">
-        <v>1333000</v>
-      </c>
-      <c r="L45" s="3">
         <v>627000</v>
       </c>
-      <c r="M45">
+      <c r="L45">
         <v>-4.84</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
+      <c r="B47" s="3">
+        <v>837000</v>
+      </c>
       <c r="C47" s="3">
-        <v>837000</v>
+        <v>387000</v>
       </c>
       <c r="D47" s="3">
-        <v>387000</v>
+        <v>468000</v>
       </c>
       <c r="E47" s="3">
-        <v>468000</v>
+        <v>224000</v>
       </c>
       <c r="F47" s="3">
-        <v>224000</v>
+        <v>391000</v>
       </c>
       <c r="G47" s="3">
-        <v>391000</v>
+        <v>181000</v>
       </c>
       <c r="H47" s="3">
-        <v>181000</v>
+        <v>374000</v>
       </c>
       <c r="I47" s="3">
-        <v>374000</v>
+        <v>191000</v>
       </c>
       <c r="J47" s="3">
-        <v>191000</v>
+        <v>331000</v>
       </c>
       <c r="K47" s="3">
-        <v>331000</v>
-      </c>
-      <c r="L47" s="3">
         <v>156000</v>
       </c>
-      <c r="M47">
+      <c r="L47">
         <v>-5.24</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>92</v>
       </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>0</v>
       </c>
@@ -15104,17 +15257,17 @@
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>93</v>
       </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>0</v>
       </c>
@@ -15142,93 +15295,93 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
+      <c r="B50" s="3">
+        <v>837000</v>
+      </c>
       <c r="C50" s="3">
-        <v>837000</v>
+        <v>387000</v>
       </c>
       <c r="D50" s="3">
-        <v>387000</v>
+        <v>468000</v>
       </c>
       <c r="E50" s="3">
-        <v>468000</v>
+        <v>224000</v>
       </c>
       <c r="F50" s="3">
-        <v>224000</v>
+        <v>391000</v>
       </c>
       <c r="G50" s="3">
-        <v>391000</v>
+        <v>181000</v>
       </c>
       <c r="H50" s="3">
-        <v>181000</v>
+        <v>374000</v>
       </c>
       <c r="I50" s="3">
-        <v>374000</v>
+        <v>191000</v>
       </c>
       <c r="J50" s="3">
-        <v>191000</v>
+        <v>331000</v>
       </c>
       <c r="K50" s="3">
-        <v>331000</v>
-      </c>
-      <c r="L50" s="3">
         <v>156000</v>
       </c>
-      <c r="M50">
+      <c r="L50">
         <v>-5.24</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>95</v>
       </c>
+      <c r="B52" s="3">
+        <v>2730000</v>
+      </c>
       <c r="C52" s="3">
-        <v>2730000</v>
+        <v>1268000</v>
       </c>
       <c r="D52" s="3">
-        <v>1268000</v>
+        <v>1528000</v>
       </c>
       <c r="E52" s="3">
-        <v>1528000</v>
+        <v>708000</v>
       </c>
       <c r="F52" s="3">
-        <v>708000</v>
+        <v>1173000</v>
       </c>
       <c r="G52" s="3">
-        <v>1173000</v>
+        <v>566000</v>
       </c>
       <c r="H52" s="3">
-        <v>566000</v>
+        <v>1185000</v>
       </c>
       <c r="I52" s="3">
-        <v>1185000</v>
+        <v>594000</v>
       </c>
       <c r="J52" s="3">
-        <v>594000</v>
+        <v>1002000</v>
       </c>
       <c r="K52" s="3">
-        <v>1002000</v>
-      </c>
-      <c r="L52" s="3">
         <v>471000</v>
       </c>
-      <c r="M52">
+      <c r="L52">
         <v>-4.71</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>0</v>
       </c>
@@ -15256,17 +15409,17 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>0</v>
       </c>
@@ -15294,131 +15447,131 @@
       <c r="K55">
         <v>0</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>98</v>
       </c>
+      <c r="B56" s="3">
+        <v>2730000</v>
+      </c>
       <c r="C56" s="3">
-        <v>2730000</v>
+        <v>1268000</v>
       </c>
       <c r="D56" s="3">
-        <v>1268000</v>
+        <v>1528000</v>
       </c>
       <c r="E56" s="3">
-        <v>1528000</v>
+        <v>708000</v>
       </c>
       <c r="F56" s="3">
-        <v>708000</v>
+        <v>1173000</v>
       </c>
       <c r="G56" s="3">
-        <v>1173000</v>
+        <v>566000</v>
       </c>
       <c r="H56" s="3">
-        <v>566000</v>
+        <v>1185000</v>
       </c>
       <c r="I56" s="3">
-        <v>1185000</v>
+        <v>594000</v>
       </c>
       <c r="J56" s="3">
-        <v>594000</v>
+        <v>1002000</v>
       </c>
       <c r="K56" s="3">
-        <v>1002000</v>
-      </c>
-      <c r="L56" s="3">
         <v>471000</v>
       </c>
-      <c r="M56">
+      <c r="L56">
         <v>-4.71</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>99</v>
       </c>
+      <c r="B58" s="3">
+        <v>2875000</v>
+      </c>
       <c r="C58" s="3">
-        <v>2875000</v>
-      </c>
-      <c r="D58" s="3">
         <v>1500000</v>
       </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
-        <v>0</v>
+      <c r="F58" s="3">
+        <v>1181000</v>
       </c>
       <c r="G58" s="3">
-        <v>1181000</v>
+        <v>590000</v>
       </c>
       <c r="H58" s="3">
-        <v>590000</v>
-      </c>
-      <c r="I58" s="3">
         <v>586000</v>
       </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>100</v>
       </c>
+      <c r="B59" s="3">
+        <v>-145000</v>
+      </c>
       <c r="C59" s="3">
-        <v>-145000</v>
+        <v>-232000</v>
       </c>
       <c r="D59" s="3">
-        <v>-232000</v>
+        <v>1528000</v>
       </c>
       <c r="E59" s="3">
-        <v>1528000</v>
+        <v>708000</v>
       </c>
       <c r="F59" s="3">
-        <v>708000</v>
+        <v>-8000</v>
       </c>
       <c r="G59" s="3">
-        <v>-8000</v>
+        <v>-24000</v>
       </c>
       <c r="H59" s="3">
-        <v>-24000</v>
+        <v>599000</v>
       </c>
       <c r="I59" s="3">
-        <v>599000</v>
+        <v>594000</v>
       </c>
       <c r="J59" s="3">
-        <v>594000</v>
+        <v>1002000</v>
       </c>
       <c r="K59" s="3">
-        <v>1002000</v>
-      </c>
-      <c r="L59" s="3">
         <v>471000</v>
       </c>
-      <c r="M59">
+      <c r="L59">
         <v>-104.04</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>101</v>
       </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
       <c r="C60" t="s">
         <v>30</v>
       </c>
@@ -15449,14 +15602,14 @@
       <c r="L60" t="s">
         <v>30</v>
       </c>
-      <c r="M60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>102</v>
       </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>0</v>
       </c>
@@ -15484,10 +15637,7 @@
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L61" t="s">
         <v>30</v>
       </c>
     </row>
@@ -15500,41 +15650,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482DDA77-FCCB-4FBC-A828-0DC2803463C8}">
   <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:AE63"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
+      <c r="A1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="5">
         <v>44926</v>
       </c>
-      <c r="F1" s="1">
+      <c r="C1" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="5">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="5">
         <v>44742</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="5">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="5">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="5">
         <v>44561</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="5">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="5">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="5">
         <v>44377</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="5">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="5">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="5">
         <v>44196</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="5">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="5">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="5">
         <v>44012</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="5">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="5">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="5">
         <v>43830</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="5">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="5">
         <v>43646</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="5">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="5">
         <v>43465</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="5">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="5">
         <v>43281</v>
       </c>
     </row>
@@ -20870,192 +21083,198 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69276018-8672-4925-888A-6FF2D33AED61}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="M1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44926</v>
+      </c>
       <c r="C2" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D2" s="1">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E2" s="1">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F2" s="1">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G2" s="1">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H2" s="1">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I2" s="1">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J2" s="1">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K2" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L2" s="1">
         <v>43281</v>
       </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
       <c r="M2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>158</v>
       </c>
+      <c r="B4" s="3">
+        <v>60879000</v>
+      </c>
       <c r="C4" s="3">
-        <v>60879000</v>
+        <v>56115000</v>
       </c>
       <c r="D4" s="3">
-        <v>56115000</v>
+        <v>49407000</v>
       </c>
       <c r="E4" s="3">
-        <v>49407000</v>
+        <v>43933000</v>
       </c>
       <c r="F4" s="3">
-        <v>43933000</v>
+        <v>40203000</v>
       </c>
       <c r="G4" s="3">
-        <v>40203000</v>
+        <v>37101000</v>
       </c>
       <c r="H4" s="3">
-        <v>37101000</v>
+        <v>34566000</v>
       </c>
       <c r="I4" s="3">
-        <v>34566000</v>
+        <v>32299000</v>
       </c>
       <c r="J4" s="3">
-        <v>32299000</v>
+        <v>30852000</v>
       </c>
       <c r="K4" s="3">
-        <v>30852000</v>
-      </c>
-      <c r="L4" s="3">
         <v>29505000</v>
       </c>
+      <c r="L4">
+        <v>3.32</v>
+      </c>
       <c r="M4">
-        <v>3.32</v>
-      </c>
-      <c r="N4">
         <v>14.87</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>159</v>
       </c>
+      <c r="B5" s="3">
+        <v>5609000</v>
+      </c>
       <c r="C5" s="3">
-        <v>5609000</v>
+        <v>5871000</v>
       </c>
       <c r="D5" s="3">
-        <v>5871000</v>
+        <v>5132000</v>
       </c>
       <c r="E5" s="3">
-        <v>5132000</v>
+        <v>5553000</v>
       </c>
       <c r="F5" s="3">
-        <v>5553000</v>
+        <v>4778000</v>
       </c>
       <c r="G5" s="3">
-        <v>4778000</v>
+        <v>4013000</v>
       </c>
       <c r="H5" s="3">
-        <v>4013000</v>
+        <v>3901000</v>
       </c>
       <c r="I5" s="3">
-        <v>3901000</v>
+        <v>3430000</v>
       </c>
       <c r="J5" s="3">
-        <v>3430000</v>
+        <v>3279000</v>
       </c>
       <c r="K5" s="3">
-        <v>3279000</v>
-      </c>
-      <c r="L5" s="3">
         <v>3114000</v>
       </c>
+      <c r="L5">
+        <v>4.07</v>
+      </c>
       <c r="M5">
-        <v>4.07</v>
-      </c>
-      <c r="N5">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>160</v>
       </c>
+      <c r="B6" s="3">
+        <v>27883000</v>
+      </c>
       <c r="C6" s="3">
-        <v>27883000</v>
+        <v>28983000</v>
       </c>
       <c r="D6" s="3">
-        <v>28983000</v>
+        <v>22796000</v>
       </c>
       <c r="E6" s="3">
-        <v>22796000</v>
+        <v>21010000</v>
       </c>
       <c r="F6" s="3">
-        <v>21010000</v>
+        <v>15897000</v>
       </c>
       <c r="G6" s="3">
-        <v>15897000</v>
+        <v>11913000</v>
       </c>
       <c r="H6" s="3">
-        <v>11913000</v>
+        <v>10523000</v>
       </c>
       <c r="I6" s="3">
-        <v>10523000</v>
+        <v>8931000</v>
       </c>
       <c r="J6" s="3">
-        <v>8931000</v>
+        <v>8137000</v>
       </c>
       <c r="K6" s="3">
-        <v>8137000</v>
-      </c>
-      <c r="L6" s="3">
         <v>7515000</v>
       </c>
+      <c r="L6">
+        <v>8.08</v>
+      </c>
       <c r="M6">
-        <v>8.08</v>
-      </c>
-      <c r="N6">
         <v>33.39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>161</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -21083,102 +21302,102 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="L7" t="s">
+        <v>30</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>162</v>
       </c>
+      <c r="B8" s="3">
+        <v>35493000</v>
+      </c>
       <c r="C8" s="3">
-        <v>35493000</v>
+        <v>35340000</v>
       </c>
       <c r="D8" s="3">
-        <v>35340000</v>
+        <v>32530000</v>
       </c>
       <c r="E8" s="3">
-        <v>32530000</v>
+        <v>25498000</v>
       </c>
       <c r="F8" s="3">
-        <v>25498000</v>
+        <v>20389000</v>
       </c>
       <c r="G8" s="3">
-        <v>20389000</v>
+        <v>16678000</v>
       </c>
       <c r="H8" s="3">
-        <v>16678000</v>
+        <v>14735000</v>
       </c>
       <c r="I8" s="3">
-        <v>14735000</v>
+        <v>12429000</v>
       </c>
       <c r="J8" s="3">
-        <v>12429000</v>
+        <v>12539000</v>
       </c>
       <c r="K8" s="3">
-        <v>12539000</v>
-      </c>
-      <c r="L8" s="3">
         <v>11211000</v>
       </c>
+      <c r="L8">
+        <v>1.91</v>
+      </c>
       <c r="M8">
-        <v>1.91</v>
-      </c>
-      <c r="N8">
         <v>34.19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>163</v>
       </c>
+      <c r="B9" s="3">
+        <v>156000</v>
+      </c>
       <c r="C9" s="3">
-        <v>156000</v>
+        <v>130000</v>
       </c>
       <c r="D9" s="3">
-        <v>130000</v>
+        <v>97000</v>
       </c>
       <c r="E9" s="3">
-        <v>97000</v>
+        <v>94000</v>
       </c>
       <c r="F9" s="3">
-        <v>94000</v>
+        <v>96000</v>
       </c>
       <c r="G9" s="3">
-        <v>96000</v>
+        <v>110000</v>
       </c>
       <c r="H9" s="3">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="3">
-        <v>50000</v>
+        <v>43000</v>
       </c>
       <c r="J9" s="3">
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="K9" s="3">
-        <v>42000</v>
-      </c>
-      <c r="L9" s="3">
         <v>37000</v>
       </c>
+      <c r="L9">
+        <v>26.44</v>
+      </c>
       <c r="M9">
-        <v>26.44</v>
-      </c>
-      <c r="N9">
         <v>155.81</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>164</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -21206,102 +21425,102 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
+      <c r="L10" t="s">
+        <v>30</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>165</v>
       </c>
+      <c r="B11" s="3">
+        <v>129708000</v>
+      </c>
       <c r="C11" s="3">
-        <v>129708000</v>
+        <v>126179000</v>
       </c>
       <c r="D11" s="3">
-        <v>126179000</v>
+        <v>109768000</v>
       </c>
       <c r="E11" s="3">
-        <v>109768000</v>
+        <v>95900000</v>
       </c>
       <c r="F11" s="3">
-        <v>95900000</v>
+        <v>81171000</v>
       </c>
       <c r="G11" s="3">
-        <v>81171000</v>
+        <v>69595000</v>
       </c>
       <c r="H11" s="3">
-        <v>69595000</v>
+        <v>63675000</v>
       </c>
       <c r="I11" s="3">
-        <v>63675000</v>
+        <v>57046000</v>
       </c>
       <c r="J11" s="3">
-        <v>57046000</v>
+        <v>54765000</v>
       </c>
       <c r="K11" s="3">
-        <v>54765000</v>
-      </c>
-      <c r="L11" s="3">
         <v>51308000</v>
       </c>
+      <c r="L11">
+        <v>3.77</v>
+      </c>
       <c r="M11">
-        <v>3.77</v>
-      </c>
-      <c r="N11">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>166</v>
       </c>
+      <c r="B12" s="3">
+        <v>43635000</v>
+      </c>
       <c r="C12" s="3">
-        <v>43635000</v>
+        <v>45122000</v>
       </c>
       <c r="D12" s="3">
-        <v>45122000</v>
+        <v>27526000</v>
       </c>
       <c r="E12" s="3">
-        <v>27526000</v>
+        <v>19528000</v>
       </c>
       <c r="F12" s="3">
-        <v>19528000</v>
+        <v>15632000</v>
       </c>
       <c r="G12" s="3">
-        <v>15632000</v>
+        <v>16071000</v>
       </c>
       <c r="H12" s="3">
-        <v>16071000</v>
+        <v>12590000</v>
       </c>
       <c r="I12" s="3">
-        <v>12590000</v>
+        <v>12745000</v>
       </c>
       <c r="J12" s="3">
-        <v>12745000</v>
+        <v>11416000</v>
       </c>
       <c r="K12" s="3">
-        <v>11416000</v>
-      </c>
-      <c r="L12" s="3">
         <v>9533000</v>
       </c>
+      <c r="L12">
+        <v>13.46</v>
+      </c>
       <c r="M12">
-        <v>13.46</v>
-      </c>
-      <c r="N12">
         <v>26.1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>167</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -21329,20 +21548,20 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
+      <c r="L13" t="s">
+        <v>30</v>
       </c>
       <c r="M13" t="s">
         <v>30</v>
       </c>
-      <c r="N13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>168</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -21370,61 +21589,61 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
+      <c r="L14" t="s">
+        <v>30</v>
       </c>
       <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="N14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>169</v>
       </c>
+      <c r="B15" s="3">
+        <v>5728000</v>
+      </c>
       <c r="C15" s="3">
-        <v>5728000</v>
+        <v>6421000</v>
       </c>
       <c r="D15" s="3">
-        <v>6421000</v>
+        <v>2064000</v>
       </c>
       <c r="E15" s="3">
-        <v>2064000</v>
+        <v>2182000</v>
       </c>
       <c r="F15" s="3">
-        <v>2182000</v>
+        <v>2295000</v>
       </c>
       <c r="G15" s="3">
-        <v>2295000</v>
+        <v>2331000</v>
       </c>
       <c r="H15" s="3">
-        <v>2331000</v>
+        <v>2281000</v>
       </c>
       <c r="I15" s="3">
-        <v>2281000</v>
+        <v>1987000</v>
       </c>
       <c r="J15" s="3">
-        <v>1987000</v>
+        <v>1087000</v>
       </c>
       <c r="K15" s="3">
-        <v>1087000</v>
-      </c>
-      <c r="L15" s="3">
         <v>1470000</v>
       </c>
+      <c r="L15">
+        <v>1.39</v>
+      </c>
       <c r="M15">
-        <v>1.39</v>
-      </c>
-      <c r="N15">
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>170</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -21440,8 +21659,8 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
+      <c r="H16" t="s">
+        <v>30</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
@@ -21458,72 +21677,72 @@
       <c r="M16" t="s">
         <v>30</v>
       </c>
-      <c r="N16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>119</v>
       </c>
+      <c r="B17" s="3">
+        <v>26612000</v>
+      </c>
       <c r="C17" s="3">
-        <v>26612000</v>
+        <v>18958000</v>
       </c>
       <c r="D17" s="3">
-        <v>18958000</v>
+        <v>13875000</v>
       </c>
       <c r="E17" s="3">
-        <v>13875000</v>
+        <v>11616000</v>
       </c>
       <c r="F17" s="3">
-        <v>11616000</v>
+        <v>9807000</v>
       </c>
       <c r="G17" s="3">
-        <v>9807000</v>
+        <v>8632000</v>
       </c>
       <c r="H17" s="3">
-        <v>8632000</v>
+        <v>3791000</v>
       </c>
       <c r="I17" s="3">
-        <v>3791000</v>
+        <v>3138000</v>
       </c>
       <c r="J17" s="3">
-        <v>3138000</v>
+        <v>7215000</v>
       </c>
       <c r="K17" s="3">
-        <v>7215000</v>
-      </c>
-      <c r="L17" s="3">
         <v>6599000</v>
       </c>
+      <c r="L17">
+        <v>-54.98</v>
+      </c>
       <c r="M17">
-        <v>-54.98</v>
-      </c>
-      <c r="N17">
         <v>175.08</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>120</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" s="3">
+        <v>5000000</v>
       </c>
       <c r="F18" s="3">
+        <v>10002000</v>
+      </c>
+      <c r="G18" s="3">
         <v>5000000</v>
       </c>
-      <c r="G18" s="3">
-        <v>10002000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5000000</v>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -21535,19 +21754,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
         <v>66.67</v>
       </c>
-      <c r="N18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>171</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -21575,143 +21794,143 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>0</v>
+      <c r="L19" t="s">
+        <v>30</v>
       </c>
       <c r="M19" t="s">
         <v>30</v>
       </c>
-      <c r="N19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>172</v>
       </c>
+      <c r="B20" s="3">
+        <v>75975000</v>
+      </c>
       <c r="C20" s="3">
-        <v>75975000</v>
+        <v>70501000</v>
       </c>
       <c r="D20" s="3">
-        <v>70501000</v>
+        <v>43465000</v>
       </c>
       <c r="E20" s="3">
-        <v>43465000</v>
+        <v>38326000</v>
       </c>
       <c r="F20" s="3">
-        <v>38326000</v>
+        <v>37736000</v>
       </c>
       <c r="G20" s="3">
-        <v>37736000</v>
+        <v>32034000</v>
       </c>
       <c r="H20" s="3">
-        <v>32034000</v>
+        <v>18662000</v>
       </c>
       <c r="I20" s="3">
-        <v>18662000</v>
+        <v>17870000</v>
       </c>
       <c r="J20" s="3">
-        <v>17870000</v>
+        <v>19718000</v>
       </c>
       <c r="K20" s="3">
-        <v>19718000</v>
-      </c>
-      <c r="L20" s="3">
         <v>17602000</v>
       </c>
+      <c r="L20">
+        <v>-17.09</v>
+      </c>
       <c r="M20">
-        <v>-17.09</v>
-      </c>
-      <c r="N20">
         <v>79.260000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>173</v>
       </c>
+      <c r="B21" s="3">
+        <v>205683000</v>
+      </c>
       <c r="C21" s="3">
-        <v>205683000</v>
+        <v>196680000</v>
       </c>
       <c r="D21" s="3">
-        <v>196680000</v>
+        <v>153233000</v>
       </c>
       <c r="E21" s="3">
-        <v>153233000</v>
+        <v>134226000</v>
       </c>
       <c r="F21" s="3">
-        <v>134226000</v>
+        <v>118907000</v>
       </c>
       <c r="G21" s="3">
-        <v>118907000</v>
+        <v>101629000</v>
       </c>
       <c r="H21" s="3">
-        <v>101629000</v>
+        <v>82337000</v>
       </c>
       <c r="I21" s="3">
-        <v>82337000</v>
+        <v>74916000</v>
       </c>
       <c r="J21" s="3">
-        <v>74916000</v>
+        <v>74483000</v>
       </c>
       <c r="K21" s="3">
-        <v>74483000</v>
-      </c>
-      <c r="L21" s="3">
         <v>68910000</v>
       </c>
+      <c r="L21">
+        <v>-3.85</v>
+      </c>
       <c r="M21">
-        <v>-3.85</v>
-      </c>
-      <c r="N21">
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>174</v>
       </c>
+      <c r="B23" s="3">
+        <v>132000</v>
+      </c>
       <c r="C23" s="3">
-        <v>132000</v>
+        <v>76000</v>
       </c>
       <c r="D23" s="3">
-        <v>76000</v>
+        <v>57000</v>
       </c>
       <c r="E23" s="3">
-        <v>57000</v>
+        <v>44000</v>
       </c>
       <c r="F23" s="3">
-        <v>44000</v>
+        <v>31000</v>
       </c>
       <c r="G23" s="3">
-        <v>31000</v>
+        <v>39000</v>
       </c>
       <c r="H23" s="3">
         <v>39000</v>
       </c>
       <c r="I23" s="3">
-        <v>39000</v>
+        <v>4000</v>
       </c>
       <c r="J23" s="3">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K23" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L23" s="3">
         <v>6000</v>
       </c>
+      <c r="L23">
+        <v>-20.41</v>
+      </c>
       <c r="M23">
-        <v>-20.41</v>
-      </c>
-      <c r="N23">
         <v>875</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>175</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>0</v>
       </c>
@@ -21739,67 +21958,67 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
+      <c r="L24" t="s">
+        <v>30</v>
       </c>
       <c r="M24" t="s">
         <v>30</v>
       </c>
-      <c r="N24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="3">
+      <c r="B25" s="3">
         <v>6000</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
         <v>5000</v>
       </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1000</v>
       </c>
       <c r="G25" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H25" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>2000</v>
       </c>
-      <c r="I25" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>177</v>
       </c>
+      <c r="B26" s="3">
+        <v>1100000</v>
+      </c>
       <c r="C26" s="3">
-        <v>1100000</v>
-      </c>
-      <c r="D26" s="3">
         <v>774000</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
         <v>0</v>
       </c>
@@ -21821,20 +22040,20 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>0</v>
+      <c r="L26" t="s">
+        <v>30</v>
       </c>
       <c r="M26" t="s">
         <v>30</v>
       </c>
-      <c r="N26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>178</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>0</v>
       </c>
@@ -21862,189 +22081,189 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
+      <c r="L27" t="s">
+        <v>30</v>
       </c>
       <c r="M27" t="s">
         <v>30</v>
       </c>
-      <c r="N27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>179</v>
       </c>
+      <c r="B28" s="3">
+        <v>2743000</v>
+      </c>
       <c r="C28" s="3">
-        <v>2743000</v>
+        <v>2357000</v>
       </c>
       <c r="D28" s="3">
-        <v>2357000</v>
+        <v>1535000</v>
       </c>
       <c r="E28" s="3">
-        <v>1535000</v>
+        <v>1586000</v>
       </c>
       <c r="F28" s="3">
-        <v>1586000</v>
+        <v>969000</v>
       </c>
       <c r="G28" s="3">
-        <v>969000</v>
+        <v>855000</v>
       </c>
       <c r="H28" s="3">
-        <v>855000</v>
+        <v>657000</v>
       </c>
       <c r="I28" s="3">
-        <v>657000</v>
+        <v>634000</v>
       </c>
       <c r="J28" s="3">
-        <v>634000</v>
+        <v>678000</v>
       </c>
       <c r="K28" s="3">
-        <v>678000</v>
-      </c>
-      <c r="L28" s="3">
         <v>710000</v>
       </c>
+      <c r="L28">
+        <v>34.22</v>
+      </c>
       <c r="M28">
-        <v>34.22</v>
-      </c>
-      <c r="N28">
         <v>34.86</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>180</v>
       </c>
+      <c r="B29" s="3">
+        <v>209664000</v>
+      </c>
       <c r="C29" s="3">
-        <v>209664000</v>
+        <v>199887000</v>
       </c>
       <c r="D29" s="3">
-        <v>199887000</v>
+        <v>154830000</v>
       </c>
       <c r="E29" s="3">
-        <v>154830000</v>
+        <v>135856000</v>
       </c>
       <c r="F29" s="3">
-        <v>135856000</v>
+        <v>119908000</v>
       </c>
       <c r="G29" s="3">
-        <v>119908000</v>
+        <v>102525000</v>
       </c>
       <c r="H29" s="3">
-        <v>102525000</v>
+        <v>83036000</v>
       </c>
       <c r="I29" s="3">
-        <v>83036000</v>
+        <v>75554000</v>
       </c>
       <c r="J29" s="3">
-        <v>75554000</v>
+        <v>75169000</v>
       </c>
       <c r="K29" s="3">
-        <v>75169000</v>
-      </c>
-      <c r="L29" s="3">
         <v>69628000</v>
       </c>
+      <c r="L29">
+        <v>-3.63</v>
+      </c>
       <c r="M29">
-        <v>-3.63</v>
-      </c>
-      <c r="N29">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>181</v>
       </c>
+      <c r="B30" s="3">
+        <v>204134000</v>
+      </c>
       <c r="C30" s="3">
-        <v>204134000</v>
+        <v>200400000</v>
       </c>
       <c r="D30" s="3">
-        <v>200400000</v>
+        <v>149354000</v>
       </c>
       <c r="E30" s="3">
-        <v>149354000</v>
+        <v>130508000</v>
       </c>
       <c r="F30" s="3">
-        <v>130508000</v>
+        <v>114718000</v>
       </c>
       <c r="G30" s="3">
-        <v>114718000</v>
+        <v>103614000</v>
       </c>
       <c r="H30" s="3">
-        <v>103614000</v>
+        <v>80535000</v>
       </c>
       <c r="I30" s="3">
-        <v>80535000</v>
+        <v>74161000</v>
       </c>
       <c r="J30" s="3">
-        <v>74161000</v>
+        <v>71957000</v>
       </c>
       <c r="K30" s="3">
-        <v>71957000</v>
-      </c>
-      <c r="L30" s="3">
         <v>67254000</v>
       </c>
+      <c r="L30">
+        <v>18.260000000000002</v>
+      </c>
       <c r="M30">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="N30">
         <v>39.71</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>183</v>
       </c>
+      <c r="B33" s="3">
+        <v>156486000</v>
+      </c>
       <c r="C33" s="3">
-        <v>156486000</v>
+        <v>72726000</v>
       </c>
       <c r="D33" s="3">
-        <v>72726000</v>
+        <v>19366000</v>
       </c>
       <c r="E33" s="3">
-        <v>19366000</v>
+        <v>17682000</v>
       </c>
       <c r="F33" s="3">
-        <v>17682000</v>
+        <v>19142000</v>
       </c>
       <c r="G33" s="3">
-        <v>19142000</v>
+        <v>15966000</v>
       </c>
       <c r="H33" s="3">
-        <v>15966000</v>
+        <v>10053000</v>
       </c>
       <c r="I33" s="3">
-        <v>10053000</v>
+        <v>7934000</v>
       </c>
       <c r="J33" s="3">
-        <v>7934000</v>
+        <v>4540000</v>
       </c>
       <c r="K33" s="3">
-        <v>4540000</v>
-      </c>
-      <c r="L33" s="3">
         <v>2751000</v>
       </c>
+      <c r="L33">
+        <v>-19.11</v>
+      </c>
       <c r="M33">
-        <v>-19.11</v>
-      </c>
-      <c r="N33">
         <v>101.24</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>184</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>0</v>
       </c>
@@ -22072,67 +22291,67 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>0</v>
+      <c r="L34" t="s">
+        <v>30</v>
       </c>
       <c r="M34" t="s">
         <v>30</v>
       </c>
-      <c r="N34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>185</v>
       </c>
+      <c r="B35" s="3">
+        <v>19926000</v>
+      </c>
       <c r="C35" s="3">
-        <v>19926000</v>
+        <v>102934000</v>
       </c>
       <c r="D35" s="3">
-        <v>102934000</v>
+        <v>101737000</v>
       </c>
       <c r="E35" s="3">
-        <v>101737000</v>
+        <v>84884000</v>
       </c>
       <c r="F35" s="3">
-        <v>84884000</v>
+        <v>77990000</v>
       </c>
       <c r="G35" s="3">
-        <v>77990000</v>
+        <v>64343000</v>
       </c>
       <c r="H35" s="3">
-        <v>64343000</v>
+        <v>50200000</v>
       </c>
       <c r="I35" s="3">
-        <v>50200000</v>
+        <v>45980000</v>
       </c>
       <c r="J35" s="3">
-        <v>45980000</v>
+        <v>52202000</v>
       </c>
       <c r="K35" s="3">
-        <v>52202000</v>
-      </c>
-      <c r="L35" s="3">
         <v>48430000</v>
       </c>
+      <c r="L35">
+        <v>4.93</v>
+      </c>
       <c r="M35">
-        <v>4.93</v>
-      </c>
-      <c r="N35">
         <v>39.94</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>186</v>
       </c>
+      <c r="B36" s="3">
+        <v>1578000</v>
+      </c>
       <c r="C36" s="3">
-        <v>1578000</v>
-      </c>
-      <c r="D36" s="3">
         <v>1837000</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36">
         <v>0</v>
       </c>
@@ -22154,225 +22373,225 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>0</v>
+      <c r="L36" t="s">
+        <v>30</v>
       </c>
       <c r="M36" t="s">
         <v>30</v>
       </c>
-      <c r="N36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>187</v>
       </c>
+      <c r="B37" s="3">
+        <v>14275000</v>
+      </c>
       <c r="C37" s="3">
-        <v>14275000</v>
+        <v>5133000</v>
       </c>
       <c r="D37" s="3">
-        <v>5133000</v>
+        <v>4567000</v>
       </c>
       <c r="E37" s="3">
-        <v>4567000</v>
+        <v>6218000</v>
       </c>
       <c r="F37" s="3">
-        <v>6218000</v>
+        <v>10111000</v>
       </c>
       <c r="G37" s="3">
-        <v>10111000</v>
+        <v>13574000</v>
       </c>
       <c r="H37" s="3">
-        <v>13574000</v>
+        <v>13761000</v>
       </c>
       <c r="I37" s="3">
-        <v>13761000</v>
+        <v>13314000</v>
       </c>
       <c r="J37" s="3">
-        <v>13314000</v>
+        <v>9167000</v>
       </c>
       <c r="K37" s="3">
-        <v>9167000</v>
-      </c>
-      <c r="L37" s="3">
         <v>10103000</v>
       </c>
+      <c r="L37">
+        <v>-17.36</v>
+      </c>
       <c r="M37">
-        <v>-17.36</v>
-      </c>
-      <c r="N37">
         <v>1.95</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>188</v>
       </c>
+      <c r="B38" s="3">
+        <v>20020000</v>
+      </c>
       <c r="C38" s="3">
-        <v>20020000</v>
+        <v>7341000</v>
       </c>
       <c r="D38" s="3">
-        <v>7341000</v>
+        <v>5479000</v>
       </c>
       <c r="E38" s="3">
-        <v>5479000</v>
+        <v>14522000</v>
       </c>
       <c r="F38" s="3">
-        <v>14522000</v>
+        <v>19318000</v>
       </c>
       <c r="G38" s="3">
-        <v>19318000</v>
+        <v>22646000</v>
       </c>
       <c r="H38" s="3">
-        <v>22646000</v>
+        <v>21071000</v>
       </c>
       <c r="I38" s="3">
-        <v>21071000</v>
+        <v>19321000</v>
       </c>
       <c r="J38" s="3">
-        <v>19321000</v>
+        <v>13740000</v>
       </c>
       <c r="K38" s="3">
-        <v>13740000</v>
-      </c>
-      <c r="L38" s="3">
         <v>12977000</v>
       </c>
+      <c r="L38">
+        <v>-8.11</v>
+      </c>
       <c r="M38">
-        <v>-8.11</v>
-      </c>
-      <c r="N38">
         <v>17.21</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>189</v>
       </c>
+      <c r="B39" s="3">
+        <v>172245000</v>
+      </c>
       <c r="C39" s="3">
-        <v>172245000</v>
+        <v>175289000</v>
       </c>
       <c r="D39" s="3">
-        <v>175289000</v>
+        <v>120191000</v>
       </c>
       <c r="E39" s="3">
-        <v>120191000</v>
+        <v>94262000</v>
       </c>
       <c r="F39" s="3">
-        <v>94262000</v>
+        <v>87925000</v>
       </c>
       <c r="G39" s="3">
-        <v>87925000</v>
+        <v>71237000</v>
       </c>
       <c r="H39" s="3">
-        <v>71237000</v>
+        <v>52943000</v>
       </c>
       <c r="I39" s="3">
-        <v>52943000</v>
+        <v>47907000</v>
       </c>
       <c r="J39" s="3">
-        <v>47907000</v>
+        <v>52169000</v>
       </c>
       <c r="K39" s="3">
-        <v>52169000</v>
-      </c>
-      <c r="L39" s="3">
         <v>48307000</v>
       </c>
+      <c r="L39">
+        <v>-2.2000000000000002</v>
+      </c>
       <c r="M39">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="N39">
         <v>48.7</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>190</v>
       </c>
+      <c r="B40" s="3">
+        <v>20020000</v>
+      </c>
       <c r="C40" s="3">
-        <v>20020000</v>
+        <v>7341000</v>
       </c>
       <c r="D40" s="3">
-        <v>7341000</v>
+        <v>5479000</v>
       </c>
       <c r="E40" s="3">
-        <v>5479000</v>
+        <v>14522000</v>
       </c>
       <c r="F40" s="3">
-        <v>14522000</v>
+        <v>19318000</v>
       </c>
       <c r="G40" s="3">
-        <v>19318000</v>
+        <v>22646000</v>
       </c>
       <c r="H40" s="3">
-        <v>22646000</v>
+        <v>21071000</v>
       </c>
       <c r="I40" s="3">
-        <v>21071000</v>
+        <v>19321000</v>
       </c>
       <c r="J40" s="3">
-        <v>19321000</v>
+        <v>13740000</v>
       </c>
       <c r="K40" s="3">
-        <v>13740000</v>
-      </c>
-      <c r="L40" s="3">
         <v>12977000</v>
       </c>
+      <c r="L40">
+        <v>-8.11</v>
+      </c>
       <c r="M40">
-        <v>-8.11</v>
-      </c>
-      <c r="N40">
         <v>17.21</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>191</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41">
-        <v>0</v>
+      <c r="E41" s="3">
+        <v>6000</v>
       </c>
       <c r="F41" s="3">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="G41" s="3">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="H41" s="3">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="I41" s="3">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="J41" s="3">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="K41" s="3">
         <v>11000</v>
       </c>
-      <c r="L41" s="3">
-        <v>11000</v>
+      <c r="L41">
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>50</v>
-      </c>
-      <c r="N41">
         <v>-30.77</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>192</v>
       </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -22406,55 +22625,55 @@
       <c r="M42" t="s">
         <v>30</v>
       </c>
-      <c r="N42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>193</v>
       </c>
+      <c r="B43" s="3">
+        <v>192265000</v>
+      </c>
       <c r="C43" s="3">
-        <v>192265000</v>
+        <v>182630000</v>
       </c>
       <c r="D43" s="3">
-        <v>182630000</v>
+        <v>125670000</v>
       </c>
       <c r="E43" s="3">
-        <v>125670000</v>
+        <v>108790000</v>
       </c>
       <c r="F43" s="3">
-        <v>108790000</v>
+        <v>107259000</v>
       </c>
       <c r="G43" s="3">
-        <v>107259000</v>
+        <v>93901000</v>
       </c>
       <c r="H43" s="3">
-        <v>93901000</v>
+        <v>74026000</v>
       </c>
       <c r="I43" s="3">
-        <v>74026000</v>
+        <v>67254000</v>
       </c>
       <c r="J43" s="3">
-        <v>67254000</v>
+        <v>65920000</v>
       </c>
       <c r="K43" s="3">
-        <v>65920000</v>
-      </c>
-      <c r="L43" s="3">
         <v>61295000</v>
       </c>
+      <c r="L43">
+        <v>-3.69</v>
+      </c>
       <c r="M43">
-        <v>-3.69</v>
-      </c>
-      <c r="N43">
         <v>39.619999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>194</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>0</v>
       </c>
@@ -22476,26 +22695,26 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44">
-        <v>0</v>
+      <c r="J44" s="3">
+        <v>1501000</v>
       </c>
       <c r="K44" s="3">
         <v>1501000</v>
       </c>
-      <c r="L44" s="3">
-        <v>1501000</v>
+      <c r="L44" t="s">
+        <v>30</v>
       </c>
       <c r="M44" t="s">
         <v>30</v>
       </c>
-      <c r="N44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>195</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>0</v>
       </c>
@@ -22511,32 +22730,32 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="H45" s="3">
         <v>750000</v>
       </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="L45">
-        <v>0</v>
+      <c r="L45" t="s">
+        <v>30</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
       </c>
-      <c r="N45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>196</v>
       </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>0</v>
       </c>
@@ -22564,102 +22783,102 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>0</v>
+      <c r="L46" t="s">
+        <v>30</v>
       </c>
       <c r="M46" t="s">
         <v>30</v>
       </c>
-      <c r="N46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>197</v>
       </c>
+      <c r="B47" s="3">
+        <v>468000</v>
+      </c>
       <c r="C47" s="3">
-        <v>468000</v>
+        <v>463000</v>
       </c>
       <c r="D47" s="3">
-        <v>463000</v>
+        <v>18260000</v>
       </c>
       <c r="E47" s="3">
-        <v>18260000</v>
+        <v>1034000</v>
       </c>
       <c r="F47" s="3">
-        <v>1034000</v>
-      </c>
-      <c r="G47" s="3">
         <v>4003000</v>
       </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47">
+      <c r="L47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47">
         <v>-100</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>198</v>
       </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>0</v>
+      <c r="E48" s="3">
+        <v>15250000</v>
       </c>
       <c r="F48" s="3">
-        <v>15250000</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>1000</v>
+        <v>23000</v>
       </c>
       <c r="H48" s="3">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="I48" s="3">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="J48" s="3">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="K48" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L48" s="3">
         <v>5000</v>
       </c>
+      <c r="L48">
+        <v>27.78</v>
+      </c>
       <c r="M48">
-        <v>27.78</v>
-      </c>
-      <c r="N48">
         <v>43.75</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>199</v>
       </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>0</v>
       </c>
@@ -22687,203 +22906,203 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>0</v>
+      <c r="L49" t="s">
+        <v>30</v>
       </c>
       <c r="M49" t="s">
         <v>30</v>
       </c>
-      <c r="N49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>200</v>
       </c>
+      <c r="B50" s="3">
+        <v>960000</v>
+      </c>
       <c r="C50" s="3">
-        <v>960000</v>
+        <v>748000</v>
       </c>
       <c r="D50" s="3">
-        <v>748000</v>
+        <v>630000</v>
       </c>
       <c r="E50" s="3">
-        <v>630000</v>
+        <v>1176000</v>
       </c>
       <c r="F50" s="3">
-        <v>1176000</v>
+        <v>456000</v>
       </c>
       <c r="G50" s="3">
-        <v>456000</v>
+        <v>393000</v>
       </c>
       <c r="H50" s="3">
-        <v>393000</v>
+        <v>248000</v>
       </c>
       <c r="I50" s="3">
-        <v>248000</v>
+        <v>338000</v>
       </c>
       <c r="J50" s="3">
-        <v>338000</v>
+        <v>558000</v>
       </c>
       <c r="K50" s="3">
-        <v>558000</v>
-      </c>
-      <c r="L50" s="3">
         <v>219000</v>
       </c>
+      <c r="L50">
+        <v>-4.1500000000000004</v>
+      </c>
       <c r="M50">
-        <v>-4.1500000000000004</v>
-      </c>
-      <c r="N50">
         <v>16.27</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>201</v>
       </c>
+      <c r="B51" s="3">
+        <v>193693000</v>
+      </c>
       <c r="C51" s="3">
-        <v>193693000</v>
+        <v>183841000</v>
       </c>
       <c r="D51" s="3">
-        <v>183841000</v>
+        <v>144560000</v>
       </c>
       <c r="E51" s="3">
-        <v>144560000</v>
+        <v>126250000</v>
       </c>
       <c r="F51" s="3">
-        <v>126250000</v>
+        <v>111719000</v>
       </c>
       <c r="G51" s="3">
-        <v>111719000</v>
+        <v>94317000</v>
       </c>
       <c r="H51" s="3">
-        <v>94317000</v>
+        <v>75074000</v>
       </c>
       <c r="I51" s="3">
-        <v>75074000</v>
+        <v>67609000</v>
       </c>
       <c r="J51" s="3">
-        <v>67609000</v>
+        <v>67986000</v>
       </c>
       <c r="K51" s="3">
-        <v>67986000</v>
-      </c>
-      <c r="L51" s="3">
         <v>63020000</v>
       </c>
+      <c r="L51">
+        <v>-3.68</v>
+      </c>
       <c r="M51">
-        <v>-3.68</v>
-      </c>
-      <c r="N51">
         <v>39.5</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>202</v>
       </c>
+      <c r="B52" s="3">
+        <v>15971000</v>
+      </c>
       <c r="C52" s="3">
-        <v>15971000</v>
+        <v>16046000</v>
       </c>
       <c r="D52" s="3">
-        <v>16046000</v>
+        <v>10270000</v>
       </c>
       <c r="E52" s="3">
-        <v>10270000</v>
+        <v>9606000</v>
       </c>
       <c r="F52" s="3">
-        <v>9606000</v>
+        <v>8189000</v>
       </c>
       <c r="G52" s="3">
-        <v>8189000</v>
+        <v>8208000</v>
       </c>
       <c r="H52" s="3">
-        <v>8208000</v>
+        <v>7962000</v>
       </c>
       <c r="I52" s="3">
-        <v>7962000</v>
+        <v>7945000</v>
       </c>
       <c r="J52" s="3">
-        <v>7945000</v>
+        <v>7183000</v>
       </c>
       <c r="K52" s="3">
-        <v>7183000</v>
-      </c>
-      <c r="L52" s="3">
         <v>6608000</v>
       </c>
+      <c r="L52">
+        <v>-3.07</v>
+      </c>
       <c r="M52">
-        <v>-3.07</v>
-      </c>
-      <c r="N52">
         <v>3.31</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>203</v>
       </c>
+      <c r="B53" s="3">
+        <v>209664000</v>
+      </c>
       <c r="C53" s="3">
-        <v>209664000</v>
+        <v>199887000</v>
       </c>
       <c r="D53" s="3">
-        <v>199887000</v>
+        <v>154830000</v>
       </c>
       <c r="E53" s="3">
-        <v>154830000</v>
+        <v>135856000</v>
       </c>
       <c r="F53" s="3">
-        <v>135856000</v>
+        <v>119908000</v>
       </c>
       <c r="G53" s="3">
-        <v>119908000</v>
+        <v>102525000</v>
       </c>
       <c r="H53" s="3">
-        <v>102525000</v>
+        <v>83036000</v>
       </c>
       <c r="I53" s="3">
-        <v>83036000</v>
+        <v>75554000</v>
       </c>
       <c r="J53" s="3">
-        <v>75554000</v>
+        <v>75169000</v>
       </c>
       <c r="K53" s="3">
-        <v>75169000</v>
-      </c>
-      <c r="L53" s="3">
         <v>69628000</v>
       </c>
+      <c r="L53">
+        <v>-3.63</v>
+      </c>
       <c r="M53">
-        <v>-3.63</v>
-      </c>
-      <c r="N53">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>205</v>
       </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
       <c r="C56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H56">
         <v>7</v>
@@ -22892,183 +23111,183 @@
         <v>7</v>
       </c>
       <c r="J56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>206</v>
       </c>
+      <c r="B57" s="3">
+        <v>27000</v>
+      </c>
       <c r="C57" s="3">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="D57" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="E57" s="3">
         <v>28000</v>
       </c>
       <c r="F57" s="3">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="G57" s="3">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="H57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I57" s="3">
         <v>10000</v>
       </c>
-      <c r="I57" s="3">
-        <v>9000</v>
-      </c>
       <c r="J57" s="3">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="K57" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L57" s="3">
         <v>6000</v>
       </c>
+      <c r="L57">
+        <v>25</v>
+      </c>
       <c r="M57">
-        <v>25</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>207</v>
       </c>
+      <c r="B58" s="3">
+        <v>30783000</v>
+      </c>
       <c r="C58" s="3">
-        <v>30783000</v>
+        <v>32272000</v>
       </c>
       <c r="D58" s="3">
-        <v>32272000</v>
+        <v>5704000</v>
       </c>
       <c r="E58" s="3">
-        <v>5704000</v>
+        <v>5122000</v>
       </c>
       <c r="F58" s="3">
-        <v>5122000</v>
+        <v>5126000</v>
       </c>
       <c r="G58" s="3">
-        <v>5126000</v>
+        <v>5529000</v>
       </c>
       <c r="H58" s="3">
-        <v>5529000</v>
+        <v>5929000</v>
       </c>
       <c r="I58" s="3">
-        <v>5929000</v>
+        <v>6030000</v>
       </c>
       <c r="J58" s="3">
-        <v>6030000</v>
+        <v>4235000</v>
       </c>
       <c r="K58" s="3">
-        <v>4235000</v>
-      </c>
-      <c r="L58" s="3">
         <v>2975000</v>
       </c>
+      <c r="L58">
+        <v>-5.16</v>
+      </c>
       <c r="M58">
-        <v>-5.16</v>
-      </c>
-      <c r="N58">
         <v>-8.31</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>208</v>
       </c>
+      <c r="B59" s="3">
+        <v>18580000</v>
+      </c>
       <c r="C59" s="3">
-        <v>18580000</v>
+        <v>19271000</v>
       </c>
       <c r="D59" s="3">
-        <v>19271000</v>
+        <v>23886000</v>
       </c>
       <c r="E59" s="3">
-        <v>23886000</v>
+        <v>16588000</v>
       </c>
       <c r="F59" s="3">
-        <v>16588000</v>
+        <v>12801000</v>
       </c>
       <c r="G59" s="3">
-        <v>12801000</v>
+        <v>12873000</v>
       </c>
       <c r="H59" s="3">
-        <v>12873000</v>
+        <v>8942000</v>
       </c>
       <c r="I59" s="3">
-        <v>8942000</v>
+        <v>8702000</v>
       </c>
       <c r="J59" s="3">
-        <v>8702000</v>
+        <v>8268000</v>
       </c>
       <c r="K59" s="3">
-        <v>8268000</v>
-      </c>
-      <c r="L59" s="3">
         <v>8028000</v>
       </c>
+      <c r="L59">
+        <v>21.07</v>
+      </c>
       <c r="M59">
-        <v>21.07</v>
-      </c>
-      <c r="N59">
         <v>47.93</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>209</v>
       </c>
+      <c r="B60" s="3">
+        <v>24458000</v>
+      </c>
       <c r="C60" s="3">
-        <v>24458000</v>
+        <v>9331000</v>
       </c>
       <c r="D60" s="3">
-        <v>9331000</v>
+        <v>5484000</v>
       </c>
       <c r="E60" s="3">
-        <v>5484000</v>
+        <v>22781000</v>
       </c>
       <c r="F60" s="3">
-        <v>22781000</v>
+        <v>29085000</v>
       </c>
       <c r="G60" s="3">
-        <v>29085000</v>
+        <v>31470000</v>
       </c>
       <c r="H60" s="3">
-        <v>31470000</v>
+        <v>27054000</v>
       </c>
       <c r="I60" s="3">
-        <v>27054000</v>
+        <v>23871000</v>
       </c>
       <c r="J60" s="3">
-        <v>23871000</v>
+        <v>15980000</v>
       </c>
       <c r="K60" s="3">
-        <v>15980000</v>
-      </c>
-      <c r="L60" s="3">
         <v>14308000</v>
       </c>
+      <c r="L60">
+        <v>-3.2</v>
+      </c>
       <c r="M60">
-        <v>-3.2</v>
-      </c>
-      <c r="N60">
         <v>31.83</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>210</v>
       </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>0</v>
       </c>
@@ -23084,8 +23303,8 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>30</v>
       </c>
       <c r="I61" t="s">
         <v>30</v>
@@ -23102,89 +23321,86 @@
       <c r="M61" t="s">
         <v>30</v>
       </c>
-      <c r="N61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>211</v>
       </c>
+      <c r="B62" s="3">
+        <v>4000</v>
+      </c>
       <c r="C62" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D62" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="E62" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="F62" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G62" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="H62" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="I62" s="3">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="J62" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="K62" s="3">
-        <v>22000</v>
-      </c>
-      <c r="L62" s="3">
         <v>30000</v>
       </c>
+      <c r="L62">
+        <v>-14.29</v>
+      </c>
       <c r="M62">
-        <v>-14.29</v>
-      </c>
-      <c r="N62">
         <v>-42.86</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>212</v>
       </c>
+      <c r="B63" s="3">
+        <v>129860000</v>
+      </c>
       <c r="C63" s="3">
-        <v>129860000</v>
+        <v>126304000</v>
       </c>
       <c r="D63" s="3">
-        <v>126304000</v>
+        <v>109858000</v>
       </c>
       <c r="E63" s="3">
-        <v>109858000</v>
+        <v>95984000</v>
       </c>
       <c r="F63" s="3">
-        <v>95984000</v>
+        <v>81256000</v>
       </c>
       <c r="G63" s="3">
-        <v>81256000</v>
+        <v>69693000</v>
       </c>
       <c r="H63" s="3">
-        <v>69693000</v>
+        <v>63712000</v>
       </c>
       <c r="I63" s="3">
-        <v>63712000</v>
+        <v>57068000</v>
       </c>
       <c r="J63" s="3">
-        <v>57068000</v>
+        <v>54785000</v>
       </c>
       <c r="K63" s="3">
-        <v>54785000</v>
-      </c>
-      <c r="L63" s="3">
         <v>51315000</v>
       </c>
+      <c r="L63">
+        <v>3.8</v>
+      </c>
       <c r="M63">
-        <v>3.8</v>
-      </c>
-      <c r="N63">
         <v>22.12</v>
       </c>
     </row>
@@ -23197,41 +23413,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6075AA-0511-4506-8C54-E56097ECEBD4}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection sqref="A1:AE57"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
+      <c r="A1" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="6">
         <v>44926</v>
       </c>
-      <c r="F1" s="1">
+      <c r="C1" s="6">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="6">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="6">
         <v>44742</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="6">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="6">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="6">
         <v>44561</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="6">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="6">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="6">
         <v>44377</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="6">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="6">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="6">
         <v>44196</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="6">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="6">
         <v>44012</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="6">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="6">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="6">
         <v>43830</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="6">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="6">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="6">
         <v>43646</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="6">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="6">
         <v>43465</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="6">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="6">
         <v>43281</v>
       </c>
     </row>
@@ -27525,40 +27804,103 @@
   <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:AE43"/>
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
+      <c r="A1" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="7">
         <v>44926</v>
       </c>
-      <c r="F1" s="1">
+      <c r="C1" s="7">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="7">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="7">
         <v>44742</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="7">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="7">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="7">
         <v>44561</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="7">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="7">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="7">
         <v>44377</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="7">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="7">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="7">
         <v>44196</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="7">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="7">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="7">
         <v>44012</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="7">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="7">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="7">
         <v>43830</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="7">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="7">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="7">
         <v>43646</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="7">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="7">
         <v>43465</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="7">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="7">
         <v>43281</v>
       </c>
     </row>
@@ -30912,40 +31254,103 @@
   <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AE43"/>
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
+      <c r="A1" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="8">
         <v>44926</v>
       </c>
-      <c r="F1" s="1">
+      <c r="C1" s="8">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="8">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="8">
         <v>44742</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="8">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="8">
         <v>44561</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="8">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="8">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="8">
         <v>44377</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="8">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="8">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="8">
         <v>44196</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="8">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="8">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="8">
         <v>44012</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="8">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="8">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="8">
         <v>43830</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="8">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="8">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="8">
         <v>43646</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="8">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="8">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="8">
         <v>43465</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="8">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="8">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="8">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="8">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="8">
         <v>43281</v>
       </c>
     </row>
@@ -33823,41 +34228,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D2E1C1-6684-49E1-AA2C-9EE1B4343B45}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
+      <c r="A1" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="9">
         <v>44926</v>
       </c>
-      <c r="F1" s="1">
+      <c r="C1" s="9">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="9">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="9">
         <v>44742</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="9">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="9">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="9">
         <v>44561</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="9">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="9">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="9">
         <v>44377</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="9">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="9">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="9">
         <v>44196</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="9">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="9">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="9">
         <v>44012</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="9">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="9">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="9">
         <v>43830</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="9">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="9">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="9">
         <v>43646</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="9">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="9">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="9">
         <v>43465</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="9">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="9">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="9">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="9">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="9">
         <v>43281</v>
       </c>
     </row>
@@ -37465,41 +37933,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248011F-41E9-4304-9A48-4AED5E349348}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:AE38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
+      <c r="A1" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="10">
         <v>44926</v>
       </c>
-      <c r="F1" s="1">
+      <c r="C1" s="10">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="10">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="10">
         <v>44742</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="10">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="10">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="10">
         <v>44561</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="10">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="10">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="10">
         <v>44377</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="10">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="10">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="10">
         <v>44196</v>
       </c>
-      <c r="R1" s="1">
+      <c r="O1" s="10">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="10">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="10">
         <v>44012</v>
       </c>
-      <c r="U1" s="1">
+      <c r="R1" s="10">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="10">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="10">
         <v>43830</v>
       </c>
-      <c r="X1" s="1">
+      <c r="U1" s="10">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="10">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="10">
         <v>43646</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="X1" s="10">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="10">
         <v>43465</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AA1" s="10">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="10">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="10">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="10">
         <v>43281</v>
       </c>
     </row>

--- a/Data/Morgan_Stanley_bank.xlsx
+++ b/Data/Morgan_Stanley_bank.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18577\Desktop\IDMP\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506F950-2378-4B8C-8C4C-3703101CD57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593A54B-0421-AE4C-B62D-34238D46DDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="916" firstSheet="5" activeTab="12" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="916" firstSheet="4" activeTab="9" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="3" r:id="rId2"/>
-    <sheet name="Asset Yields" sheetId="4" r:id="rId3"/>
-    <sheet name="Balance$" sheetId="5" r:id="rId4"/>
-    <sheet name="Balance%" sheetId="6" r:id="rId5"/>
-    <sheet name="Conc of Credit" sheetId="7" r:id="rId6"/>
+    <sheet name="Asset Yields and Funding Costs" sheetId="4" r:id="rId3"/>
+    <sheet name="Balance Sheet $" sheetId="5" r:id="rId4"/>
+    <sheet name="Balance Sheet Percentage" sheetId="6" r:id="rId5"/>
+    <sheet name="Credit Concentration" sheetId="7" r:id="rId6"/>
     <sheet name="Interest Rate Risk" sheetId="8" r:id="rId7"/>
-    <sheet name="Liq &amp; Fund" sheetId="9" r:id="rId8"/>
-    <sheet name="Liq &amp; Investment" sheetId="10" r:id="rId9"/>
-    <sheet name="Cap Analysis A" sheetId="11" r:id="rId10"/>
-    <sheet name="Cap Analysis B" sheetId="12" r:id="rId11"/>
-    <sheet name="Cap Analysis C" sheetId="13" r:id="rId12"/>
-    <sheet name="Cap Analysis D" sheetId="14" r:id="rId13"/>
+    <sheet name="Liquidity and Funding" sheetId="9" r:id="rId8"/>
+    <sheet name="Liquidity and Investment" sheetId="10" r:id="rId9"/>
+    <sheet name="Capital Analysis A" sheetId="11" r:id="rId10"/>
+    <sheet name="Capital Analysis B" sheetId="12" r:id="rId11"/>
+    <sheet name="Capital Analysis C" sheetId="13" r:id="rId12"/>
+    <sheet name="Capital Analysis D" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1697,32 +1697,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2043,15 +2022,15 @@
   <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
@@ -2146,7 +2125,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2241,12 +2220,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2341,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2626,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +2795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2911,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +2985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3101,7 +3080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3196,7 +3175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3291,7 +3270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3386,7 +3365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3481,7 +3460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3576,7 +3555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3671,7 +3650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3766,12 +3745,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3866,7 +3845,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3961,7 +3940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -4056,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4151,7 +4130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4246,12 +4225,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4346,7 +4325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4441,7 +4420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4536,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4631,7 +4610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -4726,7 +4705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4821,7 +4800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -4916,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -5011,12 +4990,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5111,7 +5090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5206,7 +5185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5301,12 +5280,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5401,7 +5380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5496,7 +5475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5591,7 +5570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5686,12 +5665,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5786,7 +5765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5881,7 +5860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5976,7 +5955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -6071,7 +6050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6166,7 +6145,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -6201,7 +6180,7 @@
         <v>66423000</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -6236,7 +6215,7 @@
         <v>471000</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -6280,108 +6259,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E6DE0-FAE2-492B-B084-4271321BB965}">
   <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="4">
         <v>44926</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="4">
         <v>44742</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="4">
         <v>44561</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="4">
         <v>44377</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="O1" s="11">
+      <c r="O1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="4">
         <v>44196</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="4">
         <v>44012</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="4">
         <v>43830</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="4">
         <v>43646</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="4">
         <v>43465</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="11">
+      <c r="AE1" s="4">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -6476,12 +6455,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>371</v>
       </c>
@@ -6576,7 +6555,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -6671,7 +6650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -6766,12 +6745,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>374</v>
       </c>
@@ -6866,7 +6845,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>375</v>
       </c>
@@ -6961,7 +6940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>376</v>
       </c>
@@ -7056,12 +7035,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>378</v>
       </c>
@@ -7156,7 +7135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>379</v>
       </c>
@@ -7251,12 +7230,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>381</v>
       </c>
@@ -7351,7 +7330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>382</v>
       </c>
@@ -7446,12 +7425,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>384</v>
       </c>
@@ -7546,7 +7525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -7641,7 +7620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>386</v>
       </c>
@@ -7736,7 +7715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>387</v>
       </c>
@@ -7831,7 +7810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>388</v>
       </c>
@@ -7926,7 +7905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -8021,12 +8000,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>390</v>
       </c>
@@ -8121,7 +8100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>391</v>
       </c>
@@ -8216,7 +8195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>392</v>
       </c>
@@ -8311,12 +8290,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>390</v>
       </c>
@@ -8411,7 +8390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>391</v>
       </c>
@@ -8506,7 +8485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>392</v>
       </c>
@@ -8601,12 +8580,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>395</v>
       </c>
@@ -8641,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>396</v>
       </c>
@@ -8676,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>397</v>
       </c>
@@ -8711,7 +8690,7 @@
         <v>4622000</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>398</v>
       </c>
@@ -8746,7 +8725,7 @@
         <v>2166000</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>399</v>
       </c>
@@ -8781,7 +8760,7 @@
         <v>-180000</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>400</v>
       </c>
@@ -8816,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>401</v>
       </c>
@@ -8851,7 +8830,7 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>402</v>
       </c>
@@ -8886,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>403</v>
       </c>
@@ -8921,7 +8900,7 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>404</v>
       </c>
@@ -8956,12 +8935,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>406</v>
       </c>
@@ -8996,7 +8975,7 @@
         <v>6194000</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>407</v>
       </c>
@@ -9031,7 +9010,7 @@
         <v>471000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>408</v>
       </c>
@@ -9066,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>409</v>
       </c>
@@ -9101,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>410</v>
       </c>
@@ -9136,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>411</v>
       </c>
@@ -9171,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -9206,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>413</v>
       </c>
@@ -9241,7 +9220,7 @@
         <v>-57000</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>414</v>
       </c>
@@ -9276,12 +9255,12 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>416</v>
       </c>
@@ -9316,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>417</v>
       </c>
@@ -9351,7 +9330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>418</v>
       </c>
@@ -9386,7 +9365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>419</v>
       </c>
@@ -9421,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>388</v>
       </c>
@@ -9456,12 +9435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>421</v>
       </c>
@@ -9496,7 +9475,7 @@
         <v>67254000</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>422</v>
       </c>
@@ -9531,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>423</v>
       </c>
@@ -9566,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>424</v>
       </c>
@@ -9614,9 +9593,9 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>537</v>
       </c>
@@ -9651,17 +9630,17 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>427</v>
       </c>
@@ -9696,7 +9675,7 @@
         <v>4622000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>428</v>
       </c>
@@ -9731,7 +9710,7 @@
         <v>2166000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>429</v>
       </c>
@@ -9766,7 +9745,7 @@
         <v>-180000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>430</v>
       </c>
@@ -9801,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>431</v>
       </c>
@@ -9836,12 +9815,12 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>433</v>
       </c>
@@ -9876,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>434</v>
       </c>
@@ -9911,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>435</v>
       </c>
@@ -9946,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>436</v>
       </c>
@@ -9981,7 +9960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -10016,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>438</v>
       </c>
@@ -10051,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -10086,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>440</v>
       </c>
@@ -10121,7 +10100,7 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>441</v>
       </c>
@@ -10156,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>442</v>
       </c>
@@ -10191,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>443</v>
       </c>
@@ -10226,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>444</v>
       </c>
@@ -10261,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>445</v>
       </c>
@@ -10296,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>446</v>
       </c>
@@ -10331,12 +10310,12 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>448</v>
       </c>
@@ -10371,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>449</v>
       </c>
@@ -10406,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>450</v>
       </c>
@@ -10441,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>451</v>
       </c>
@@ -10476,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>452</v>
       </c>
@@ -10511,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>453</v>
       </c>
@@ -10546,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -10581,12 +10560,12 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>455</v>
       </c>
@@ -10621,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>456</v>
       </c>
@@ -10656,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>457</v>
       </c>
@@ -10691,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>458</v>
       </c>
@@ -10726,7 +10705,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>459</v>
       </c>
@@ -10761,7 +10740,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>460</v>
       </c>
@@ -10796,7 +10775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>461</v>
       </c>
@@ -10831,7 +10810,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>462</v>
       </c>
@@ -10866,7 +10845,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>463</v>
       </c>
@@ -10901,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>464</v>
       </c>
@@ -10936,7 +10915,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>465</v>
       </c>
@@ -10971,7 +10950,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>466</v>
       </c>
@@ -11006,7 +10985,7 @@
         <v>6649000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>467</v>
       </c>
@@ -11054,9 +11033,9 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>537</v>
       </c>
@@ -11091,17 +11070,17 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>470</v>
       </c>
@@ -11136,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>471</v>
       </c>
@@ -11171,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>472</v>
       </c>
@@ -11206,7 +11185,7 @@
         <v>415600</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>473</v>
       </c>
@@ -11241,7 +11220,7 @@
         <v>13245000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>474</v>
       </c>
@@ -11276,7 +11255,7 @@
         <v>10676000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>475</v>
       </c>
@@ -11311,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>476</v>
       </c>
@@ -11346,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>477</v>
       </c>
@@ -11381,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>478</v>
       </c>
@@ -11416,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>479</v>
       </c>
@@ -11451,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>480</v>
       </c>
@@ -11486,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>481</v>
       </c>
@@ -11521,7 +11500,7 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>482</v>
       </c>
@@ -11556,7 +11535,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>483</v>
       </c>
@@ -11591,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>484</v>
       </c>
@@ -11626,7 +11605,7 @@
         <v>24798600</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>485</v>
       </c>
@@ -11661,12 +11640,12 @@
         <v>14765000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>470</v>
       </c>
@@ -11701,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>471</v>
       </c>
@@ -11736,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>487</v>
       </c>
@@ -11771,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>472</v>
       </c>
@@ -11806,7 +11785,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>473</v>
       </c>
@@ -11841,7 +11820,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>474</v>
       </c>
@@ -11876,7 +11855,7 @@
         <v>1951300</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>475</v>
       </c>
@@ -11911,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -11946,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>489</v>
       </c>
@@ -11981,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>480</v>
       </c>
@@ -12016,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>490</v>
       </c>
@@ -12051,7 +12030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -12086,7 +12065,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>482</v>
       </c>
@@ -12121,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>483</v>
       </c>
@@ -12156,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>492</v>
       </c>
@@ -12191,7 +12170,7 @@
         <v>2021300</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>485</v>
       </c>
@@ -12226,7 +12205,7 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>493</v>
       </c>
@@ -12261,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>494</v>
       </c>
@@ -12296,7 +12275,7 @@
         <v>26819900</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>495</v>
       </c>
@@ -12331,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>496</v>
       </c>
@@ -12366,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>497</v>
       </c>
@@ -12401,7 +12380,7 @@
         <v>26819900</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>498</v>
       </c>
@@ -12436,12 +12415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>500</v>
       </c>
@@ -12476,7 +12455,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>501</v>
       </c>
@@ -12511,7 +12490,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>502</v>
       </c>
@@ -12546,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>503</v>
       </c>
@@ -12581,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>501</v>
       </c>
@@ -12616,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>502</v>
       </c>
@@ -12660,16 +12639,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D7596-E732-4320-8DA0-47DB1043AB89}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>537</v>
       </c>
@@ -12704,17 +12683,17 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>505</v>
       </c>
@@ -12749,7 +12728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -12784,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>507</v>
       </c>
@@ -12819,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -12854,7 +12833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>509</v>
       </c>
@@ -12889,12 +12868,12 @@
         <v>6608000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>511</v>
       </c>
@@ -12929,7 +12908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>512</v>
       </c>
@@ -12964,7 +12943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -12999,7 +12978,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -13034,7 +13013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>515</v>
       </c>
@@ -13069,7 +13048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>516</v>
       </c>
@@ -13104,12 +13083,12 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>518</v>
       </c>
@@ -13144,7 +13123,7 @@
         <v>6649000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -13179,7 +13158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>520</v>
       </c>
@@ -13214,7 +13193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>521</v>
       </c>
@@ -13249,17 +13228,17 @@
         <v>6649000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>524</v>
       </c>
@@ -13294,7 +13273,7 @@
         <v>415600</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>525</v>
       </c>
@@ -13329,7 +13308,7 @@
         <v>13245000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>526</v>
       </c>
@@ -13364,7 +13343,7 @@
         <v>10676000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>527</v>
       </c>
@@ -13399,7 +13378,7 @@
         <v>24798600</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>528</v>
       </c>
@@ -13434,12 +13413,12 @@
         <v>14765000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -13474,7 +13453,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>525</v>
       </c>
@@ -13509,7 +13488,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>526</v>
       </c>
@@ -13544,7 +13523,7 @@
         <v>1951300</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>530</v>
       </c>
@@ -13579,7 +13558,7 @@
         <v>2021300</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>528</v>
       </c>
@@ -13614,12 +13593,12 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>494</v>
       </c>
@@ -13654,7 +13633,7 @@
         <v>26819900</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>532</v>
       </c>
@@ -13689,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>533</v>
       </c>
@@ -13724,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>534</v>
       </c>
@@ -13759,7 +13738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>535</v>
       </c>
@@ -13807,17 +13786,17 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>537</v>
       </c>
@@ -13855,7 +13834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -13893,7 +13872,7 @@
         <v>-3.15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -13931,7 +13910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -13969,7 +13948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -14007,7 +13986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -14045,7 +14024,7 @@
         <v>-3.15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -14083,7 +14062,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -14121,7 +14100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -14159,7 +14138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -14197,7 +14176,7 @@
         <v>-44.44</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -14235,7 +14214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -14273,7 +14252,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -14311,7 +14290,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -14349,7 +14328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -14387,7 +14366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -14425,7 +14404,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -14463,7 +14442,7 @@
         <v>-4.18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -14501,7 +14480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -14539,7 +14518,7 @@
         <v>-22.3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -14577,7 +14556,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -14615,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -14653,7 +14632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -14691,7 +14670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -14729,7 +14708,7 @@
         <v>-24.44</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -14767,7 +14746,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -14805,7 +14784,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -14843,7 +14822,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -14881,7 +14860,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -14919,7 +14898,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -14957,7 +14936,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -14995,7 +14974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -15033,7 +15012,7 @@
         <v>-1.97</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -15071,7 +15050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -15109,7 +15088,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -15147,7 +15126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -15185,7 +15164,7 @@
         <v>-4.84</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -15223,7 +15202,7 @@
         <v>-5.24</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -15261,7 +15240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -15299,7 +15278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -15337,7 +15316,7 @@
         <v>-5.24</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -15375,7 +15354,7 @@
         <v>-4.71</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -15413,7 +15392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -15451,7 +15430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -15489,7 +15468,7 @@
         <v>-4.71</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -15527,7 +15506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -15565,7 +15544,7 @@
         <v>-104.04</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -15603,7 +15582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -15654,104 +15633,104 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>44926</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>44742</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="4">
         <v>44561</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="4">
         <v>44377</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="4">
         <v>44196</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="4">
         <v>44012</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="4">
         <v>43830</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="4">
         <v>43646</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AB1" s="4">
         <v>43465</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AE1" s="4">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -15846,7 +15825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -15941,7 +15920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -16036,7 +16015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -16131,7 +16110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -16226,7 +16205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -16321,7 +16300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -16416,7 +16395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -16511,7 +16490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -16606,7 +16585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -16701,7 +16680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -16796,7 +16775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -16891,7 +16870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -16986,7 +16965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -17081,7 +17060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -17176,7 +17155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -17271,7 +17250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -17366,7 +17345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -17461,7 +17440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -17556,7 +17535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -17651,7 +17630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -17746,7 +17725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -17841,7 +17820,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -17936,7 +17915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -18031,7 +18010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -18126,7 +18105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -18221,7 +18200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -18316,7 +18295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -18411,7 +18390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -18506,12 +18485,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -18606,7 +18585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -18701,7 +18680,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>135</v>
       </c>
@@ -18796,7 +18775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -18891,7 +18870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -18986,7 +18965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -19081,7 +19060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -19176,7 +19155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -19271,7 +19250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -19366,7 +19345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -19461,7 +19440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -19556,7 +19535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -19651,7 +19630,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -19746,7 +19725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -19841,7 +19820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -19936,7 +19915,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -20031,7 +20010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -20126,7 +20105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -20221,7 +20200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -20316,7 +20295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -20411,7 +20390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -20506,7 +20485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -20601,7 +20580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -20696,7 +20675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -20791,7 +20770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -20886,7 +20865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>130</v>
       </c>
@@ -20981,7 +20960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -21089,17 +21068,17 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>537</v>
       </c>
@@ -21140,12 +21119,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -21186,7 +21165,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -21227,7 +21206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -21268,7 +21247,7 @@
         <v>33.39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -21309,7 +21288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -21350,7 +21329,7 @@
         <v>34.19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -21391,7 +21370,7 @@
         <v>155.81</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -21432,7 +21411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -21473,7 +21452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -21514,7 +21493,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -21555,7 +21534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -21596,7 +21575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -21637,7 +21616,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -21678,7 +21657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -21719,7 +21698,7 @@
         <v>175.08</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -21760,7 +21739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -21801,7 +21780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -21842,7 +21821,7 @@
         <v>79.260000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -21883,7 +21862,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -21924,7 +21903,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -21965,7 +21944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -22006,7 +21985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -22047,7 +22026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -22088,7 +22067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -22129,7 +22108,7 @@
         <v>34.86</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -22170,7 +22149,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>181</v>
       </c>
@@ -22211,12 +22190,12 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>183</v>
       </c>
@@ -22257,7 +22236,7 @@
         <v>101.24</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -22298,7 +22277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>185</v>
       </c>
@@ -22339,7 +22318,7 @@
         <v>39.94</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>186</v>
       </c>
@@ -22380,7 +22359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -22421,7 +22400,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -22462,7 +22441,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -22503,7 +22482,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -22544,7 +22523,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -22585,7 +22564,7 @@
         <v>-30.77</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -22626,7 +22605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -22667,7 +22646,7 @@
         <v>39.619999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -22708,7 +22687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -22749,7 +22728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -22790,7 +22769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -22831,7 +22810,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -22872,7 +22851,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -22913,7 +22892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -22954,7 +22933,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -22995,7 +22974,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>202</v>
       </c>
@@ -23036,7 +23015,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -23077,12 +23056,12 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -23117,7 +23096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>206</v>
       </c>
@@ -23158,7 +23137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>207</v>
       </c>
@@ -23199,7 +23178,7 @@
         <v>-8.31</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>208</v>
       </c>
@@ -23240,7 +23219,7 @@
         <v>47.93</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>209</v>
       </c>
@@ -23281,7 +23260,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>210</v>
       </c>
@@ -23322,7 +23301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>211</v>
       </c>
@@ -23363,7 +23342,7 @@
         <v>-42.86</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>212</v>
       </c>
@@ -23417,104 +23396,104 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>44926</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <v>44742</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="4">
         <v>44561</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>44377</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="4">
         <v>44196</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="4">
         <v>44012</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="4">
         <v>43830</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="4">
         <v>43646</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="4">
         <v>43465</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="4">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -23609,7 +23588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -23704,7 +23683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -23799,7 +23778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -23894,7 +23873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -23989,7 +23968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -24084,7 +24063,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -24179,7 +24158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -24274,7 +24253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -24369,7 +24348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -24464,7 +24443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -24559,7 +24538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -24654,7 +24633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -24749,7 +24728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>174</v>
       </c>
@@ -24844,7 +24823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -24939,7 +24918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -25034,7 +25013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -25129,7 +25108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -25224,7 +25203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -25319,7 +25298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -25414,7 +25393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -25509,7 +25488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -25604,12 +25583,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -25704,7 +25683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -25799,7 +25778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -25894,7 +25873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>225</v>
       </c>
@@ -25989,7 +25968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>226</v>
       </c>
@@ -26084,7 +26063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -26179,7 +26158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>189</v>
       </c>
@@ -26274,7 +26253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -26369,7 +26348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -26464,7 +26443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -26559,7 +26538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -26654,7 +26633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -26749,7 +26728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>228</v>
       </c>
@@ -26844,7 +26823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>229</v>
       </c>
@@ -26939,7 +26918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -27034,7 +27013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>199</v>
       </c>
@@ -27129,7 +27108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -27224,7 +27203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -27319,7 +27298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -27414,7 +27393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -27509,7 +27488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>231</v>
       </c>
@@ -27604,7 +27583,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>232</v>
       </c>
@@ -27699,7 +27678,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -27807,104 +27786,104 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="4">
         <v>44926</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="4">
         <v>44742</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="4">
         <v>44561</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="4">
         <v>44377</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="4">
         <v>44196</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="7">
+      <c r="S1" s="4">
         <v>44012</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="U1" s="7">
+      <c r="U1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="4">
         <v>43830</v>
       </c>
-      <c r="W1" s="7">
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="X1" s="7">
+      <c r="X1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="7">
+      <c r="Y1" s="4">
         <v>43646</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AA1" s="7">
+      <c r="AA1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AB1" s="4">
         <v>43465</v>
       </c>
-      <c r="AC1" s="7">
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AD1" s="7">
+      <c r="AD1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="7">
+      <c r="AE1" s="4">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -27999,7 +27978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -28094,7 +28073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -28189,7 +28168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -28284,7 +28263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -28379,7 +28358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -28474,7 +28453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -28569,7 +28548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -28664,7 +28643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -28759,7 +28738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -28854,7 +28833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
@@ -28949,7 +28928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -29044,7 +29023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -29139,7 +29118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -29234,7 +29213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -29329,7 +29308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -29424,7 +29403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -29519,7 +29498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -29614,7 +29593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -29709,7 +29688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -29804,7 +29783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>252</v>
       </c>
@@ -29899,7 +29878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -29994,7 +29973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>254</v>
       </c>
@@ -30089,7 +30068,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>255</v>
       </c>
@@ -30184,7 +30163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -30279,7 +30258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>257</v>
       </c>
@@ -30374,7 +30353,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -30469,12 +30448,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -30569,7 +30548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>261</v>
       </c>
@@ -30664,12 +30643,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>263</v>
       </c>
@@ -30764,7 +30743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>264</v>
       </c>
@@ -30859,7 +30838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>265</v>
       </c>
@@ -30954,12 +30933,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -31054,7 +31033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>263</v>
       </c>
@@ -31149,7 +31128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>265</v>
       </c>
@@ -31257,104 +31236,104 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="4">
         <v>44926</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="4">
         <v>44742</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="4">
         <v>44561</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="4">
         <v>44377</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="4">
         <v>44196</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="4">
         <v>44012</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="4">
         <v>43830</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="4">
         <v>43646</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="4">
         <v>43465</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="4">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -31449,7 +31428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -31544,7 +31523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -31639,7 +31618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>271</v>
       </c>
@@ -31734,7 +31713,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>272</v>
       </c>
@@ -31829,7 +31808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>270</v>
       </c>
@@ -31924,7 +31903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -32019,7 +31998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -32114,7 +32093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>274</v>
       </c>
@@ -32209,7 +32188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>275</v>
       </c>
@@ -32304,7 +32283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>276</v>
       </c>
@@ -32399,7 +32378,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>277</v>
       </c>
@@ -32494,7 +32473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>278</v>
       </c>
@@ -32589,12 +32568,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>280</v>
       </c>
@@ -32689,7 +32668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>281</v>
       </c>
@@ -32784,7 +32763,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>282</v>
       </c>
@@ -32879,7 +32858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -32974,7 +32953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>284</v>
       </c>
@@ -33069,12 +33048,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -33169,7 +33148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>287</v>
       </c>
@@ -33264,7 +33243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -33359,7 +33338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>289</v>
       </c>
@@ -33454,7 +33433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>290</v>
       </c>
@@ -33549,7 +33528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>291</v>
       </c>
@@ -33644,7 +33623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>292</v>
       </c>
@@ -33739,7 +33718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>293</v>
       </c>
@@ -33834,7 +33813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>288</v>
       </c>
@@ -33929,12 +33908,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -34029,7 +34008,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>277</v>
       </c>
@@ -34124,7 +34103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -34232,104 +34211,104 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="4">
         <v>44926</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="4">
         <v>44742</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="4">
         <v>44561</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="4">
         <v>44377</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="4">
         <v>44196</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="4">
         <v>44012</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="4">
         <v>43830</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="4">
         <v>43646</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AA1" s="9">
+      <c r="AA1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="4">
         <v>43465</v>
       </c>
-      <c r="AC1" s="9">
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AD1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="9">
+      <c r="AE1" s="4">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>295</v>
       </c>
@@ -34424,7 +34403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -34519,7 +34498,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -34614,7 +34593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>298</v>
       </c>
@@ -34709,7 +34688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -34804,7 +34783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>300</v>
       </c>
@@ -34899,7 +34878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -34994,7 +34973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>302</v>
       </c>
@@ -35089,7 +35068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>303</v>
       </c>
@@ -35184,7 +35163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>304</v>
       </c>
@@ -35279,7 +35258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -35374,7 +35353,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -35469,7 +35448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>193</v>
       </c>
@@ -35564,12 +35543,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>307</v>
       </c>
@@ -35664,7 +35643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -35759,7 +35738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -35854,7 +35833,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>309</v>
       </c>
@@ -35949,7 +35928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -36044,7 +36023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>311</v>
       </c>
@@ -36139,7 +36118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -36234,7 +36213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -36329,7 +36308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -36424,7 +36403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>314</v>
       </c>
@@ -36519,7 +36498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -36614,7 +36593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>316</v>
       </c>
@@ -36709,7 +36688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>317</v>
       </c>
@@ -36804,7 +36783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>318</v>
       </c>
@@ -36899,12 +36878,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>296</v>
       </c>
@@ -36939,7 +36918,7 @@
         <v>61295000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -36974,7 +36953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -37009,7 +36988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>299</v>
       </c>
@@ -37044,7 +37023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -37079,7 +37058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -37114,7 +37093,7 @@
         <v>61295000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>302</v>
       </c>
@@ -37149,7 +37128,7 @@
         <v>2751000</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>303</v>
       </c>
@@ -37184,7 +37163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>304</v>
       </c>
@@ -37219,7 +37198,7 @@
         <v>58544000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -37254,7 +37233,7 @@
         <v>61295000</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>192</v>
       </c>
@@ -37289,7 +37268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -37324,12 +37303,12 @@
         <v>61295000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>321</v>
       </c>
@@ -37364,7 +37343,7 @@
         <v>14494000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -37399,7 +37378,7 @@
         <v>12838000</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -37434,7 +37413,7 @@
         <v>48307000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>322</v>
       </c>
@@ -37469,7 +37448,7 @@
         <v>8453000</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>323</v>
       </c>
@@ -37504,7 +37483,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>324</v>
       </c>
@@ -37539,7 +37518,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>325</v>
       </c>
@@ -37574,7 +37553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>326</v>
       </c>
@@ -37609,7 +37588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>327</v>
       </c>
@@ -37644,7 +37623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>328</v>
       </c>
@@ -37679,7 +37658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>329</v>
       </c>
@@ -37714,7 +37693,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>330</v>
       </c>
@@ -37749,7 +37728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>331</v>
       </c>
@@ -37784,7 +37763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>332</v>
       </c>
@@ -37819,7 +37798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>333</v>
       </c>
@@ -37854,7 +37833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -37889,7 +37868,7 @@
         <v>14308000</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>335</v>
       </c>
@@ -37937,104 +37916,104 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="4">
         <v>44926</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="4">
         <v>44926</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="4">
         <v>44926</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="4">
         <v>44742</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="4">
         <v>44742</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="4">
         <v>44742</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="4">
         <v>44561</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="4">
         <v>44561</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="4">
         <v>44561</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="4">
         <v>44377</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="4">
         <v>44377</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="4">
         <v>44196</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="4">
         <v>44196</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="4">
         <v>44196</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="4">
         <v>44012</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="4">
         <v>44012</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="4">
         <v>44012</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="4">
         <v>43830</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="4">
         <v>43830</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="4">
         <v>43830</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="4">
         <v>43646</v>
       </c>
-      <c r="X1" s="10">
+      <c r="X1" s="4">
         <v>43646</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="4">
         <v>43646</v>
       </c>
-      <c r="Z1" s="10">
+      <c r="Z1" s="4">
         <v>43465</v>
       </c>
-      <c r="AA1" s="10">
+      <c r="AA1" s="4">
         <v>43465</v>
       </c>
-      <c r="AB1" s="10">
+      <c r="AB1" s="4">
         <v>43465</v>
       </c>
-      <c r="AC1" s="10">
+      <c r="AC1" s="4">
         <v>43281</v>
       </c>
-      <c r="AD1" s="10">
+      <c r="AD1" s="4">
         <v>43281</v>
       </c>
-      <c r="AE1" s="10">
+      <c r="AE1" s="4">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -38129,7 +38108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -38224,7 +38203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -38319,7 +38298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -38414,7 +38393,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>339</v>
       </c>
@@ -38509,17 +38488,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -38614,7 +38593,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -38709,7 +38688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -38804,7 +38783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>345</v>
       </c>
@@ -38899,7 +38878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>346</v>
       </c>
@@ -38994,7 +38973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>347</v>
       </c>
@@ -39089,7 +39068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>348</v>
       </c>
@@ -39184,7 +39163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -39279,7 +39258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>350</v>
       </c>
@@ -39374,7 +39353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>351</v>
       </c>
@@ -39469,7 +39448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>352</v>
       </c>
@@ -39564,12 +39543,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>354</v>
       </c>
@@ -39664,7 +39643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>355</v>
       </c>
@@ -39759,7 +39738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>356</v>
       </c>
@@ -39854,7 +39833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>357</v>
       </c>
@@ -39949,7 +39928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>358</v>
       </c>
@@ -40044,7 +40023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>359</v>
       </c>
@@ -40139,7 +40118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>360</v>
       </c>
@@ -40234,7 +40213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>361</v>
       </c>
@@ -40269,7 +40248,7 @@
         <v>7678000</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -40304,7 +40283,7 @@
         <v>24251000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>363</v>
       </c>
@@ -40339,7 +40318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -40374,7 +40353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>365</v>
       </c>
@@ -40409,7 +40388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>366</v>
       </c>
@@ -40444,7 +40423,7 @@
         <v>1519000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>367</v>
       </c>
@@ -40479,7 +40458,7 @@
         <v>21796000</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>368</v>
       </c>

--- a/Data/Morgan_Stanley_bank.xlsx
+++ b/Data/Morgan_Stanley_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E4132-7AF7-4191-9CA3-C7A3224A13AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85EF0C-F48A-47FE-B6B8-97C51029D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" activeTab="5" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
@@ -1274,39 +1274,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7E63F-C1EC-479A-887D-3134EA9C8E58}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
@@ -5429,34 +5421,34 @@
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="7">
+      <c r="B56" s="7">
         <v>201998750</v>
       </c>
-      <c r="F56" s="7">
+      <c r="E56" s="7">
         <v>202185000</v>
       </c>
-      <c r="I56" s="7">
+      <c r="H56" s="7">
         <v>136131250</v>
       </c>
-      <c r="L56" s="7">
+      <c r="K56" s="7">
         <v>127734500</v>
       </c>
-      <c r="O56" s="7">
+      <c r="N56" s="7">
         <v>102597250</v>
       </c>
-      <c r="R56" s="7">
+      <c r="Q56" s="7">
         <v>95616500</v>
       </c>
-      <c r="U56" s="7">
+      <c r="T56" s="7">
         <v>76562750</v>
       </c>
-      <c r="X56" s="7">
+      <c r="W56" s="7">
         <v>74346000</v>
       </c>
-      <c r="AA56" s="7">
+      <c r="Z56" s="7">
         <v>68758750</v>
       </c>
-      <c r="AD56" s="7">
+      <c r="AC56" s="7">
         <v>66423000</v>
       </c>
     </row>
@@ -5464,34 +5456,34 @@
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="7">
+      <c r="B57" s="7">
         <v>2730000</v>
       </c>
-      <c r="F57" s="7">
+      <c r="E57" s="7">
         <v>1268000</v>
       </c>
-      <c r="I57" s="7">
+      <c r="H57" s="7">
         <v>1528000</v>
       </c>
-      <c r="L57" s="7">
+      <c r="K57" s="7">
         <v>708000</v>
       </c>
-      <c r="O57" s="7">
+      <c r="N57" s="7">
         <v>1173000</v>
       </c>
-      <c r="R57" s="7">
+      <c r="Q57" s="7">
         <v>566000</v>
       </c>
-      <c r="U57" s="7">
+      <c r="T57" s="7">
         <v>1185000</v>
       </c>
-      <c r="X57" s="7">
+      <c r="W57" s="7">
         <v>594000</v>
       </c>
-      <c r="AA57" s="7">
+      <c r="Z57" s="7">
         <v>1002000</v>
       </c>
-      <c r="AD57" s="7">
+      <c r="AC57" s="7">
         <v>471000</v>
       </c>
     </row>
@@ -5499,34 +5491,34 @@
       <c r="A59" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="5">
+      <c r="B59" s="5">
         <v>31</v>
       </c>
-      <c r="F59" s="5">
+      <c r="E59" s="5">
         <v>31</v>
       </c>
-      <c r="I59" s="5">
-        <v>30</v>
-      </c>
-      <c r="L59" s="5">
+      <c r="H59" s="5">
+        <v>30</v>
+      </c>
+      <c r="K59" s="5">
         <v>28</v>
       </c>
-      <c r="O59" s="5">
+      <c r="N59" s="5">
         <v>29</v>
       </c>
-      <c r="R59" s="5">
+      <c r="Q59" s="5">
         <v>28</v>
       </c>
-      <c r="U59" s="5">
+      <c r="T59" s="5">
         <v>94</v>
       </c>
-      <c r="X59" s="5">
+      <c r="W59" s="5">
         <v>93</v>
       </c>
-      <c r="AA59" s="5">
+      <c r="Z59" s="5">
         <v>92</v>
       </c>
-      <c r="AD59" s="5">
+      <c r="AC59" s="5">
         <v>89</v>
       </c>
     </row>
@@ -5539,11 +5531,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482DDA77-FCCB-4FBC-A828-0DC2803463C8}">
   <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -10975,10 +10980,23 @@
   <dimension ref="A1:AE57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -15365,10 +15383,23 @@
   <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -18339,39 +18370,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D2E1C1-6684-49E1-AA2C-9EE1B4343B45}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E29" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -21039,1028 +21062,1028 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="3">
+      <c r="B34" s="3">
         <v>192265000</v>
       </c>
-      <c r="F34" s="3">
+      <c r="E34" s="3">
         <v>182630000</v>
       </c>
-      <c r="I34" s="3">
+      <c r="H34" s="3">
         <v>125670000</v>
       </c>
-      <c r="L34" s="3">
+      <c r="K34" s="3">
         <v>108790000</v>
       </c>
-      <c r="O34" s="3">
+      <c r="N34" s="3">
         <v>107259000</v>
       </c>
-      <c r="R34" s="3">
+      <c r="Q34" s="3">
         <v>93901000</v>
       </c>
-      <c r="U34" s="3">
+      <c r="T34" s="3">
         <v>74026000</v>
       </c>
-      <c r="X34" s="3">
+      <c r="W34" s="3">
         <v>67254000</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="Z34" s="3">
         <v>65920000</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AC34" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>181</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>182</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>184</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="3">
+      <c r="B39" s="3">
         <v>192265000</v>
       </c>
-      <c r="F39" s="3">
+      <c r="E39" s="3">
         <v>182630000</v>
       </c>
-      <c r="I39" s="3">
+      <c r="H39" s="3">
         <v>125670000</v>
       </c>
-      <c r="L39" s="3">
+      <c r="K39" s="3">
         <v>108790000</v>
       </c>
-      <c r="O39" s="3">
+      <c r="N39" s="3">
         <v>107259000</v>
       </c>
-      <c r="R39" s="3">
+      <c r="Q39" s="3">
         <v>93901000</v>
       </c>
-      <c r="U39" s="3">
+      <c r="T39" s="3">
         <v>74026000</v>
       </c>
-      <c r="X39" s="3">
+      <c r="W39" s="3">
         <v>67254000</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="Z39" s="3">
         <v>65920000</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AC39" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="3">
+      <c r="B41" s="3">
         <v>156486000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="E41" s="3">
         <v>72726000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="H41" s="3">
         <v>19366000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="K41" s="3">
         <v>17682000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="N41" s="3">
         <v>19142000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="Q41" s="3">
         <v>15966000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="T41" s="3">
         <v>10053000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="W41" s="3">
         <v>7934000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="Z41" s="3">
         <v>4540000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AC41" s="3">
         <v>2751000</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>187</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="3">
+      <c r="B43" s="3">
         <v>35779000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="E43" s="3">
         <v>109904000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="H43" s="3">
         <v>106304000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
         <v>91108000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="N43" s="3">
         <v>88117000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
         <v>77935000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="T43" s="3">
         <v>63973000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="W43" s="3">
         <v>59320000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="Z43" s="3">
         <v>61380000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AC43" s="3">
         <v>58544000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="3">
+      <c r="B44" s="3">
         <v>192265000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="E44" s="3">
         <v>182630000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="H44" s="3">
         <v>125670000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="K44" s="3">
         <v>108790000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="N44" s="3">
         <v>107259000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="Q44" s="3">
         <v>93901000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="T44" s="3">
         <v>74026000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="W44" s="3">
         <v>67254000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="Z44" s="3">
         <v>65920000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AC44" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>122</v>
       </c>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" t="s">
-        <v>30</v>
-      </c>
-      <c r="U45" t="s">
-        <v>30</v>
-      </c>
-      <c r="X45" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="3">
+      <c r="B46" s="3">
         <v>192265000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="E46" s="3">
         <v>182630000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="H46" s="3">
         <v>125670000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="K46" s="3">
         <v>108790000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="N46" s="3">
         <v>107259000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="Q46" s="3">
         <v>93901000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="T46" s="3">
         <v>74026000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="W46" s="3">
         <v>67254000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="Z46" s="3">
         <v>65920000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AC46" s="3">
         <v>61295000</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="3">
+      <c r="B49" s="3">
         <v>20488000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="E49" s="3">
         <v>7804000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="H49" s="3">
         <v>23739000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="K49" s="3">
         <v>30812000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="N49" s="3">
         <v>23338000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="Q49" s="3">
         <v>22687000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="T49" s="3">
         <v>21883000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="W49" s="3">
         <v>19364000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="Z49" s="3">
         <v>15259000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AC49" s="3">
         <v>14494000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="3">
+      <c r="B50" s="3">
         <v>14955000</v>
       </c>
-      <c r="F50" s="3">
+      <c r="E50" s="3">
         <v>4253000</v>
       </c>
-      <c r="I50" s="3">
+      <c r="H50" s="3">
         <v>20875000</v>
       </c>
-      <c r="L50" s="3">
+      <c r="K50" s="3">
         <v>12281000</v>
       </c>
-      <c r="O50" s="3">
+      <c r="N50" s="3">
         <v>18944000</v>
       </c>
-      <c r="R50" s="3">
+      <c r="Q50" s="3">
         <v>16740000</v>
       </c>
-      <c r="U50" s="3">
+      <c r="T50" s="3">
         <v>15466000</v>
       </c>
-      <c r="X50" s="3">
+      <c r="W50" s="3">
         <v>13410000</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="Z50" s="3">
         <v>11879000</v>
       </c>
-      <c r="AD50" s="3">
+      <c r="AC50" s="3">
         <v>12838000</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="3">
+      <c r="B51" s="3">
         <v>172245000</v>
       </c>
-      <c r="F51" s="3">
+      <c r="E51" s="3">
         <v>175289000</v>
       </c>
-      <c r="I51" s="3">
+      <c r="H51" s="3">
         <v>120191000</v>
       </c>
-      <c r="L51" s="3">
+      <c r="K51" s="3">
         <v>94262000</v>
       </c>
-      <c r="O51" s="3">
+      <c r="N51" s="3">
         <v>87925000</v>
       </c>
-      <c r="R51" s="3">
+      <c r="Q51" s="3">
         <v>71237000</v>
       </c>
-      <c r="U51" s="3">
+      <c r="T51" s="3">
         <v>52943000</v>
       </c>
-      <c r="X51" s="3">
+      <c r="W51" s="3">
         <v>47907000</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="Z51" s="3">
         <v>52169000</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AC51" s="3">
         <v>48307000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="3">
+      <c r="B52" s="3">
         <v>8737000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="E52" s="3">
         <v>1577000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3">
         <v>1703000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
         <v>2936000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
         <v>5718000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
         <v>7650000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
         <v>7393000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="W52" s="3">
         <v>7377000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="Z52" s="3">
         <v>5794000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AC52" s="3">
         <v>8453000</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="3">
+      <c r="B53" s="3">
         <v>5538000</v>
       </c>
-      <c r="F53" s="3">
+      <c r="E53" s="3">
         <v>3556000</v>
       </c>
-      <c r="I53" s="3">
+      <c r="H53" s="3">
         <v>2864000</v>
       </c>
-      <c r="L53" s="3">
+      <c r="K53" s="3">
         <v>3282000</v>
       </c>
-      <c r="O53" s="3">
+      <c r="N53" s="3">
         <v>4393000</v>
       </c>
-      <c r="R53" s="3">
+      <c r="Q53" s="3">
         <v>5924000</v>
       </c>
-      <c r="U53" s="3">
+      <c r="T53" s="3">
         <v>6368000</v>
       </c>
-      <c r="X53" s="3">
+      <c r="W53" s="3">
         <v>5937000</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="Z53" s="3">
         <v>3373000</v>
       </c>
-      <c r="AD53" s="3">
+      <c r="AC53" s="3">
         <v>1650000</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>208</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="N54" s="3">
         <v>16000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="Q54" s="3">
         <v>18000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="T54" s="3">
         <v>12000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="W54" s="3">
         <v>26000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="Z54" s="3">
         <v>11000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AC54" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>209</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>210</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="U56" s="3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3">
         <v>750000</v>
       </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="3">
+      <c r="B58" s="3">
         <v>468000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="E58" s="3">
         <v>463000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="H58" s="3">
         <v>18260000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
         <v>1034000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
         <v>4003000</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>213</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>15250000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="Q59" s="3">
         <v>23000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="T59" s="3">
         <v>50000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="W59" s="3">
         <v>16000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="Z59" s="3">
         <v>7000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AC59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>214</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>215</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>216</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>217</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="3">
+      <c r="B64" s="3">
         <v>24458000</v>
       </c>
-      <c r="F64" s="3">
+      <c r="E64" s="3">
         <v>9331000</v>
       </c>
-      <c r="I64" s="3">
+      <c r="H64" s="3">
         <v>5484000</v>
       </c>
-      <c r="L64" s="3">
+      <c r="K64" s="3">
         <v>22781000</v>
       </c>
-      <c r="O64" s="3">
+      <c r="N64" s="3">
         <v>29085000</v>
       </c>
-      <c r="R64" s="3">
+      <c r="Q64" s="3">
         <v>31470000</v>
       </c>
-      <c r="U64" s="3">
+      <c r="T64" s="3">
         <v>27054000</v>
       </c>
-      <c r="X64" s="3">
+      <c r="W64" s="3">
         <v>23871000</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="Z64" s="3">
         <v>15980000</v>
       </c>
-      <c r="AD64" s="3">
+      <c r="AC64" s="3">
         <v>14308000</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>219</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
         <v>0</v>
       </c>
     </row>
@@ -22073,33 +22096,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248011F-41E9-4304-9A48-4AED5E349348}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -24401,34 +24419,34 @@
       <c r="A31" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="3">
+      <c r="B31" s="3">
         <v>28635000</v>
       </c>
-      <c r="F31" s="3">
+      <c r="E31" s="3">
         <v>20019000</v>
       </c>
-      <c r="I31" s="3">
+      <c r="H31" s="3">
         <v>15574000</v>
       </c>
-      <c r="L31" s="3">
+      <c r="K31" s="3">
         <v>19032000</v>
       </c>
-      <c r="O31" s="3">
+      <c r="N31" s="3">
         <v>24021000</v>
       </c>
-      <c r="R31" s="3">
+      <c r="Q31" s="3">
         <v>17823000</v>
       </c>
-      <c r="U31" s="3">
+      <c r="T31" s="3">
         <v>5201000</v>
       </c>
-      <c r="X31" s="3">
+      <c r="W31" s="3">
         <v>4248000</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="Z31" s="3">
         <v>7835000</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AC31" s="3">
         <v>7678000</v>
       </c>
     </row>
@@ -24436,244 +24454,244 @@
       <c r="A32" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="3">
+      <c r="B32" s="3">
         <v>79149000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
         <v>70944000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="H32" s="3">
         <v>59997000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="K32" s="3">
         <v>54961000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="N32" s="3">
         <v>53767000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="Q32" s="3">
         <v>41480000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="T32" s="3">
         <v>27033000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="W32" s="3">
         <v>24312000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="Z32" s="3">
         <v>27196000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AC32" s="3">
         <v>24251000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>247</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>249</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="3">
+      <c r="B36" s="3">
         <v>5000</v>
       </c>
-      <c r="F36" s="3">
+      <c r="E36" s="3">
         <v>5000</v>
       </c>
-      <c r="I36" s="3">
+      <c r="H36" s="3">
         <v>5000</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
         <v>411000</v>
       </c>
-      <c r="R36" s="3">
+      <c r="Q36" s="3">
         <v>416000</v>
       </c>
-      <c r="U36" s="3">
+      <c r="T36" s="3">
         <v>5000</v>
       </c>
-      <c r="X36" s="3">
+      <c r="W36" s="3">
         <v>5000</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="Z36" s="3">
         <v>1542000</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AC36" s="3">
         <v>1519000</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="3">
+      <c r="B37" s="3">
         <v>46617000</v>
       </c>
-      <c r="F37" s="3">
+      <c r="E37" s="3">
         <v>42913000</v>
       </c>
-      <c r="I37" s="3">
+      <c r="H37" s="3">
         <v>31925000</v>
       </c>
-      <c r="L37" s="3">
+      <c r="K37" s="3">
         <v>32542000</v>
       </c>
-      <c r="O37" s="3">
+      <c r="N37" s="3">
         <v>29480000</v>
       </c>
-      <c r="R37" s="3">
+      <c r="Q37" s="3">
         <v>26840000</v>
       </c>
-      <c r="U37" s="3">
+      <c r="T37" s="3">
         <v>25104000</v>
       </c>
-      <c r="X37" s="3">
+      <c r="W37" s="3">
         <v>23680000</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="Z37" s="3">
         <v>22714000</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AC37" s="3">
         <v>21796000</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="3">
+      <c r="B38" s="3">
         <v>4000</v>
       </c>
-      <c r="F38" s="3">
+      <c r="E38" s="3">
         <v>5000</v>
       </c>
-      <c r="I38" s="3">
+      <c r="H38" s="3">
         <v>7000</v>
       </c>
-      <c r="L38" s="3">
+      <c r="K38" s="3">
         <v>10000</v>
       </c>
-      <c r="O38" s="3">
+      <c r="N38" s="3">
         <v>11000</v>
       </c>
-      <c r="R38" s="3">
+      <c r="Q38" s="3">
         <v>12000</v>
       </c>
-      <c r="U38" s="3">
+      <c r="T38" s="3">
         <v>13000</v>
       </c>
-      <c r="X38" s="3">
+      <c r="W38" s="3">
         <v>21000</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="Z38" s="3">
         <v>22000</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AC38" s="3">
         <v>30000</v>
       </c>
     </row>
@@ -24687,12 +24705,22 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data/Morgan_Stanley_bank.xlsx
+++ b/Data/Morgan_Stanley_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85EF0C-F48A-47FE-B6B8-97C51029D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE0D897-5C23-4491-A98B-20C06A2FE9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="287">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>Number of banks in Peer Group</t>
   </si>
   <si>
     <t>YIELD ON OR COST OF:</t>
@@ -1272,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7E63F-C1EC-479A-887D-3134EA9C8E58}">
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1301,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4">
         <v>44926</v>
@@ -1459,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>3</v>
@@ -1468,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>3</v>
@@ -1477,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB2" s="5" t="s">
         <v>3</v>
@@ -1486,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE2" s="5" t="s">
         <v>3</v>
@@ -5485,41 +5482,6 @@
       </c>
       <c r="AC57" s="7">
         <v>471000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="5">
-        <v>31</v>
-      </c>
-      <c r="E59" s="5">
-        <v>31</v>
-      </c>
-      <c r="H59" s="5">
-        <v>30</v>
-      </c>
-      <c r="K59" s="5">
-        <v>28</v>
-      </c>
-      <c r="N59" s="5">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>28</v>
-      </c>
-      <c r="T59" s="5">
-        <v>94</v>
-      </c>
-      <c r="W59" s="5">
-        <v>93</v>
-      </c>
-      <c r="Z59" s="5">
-        <v>92</v>
-      </c>
-      <c r="AC59" s="5">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5552,7 +5514,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4">
         <v>44926</v>
@@ -5647,7 +5609,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5707,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
@@ -5716,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y2" t="s">
         <v>3</v>
@@ -5725,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -5734,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE2" t="s">
         <v>3</v>
@@ -5742,7 +5704,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2.99</v>
@@ -5837,7 +5799,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>2.99</v>
@@ -5932,7 +5894,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>2.87</v>
@@ -6027,7 +5989,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>2.8</v>
@@ -6122,7 +6084,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>3.53</v>
@@ -6217,7 +6179,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>2.77</v>
@@ -6312,7 +6274,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>3.31</v>
@@ -6407,7 +6369,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -6502,7 +6464,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -6597,7 +6559,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -6692,7 +6654,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>1.48</v>
@@ -6787,7 +6749,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>1.48</v>
@@ -6882,7 +6844,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>1.21</v>
@@ -6977,7 +6939,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>1.6</v>
@@ -7072,7 +7034,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>2.66</v>
@@ -7167,7 +7129,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>1.73</v>
@@ -7262,7 +7224,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>0.38</v>
@@ -7357,7 +7319,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>0.5</v>
@@ -7452,7 +7414,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>0.52</v>
@@ -7547,7 +7509,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>0.26</v>
@@ -7642,7 +7604,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>3.01</v>
@@ -7737,7 +7699,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -7832,7 +7794,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7927,7 +7889,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>4.66</v>
@@ -8022,7 +7984,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -8117,7 +8079,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -8212,7 +8174,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>0.51</v>
@@ -8307,7 +8269,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -8402,12 +8364,12 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>61.49</v>
@@ -8502,7 +8464,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>61.49</v>
@@ -8597,7 +8559,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>27.62</v>
@@ -8692,7 +8654,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <v>24.74</v>
@@ -8787,7 +8749,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>2.88</v>
@@ -8882,7 +8844,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>2.63</v>
@@ -8977,7 +8939,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>13.7</v>
@@ -9072,7 +9034,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9167,7 +9129,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9262,7 +9224,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -9357,7 +9319,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>27.76</v>
@@ -9452,7 +9414,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>9.2799999999999994</v>
@@ -9547,7 +9509,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <v>18.18</v>
@@ -9642,7 +9604,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>0.3</v>
@@ -9737,7 +9699,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49">
         <v>8.82</v>
@@ -9832,7 +9794,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>0.26</v>
@@ -9927,7 +9889,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>87.24</v>
@@ -10022,7 +9984,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52">
         <v>47.61</v>
@@ -10117,7 +10079,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53">
         <v>36.44</v>
@@ -10212,7 +10174,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54">
         <v>3.19</v>
@@ -10307,7 +10269,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
@@ -10402,7 +10364,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10497,7 +10459,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0.18</v>
@@ -10592,7 +10554,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -10687,7 +10649,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60">
         <v>0.18</v>
@@ -10782,7 +10744,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>87.42</v>
@@ -10877,7 +10839,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -11000,7 +10962,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4">
         <v>44926</v>
@@ -11095,7 +11057,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11155,7 +11117,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
@@ -11164,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y2" t="s">
         <v>3</v>
@@ -11173,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -11182,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE2" t="s">
         <v>3</v>
@@ -11190,7 +11152,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11285,7 +11247,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>62.43</v>
@@ -11380,7 +11342,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>7.0000000000000007E-2</v>
@@ -11475,7 +11437,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>62.37</v>
@@ -11570,7 +11532,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>9.75</v>
@@ -11665,7 +11627,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0.62</v>
@@ -11760,7 +11722,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11855,7 +11817,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>15.86</v>
@@ -11950,7 +11912,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12045,7 +12007,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>9.6999999999999993</v>
@@ -12140,7 +12102,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12235,7 +12197,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16">
         <v>98.29</v>
@@ -12330,7 +12292,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18">
         <v>0.05</v>
@@ -12425,7 +12387,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12520,7 +12482,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12615,7 +12577,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21">
         <v>0.36</v>
@@ -12710,7 +12672,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12805,7 +12767,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23">
         <v>1.31</v>
@@ -12900,7 +12862,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24">
         <v>1.71</v>
@@ -12995,7 +12957,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -13090,7 +13052,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27">
         <v>0.24</v>
@@ -13185,12 +13147,12 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30">
         <v>56.07</v>
@@ -13285,7 +13247,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -13380,7 +13342,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32">
         <v>30.74</v>
@@ -13475,7 +13437,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33">
         <v>0.85</v>
@@ -13570,7 +13532,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34">
         <v>3.73</v>
@@ -13665,7 +13627,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35">
         <v>5.43</v>
@@ -13760,7 +13722,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>85.97</v>
@@ -13855,7 +13817,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>5.43</v>
@@ -13950,7 +13912,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -14045,7 +14007,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -14140,7 +14102,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <v>91.4</v>
@@ -14235,7 +14197,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -14330,7 +14292,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -14425,7 +14387,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44">
         <v>0.23</v>
@@ -14520,7 +14482,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45">
         <v>3.64</v>
@@ -14615,7 +14577,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -14710,7 +14672,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48">
         <v>0.43</v>
@@ -14805,7 +14767,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49">
         <v>92.06</v>
@@ -14900,7 +14862,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51">
         <v>7.94</v>
@@ -14995,7 +14957,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52">
         <v>100</v>
@@ -15090,7 +15052,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54">
         <v>6.83</v>
@@ -15185,7 +15147,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55">
         <v>5.43</v>
@@ -15280,7 +15242,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -15403,7 +15365,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4">
         <v>44926</v>
@@ -15498,7 +15460,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -15558,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
@@ -15567,7 +15529,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y2" t="s">
         <v>3</v>
@@ -15576,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -15585,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE2" t="s">
         <v>3</v>
@@ -15593,7 +15555,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>37.64</v>
@@ -15688,7 +15650,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>22.6</v>
@@ -15783,7 +15745,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>11.92</v>
@@ -15878,7 +15840,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>46.06</v>
@@ -15973,7 +15935,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8">
         <v>0.56999999999999995</v>
@@ -16068,7 +16030,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9">
         <v>3.9</v>
@@ -16163,7 +16125,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>23.18</v>
@@ -16258,7 +16220,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12">
         <v>1.72</v>
@@ -16353,7 +16315,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13">
         <v>1.5</v>
@@ -16448,7 +16410,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -16543,7 +16505,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -16638,7 +16600,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -16733,12 +16695,12 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20">
         <v>8.86</v>
@@ -16833,7 +16795,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21">
         <v>14.68</v>
@@ -16928,7 +16890,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22">
         <v>7.16</v>
@@ -17023,7 +16985,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24">
         <v>-2.58</v>
@@ -17118,7 +17080,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25">
         <v>-34.799999999999997</v>
@@ -17213,12 +17175,12 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>47.57</v>
@@ -17313,7 +17275,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>0.4</v>
@@ -17408,7 +17370,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30">
         <v>47.16</v>
@@ -17503,7 +17465,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>56.02</v>
@@ -17598,7 +17560,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33">
         <v>2.64</v>
@@ -17693,7 +17655,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34">
         <v>53.37</v>
@@ -17788,7 +17750,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>84.89</v>
@@ -17883,7 +17845,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37">
         <v>178.46</v>
@@ -17978,7 +17940,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38">
         <v>-37.32</v>
@@ -18073,12 +18035,12 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -18173,7 +18135,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -18268,7 +18230,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -18399,7 +18361,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4">
         <v>44926</v>
@@ -18494,7 +18456,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -18554,7 +18516,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
@@ -18563,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y2" t="s">
         <v>3</v>
@@ -18572,7 +18534,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -18581,7 +18543,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE2" t="s">
         <v>3</v>
@@ -18589,7 +18551,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -18684,7 +18646,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -18779,7 +18741,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -18874,7 +18836,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -18969,7 +18931,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -19064,7 +19026,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -19159,7 +19121,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>81.39</v>
@@ -19254,7 +19216,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -19349,7 +19311,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>18.61</v>
@@ -19444,7 +19406,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -19539,7 +19501,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -19634,7 +19596,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -19729,12 +19691,12 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18">
         <v>-4.5999999999999996</v>
@@ -19829,7 +19791,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19">
         <v>82.15</v>
@@ -20019,7 +19981,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21">
         <v>191.47</v>
@@ -20114,7 +20076,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22">
         <v>859.85</v>
@@ -20209,7 +20171,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23">
         <v>-33.36</v>
@@ -20399,7 +20361,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25">
         <v>75.3</v>
@@ -20494,7 +20456,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26">
         <v>77.38</v>
@@ -20589,7 +20551,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27">
         <v>12.72</v>
@@ -20684,7 +20646,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -20779,7 +20741,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29">
         <v>12.72</v>
@@ -20874,7 +20836,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -20969,7 +20931,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -21064,12 +21026,12 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="3">
         <v>192265000</v>
@@ -21104,7 +21066,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -21139,7 +21101,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -21174,7 +21136,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -21209,7 +21171,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -21244,7 +21206,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="3">
         <v>192265000</v>
@@ -21279,7 +21241,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="3">
         <v>156486000</v>
@@ -21314,7 +21276,7 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -21349,7 +21311,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" s="3">
         <v>35779000</v>
@@ -21384,7 +21346,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="3">
         <v>192265000</v>
@@ -21419,7 +21381,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
@@ -21454,7 +21416,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3">
         <v>192265000</v>
@@ -21489,12 +21451,12 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="3">
         <v>20488000</v>
@@ -21564,7 +21526,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B51" s="3">
         <v>172245000</v>
@@ -21599,7 +21561,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52" s="3">
         <v>8737000</v>
@@ -21634,7 +21596,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" s="3">
         <v>5538000</v>
@@ -21669,7 +21631,7 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -21704,7 +21666,7 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -21739,7 +21701,7 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -21774,7 +21736,7 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -21809,7 +21771,7 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B58" s="3">
         <v>468000</v>
@@ -21844,7 +21806,7 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -21879,7 +21841,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -21914,7 +21876,7 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -21949,7 +21911,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -21984,7 +21946,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -22019,7 +21981,7 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B64" s="3">
         <v>24458000</v>
@@ -22054,7 +22016,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -22122,7 +22084,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4">
         <v>44926</v>
@@ -22217,7 +22179,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -22277,7 +22239,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
@@ -22286,7 +22248,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y2" t="s">
         <v>3</v>
@@ -22295,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -22304,7 +22266,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE2" t="s">
         <v>3</v>
@@ -22407,7 +22369,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -22502,7 +22464,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>62.09</v>
@@ -22597,7 +22559,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>22.24</v>
@@ -22692,17 +22654,17 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10">
         <v>33.76</v>
@@ -22797,7 +22759,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -22892,7 +22854,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12">
         <v>50.04</v>
@@ -22987,7 +22949,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>4.59</v>
@@ -23082,7 +23044,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14">
         <v>10.61</v>
@@ -23177,7 +23139,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15">
         <v>0.99</v>
@@ -23272,7 +23234,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -23367,7 +23329,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -23462,7 +23424,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -23557,7 +23519,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -23652,7 +23614,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -23747,12 +23709,12 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -23847,7 +23809,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24">
         <v>-6.72</v>
@@ -23942,7 +23904,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25">
         <v>-17.57</v>
@@ -24037,7 +23999,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26">
         <v>-33.869999999999997</v>
@@ -24132,7 +24094,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27">
         <v>0.01</v>
@@ -24227,7 +24189,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28">
         <v>35.9</v>
@@ -24322,7 +24284,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -24417,7 +24379,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="3">
         <v>28635000</v>
@@ -24452,7 +24414,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="3">
         <v>79149000</v>
@@ -24487,7 +24449,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -24522,7 +24484,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -24557,7 +24519,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -24592,7 +24554,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="3">
         <v>5000</v>
@@ -24627,7 +24589,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="3">
         <v>46617000</v>
@@ -24662,7 +24624,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="3">
         <v>4000</v>
@@ -24725,7 +24687,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -24760,7 +24722,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -24770,7 +24732,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -24805,7 +24767,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -24840,7 +24802,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" s="3">
         <v>450000</v>
@@ -24875,7 +24837,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -24910,7 +24872,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="3">
         <v>15546000</v>
@@ -24945,12 +24907,12 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -24985,7 +24947,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -25020,7 +24982,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="3">
         <v>149000</v>
@@ -25055,7 +25017,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -25090,7 +25052,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -25125,7 +25087,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="3">
         <v>149000</v>
@@ -25160,12 +25122,12 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="3">
         <v>15695000</v>
@@ -25200,7 +25162,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -25235,7 +25197,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -25270,7 +25232,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="3">
         <v>15695000</v>
@@ -25305,17 +25267,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B26" s="3">
         <v>5999000</v>
@@ -25350,7 +25312,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" s="3">
         <v>27208000</v>
@@ -25385,7 +25347,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" s="3">
         <v>17717000</v>
@@ -25420,7 +25382,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="3">
         <v>52798000</v>
@@ -25455,7 +25417,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="3">
         <v>46673000</v>
@@ -25490,12 +25452,12 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" s="3">
         <v>1600</v>
@@ -25530,7 +25492,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" s="3">
         <v>57500</v>
@@ -25565,7 +25527,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" s="3">
         <v>3577000</v>
@@ -25600,7 +25562,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="3">
         <v>3689100</v>
@@ -25635,7 +25597,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="3">
         <v>364000</v>
@@ -25670,12 +25632,12 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="3">
         <v>56487100</v>
@@ -25710,7 +25672,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -25745,7 +25707,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -25780,7 +25742,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
@@ -25815,7 +25777,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="3">
         <v>56487100</v>

--- a/Data/Morgan_Stanley_bank.xlsx
+++ b/Data/Morgan_Stanley_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE0D897-5C23-4491-A98B-20C06A2FE9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B40C0E-B23A-4099-A205-DBD8BE7A0F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" firstSheet="2" activeTab="6" xr2:uid="{0AC32DF6-649E-4C35-80BD-90E250E2D93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Balance Sheet Percentage" sheetId="6" r:id="rId3"/>
     <sheet name="Interest Rate Risk" sheetId="8" r:id="rId4"/>
     <sheet name="Liquidity and Funding" sheetId="9" r:id="rId5"/>
-    <sheet name="Liquidity and Investment" sheetId="10" r:id="rId6"/>
-    <sheet name="Capital Analysis D" sheetId="14" r:id="rId7"/>
+    <sheet name="Liquidity and Funding - Totals" sheetId="15" r:id="rId6"/>
+    <sheet name="Liquidity &amp; Investment" sheetId="10" r:id="rId7"/>
+    <sheet name="Liquidity &amp; Investment - Totals" sheetId="16" r:id="rId8"/>
+    <sheet name="Capital Analysis D" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="287">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -1271,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7E63F-C1EC-479A-887D-3134EA9C8E58}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -18330,10 +18332,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D2E1C1-6684-49E1-AA2C-9EE1B4343B45}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21024,1042 +21026,1101 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="3">
-        <v>192265000</v>
-      </c>
-      <c r="E34" s="3">
-        <v>182630000</v>
-      </c>
-      <c r="H34" s="3">
-        <v>125670000</v>
-      </c>
-      <c r="K34" s="3">
-        <v>108790000</v>
-      </c>
-      <c r="N34" s="3">
-        <v>107259000</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>93901000</v>
-      </c>
-      <c r="T34" s="3">
-        <v>74026000</v>
-      </c>
-      <c r="W34" s="3">
-        <v>67254000</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>65920000</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>61295000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="3">
-        <v>192265000</v>
-      </c>
-      <c r="E39" s="3">
-        <v>182630000</v>
-      </c>
-      <c r="H39" s="3">
-        <v>125670000</v>
-      </c>
-      <c r="K39" s="3">
-        <v>108790000</v>
-      </c>
-      <c r="N39" s="3">
-        <v>107259000</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>93901000</v>
-      </c>
-      <c r="T39" s="3">
-        <v>74026000</v>
-      </c>
-      <c r="W39" s="3">
-        <v>67254000</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>65920000</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>61295000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" s="3">
-        <v>156486000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>72726000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>19366000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>17682000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>19142000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>15966000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>10053000</v>
-      </c>
-      <c r="W41" s="3">
-        <v>7934000</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>4540000</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>2751000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="3">
-        <v>35779000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>109904000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>106304000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>91108000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>88117000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>77935000</v>
-      </c>
-      <c r="T43" s="3">
-        <v>63973000</v>
-      </c>
-      <c r="W43" s="3">
-        <v>59320000</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>61380000</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>58544000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="3">
-        <v>192265000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>182630000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>125670000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>108790000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>107259000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>93901000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>74026000</v>
-      </c>
-      <c r="W44" s="3">
-        <v>67254000</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>65920000</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>61295000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>30</v>
-      </c>
-      <c r="T45" t="s">
-        <v>30</v>
-      </c>
-      <c r="W45" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="3">
-        <v>192265000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>182630000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>125670000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>108790000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>107259000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>93901000</v>
-      </c>
-      <c r="T46" s="3">
-        <v>74026000</v>
-      </c>
-      <c r="W46" s="3">
-        <v>67254000</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>65920000</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>61295000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="3">
-        <v>20488000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7804000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>23739000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>30812000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>23338000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>22687000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>21883000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>19364000</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>15259000</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>14494000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="3">
-        <v>14955000</v>
-      </c>
-      <c r="E50" s="3">
-        <v>4253000</v>
-      </c>
-      <c r="H50" s="3">
-        <v>20875000</v>
-      </c>
-      <c r="K50" s="3">
-        <v>12281000</v>
-      </c>
-      <c r="N50" s="3">
-        <v>18944000</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>16740000</v>
-      </c>
-      <c r="T50" s="3">
-        <v>15466000</v>
-      </c>
-      <c r="W50" s="3">
-        <v>13410000</v>
-      </c>
-      <c r="Z50" s="3">
-        <v>11879000</v>
-      </c>
-      <c r="AC50" s="3">
-        <v>12838000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="3">
-        <v>172245000</v>
-      </c>
-      <c r="E51" s="3">
-        <v>175289000</v>
-      </c>
-      <c r="H51" s="3">
-        <v>120191000</v>
-      </c>
-      <c r="K51" s="3">
-        <v>94262000</v>
-      </c>
-      <c r="N51" s="3">
-        <v>87925000</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>71237000</v>
-      </c>
-      <c r="T51" s="3">
-        <v>52943000</v>
-      </c>
-      <c r="W51" s="3">
-        <v>47907000</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>52169000</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>48307000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>205</v>
-      </c>
-      <c r="B52" s="3">
-        <v>8737000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1577000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1703000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2936000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>5718000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>7650000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>7393000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>7377000</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>5794000</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>8453000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="3">
-        <v>5538000</v>
-      </c>
-      <c r="E53" s="3">
-        <v>3556000</v>
-      </c>
-      <c r="H53" s="3">
-        <v>2864000</v>
-      </c>
-      <c r="K53" s="3">
-        <v>3282000</v>
-      </c>
-      <c r="N53" s="3">
-        <v>4393000</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>5924000</v>
-      </c>
-      <c r="T53" s="3">
-        <v>6368000</v>
-      </c>
-      <c r="W53" s="3">
-        <v>5937000</v>
-      </c>
-      <c r="Z53" s="3">
-        <v>3373000</v>
-      </c>
-      <c r="AC53" s="3">
-        <v>1650000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>16000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>18000</v>
-      </c>
-      <c r="T54" s="3">
-        <v>12000</v>
-      </c>
-      <c r="W54" s="3">
-        <v>26000</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>11000</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>208</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="T56" s="3">
-        <v>750000</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B58" s="3">
-        <v>468000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>463000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>18260000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1034000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>4003000</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>15250000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>23000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>50000</v>
-      </c>
-      <c r="W59" s="3">
-        <v>16000</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>7000</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>216</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64" s="3">
-        <v>24458000</v>
-      </c>
-      <c r="E64" s="3">
-        <v>9331000</v>
-      </c>
-      <c r="H64" s="3">
-        <v>5484000</v>
-      </c>
-      <c r="K64" s="3">
-        <v>22781000</v>
-      </c>
-      <c r="N64" s="3">
-        <v>29085000</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>31470000</v>
-      </c>
-      <c r="T64" s="3">
-        <v>27054000</v>
-      </c>
-      <c r="W64" s="3">
-        <v>23871000</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>15980000</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>14308000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E29908-4791-4189-9C35-F12CA669FF1A}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="4">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="4">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="4">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="4">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="3">
+        <v>192265000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>182630000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>125670000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>108790000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>107259000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>93901000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>74026000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>67254000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>65920000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>61295000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="3">
+        <v>192265000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>182630000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>125670000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>108790000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>107259000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>93901000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>74026000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>67254000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>65920000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>61295000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="3">
+        <v>156486000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>72726000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>19366000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17682000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>19142000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15966000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10053000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7934000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4540000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2751000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35779000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>109904000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>106304000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>91108000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>88117000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>77935000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>63973000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>59320000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>61380000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>58544000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="3">
+        <v>192265000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>182630000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>125670000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>108790000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>107259000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>93901000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>74026000</v>
+      </c>
+      <c r="I13" s="3">
+        <v>67254000</v>
+      </c>
+      <c r="J13" s="3">
+        <v>65920000</v>
+      </c>
+      <c r="K13" s="3">
+        <v>61295000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3">
+        <v>192265000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>182630000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>125670000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>108790000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>107259000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>93901000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>74026000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>67254000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>65920000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>61295000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="3">
+        <v>20488000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7804000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>23739000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30812000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>23338000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>22687000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>21883000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>19364000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15259000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>14494000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14955000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4253000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20875000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>12281000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>18944000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>16740000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>15466000</v>
+      </c>
+      <c r="I19" s="3">
+        <v>13410000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>11879000</v>
+      </c>
+      <c r="K19" s="3">
+        <v>12838000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="3">
+        <v>172245000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>175289000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>120191000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>94262000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>87925000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>71237000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>52943000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>47907000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>52169000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>48307000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8737000</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2936000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5718000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7650000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7393000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7377000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5794000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8453000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5538000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3556000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2864000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3282000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4393000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5924000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6368000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5937000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3373000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>750000</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="3">
+        <v>468000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>463000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>18260000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4003000</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>15250000</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>23000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I28" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J28" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="3">
+        <v>24458000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9331000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5484000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>22781000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>29085000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>31470000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>27054000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>23871000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>15980000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>14308000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248011F-41E9-4304-9A48-4AED5E349348}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24377,292 +24438,355 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="3">
-        <v>28635000</v>
-      </c>
-      <c r="E31" s="3">
-        <v>20019000</v>
-      </c>
-      <c r="H31" s="3">
-        <v>15574000</v>
-      </c>
-      <c r="K31" s="3">
-        <v>19032000</v>
-      </c>
-      <c r="N31" s="3">
-        <v>24021000</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>17823000</v>
-      </c>
-      <c r="T31" s="3">
-        <v>5201000</v>
-      </c>
-      <c r="W31" s="3">
-        <v>4248000</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>7835000</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>7678000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="3">
-        <v>79149000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>70944000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>59997000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>54961000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>53767000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>41480000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>27033000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>24312000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>27196000</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>24251000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>411000</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>416000</v>
-      </c>
-      <c r="T36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="W36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>1542000</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>1519000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="3">
-        <v>46617000</v>
-      </c>
-      <c r="E37" s="3">
-        <v>42913000</v>
-      </c>
-      <c r="H37" s="3">
-        <v>31925000</v>
-      </c>
-      <c r="K37" s="3">
-        <v>32542000</v>
-      </c>
-      <c r="N37" s="3">
-        <v>29480000</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>26840000</v>
-      </c>
-      <c r="T37" s="3">
-        <v>25104000</v>
-      </c>
-      <c r="W37" s="3">
-        <v>23680000</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>22714000</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>21796000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H38" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K38" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N38" s="3">
-        <v>11000</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>12000</v>
-      </c>
-      <c r="T38" s="3">
-        <v>13000</v>
-      </c>
-      <c r="W38" s="3">
-        <v>21000</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>22000</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>30000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4F9E39-9B17-41D2-BACB-B467A8096953}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="4">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="4">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="4">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="4">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="3">
+        <v>28635000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20019000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15574000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>19032000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>24021000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>17823000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5201000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4248000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7835000</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7678000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="3">
+        <v>79149000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>70944000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>59997000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>54961000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>53767000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>41480000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>27033000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>24312000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>27196000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>24251000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>411000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>416000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1519000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="3">
+        <v>46617000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42913000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>31925000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32542000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29480000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>26840000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>25104000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>23680000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22714000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>21796000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D7596-E732-4320-8DA0-47DB1043AB89}">
   <dimension ref="A1:K44"/>
   <sheetViews>
